--- a/excel-beginner-tutorial.xlsx
+++ b/excel-beginner-tutorial.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26316"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F8BCA-96F8-48A1-B919-F4A682D7CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1541B47-130B-4494-90D7-9D185CC34961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="9" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
     <sheet name="DataTypes" sheetId="14" r:id="rId2"/>
-    <sheet name="Formatting" sheetId="2" r:id="rId3"/>
-    <sheet name="Text" sheetId="4" r:id="rId4"/>
-    <sheet name="Table" sheetId="3" r:id="rId5"/>
-    <sheet name="AbsoluteAndRelative" sheetId="9" r:id="rId6"/>
-    <sheet name="Vlookup simple" sheetId="11" r:id="rId7"/>
-    <sheet name="Vlookup 1" sheetId="10" r:id="rId8"/>
-    <sheet name="Vlookup 2" sheetId="8" r:id="rId9"/>
-    <sheet name="Vlookup Scenario" sheetId="13" r:id="rId10"/>
-    <sheet name="Shortcut Keys" sheetId="12" r:id="rId11"/>
-    <sheet name="Pivot" sheetId="5" r:id="rId12"/>
-    <sheet name="Pivot (2)" sheetId="7" r:id="rId13"/>
+    <sheet name="Logical and Condi State." sheetId="15" r:id="rId3"/>
+    <sheet name="Formatting" sheetId="2" r:id="rId4"/>
+    <sheet name="Text" sheetId="4" r:id="rId5"/>
+    <sheet name="Table" sheetId="3" r:id="rId6"/>
+    <sheet name="AbsoluteAndRelative" sheetId="9" r:id="rId7"/>
+    <sheet name="Vlookup simple" sheetId="11" r:id="rId8"/>
+    <sheet name="Vlookup 1" sheetId="10" r:id="rId9"/>
+    <sheet name="Vlookup 2" sheetId="8" r:id="rId10"/>
+    <sheet name="Vlookup Scenario" sheetId="13" r:id="rId11"/>
+    <sheet name="Shortcut Keys" sheetId="12" r:id="rId12"/>
+    <sheet name="Pivot" sheetId="5" r:id="rId13"/>
+    <sheet name="Pivot (2)" sheetId="7" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Text!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Text!$A$1:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="700">
   <si>
     <t>Reg No.</t>
   </si>
@@ -2155,6 +2156,24 @@
   </si>
   <si>
     <t>4m 31s</t>
+  </si>
+  <si>
+    <t>Logical 1</t>
+  </si>
+  <si>
+    <t>Logical 2</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Full Name</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2323,13 +2342,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2353,20 +2387,132 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C317EB46-FD19-411F-B09C-9673D28024EA}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2390,7 +2536,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>287313</xdr:colOff>
+      <xdr:colOff>363513</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>107105</xdr:rowOff>
     </xdr:to>
@@ -2520,7 +2666,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -2563,7 +2709,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>315899</xdr:colOff>
+      <xdr:colOff>392099</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>200321</xdr:rowOff>
     </xdr:to>
@@ -2692,7 +2838,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>515936</xdr:colOff>
+      <xdr:colOff>592136</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>152739</xdr:rowOff>
     </xdr:to>
@@ -2822,7 +2968,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>829212</xdr:colOff>
+      <xdr:colOff>905412</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -2857,6 +3003,254 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1841402" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A412451F-E0ED-1A52-77F9-100632D476EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="419100"/>
+          <a:ext cx="1841402" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Strings Align towards the left</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2715230" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766FE5CF-D410-A095-8D57-11DCA2A04E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="2352675"/>
+          <a:ext cx="2715230" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Numbers/Decimal/Dates</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> align towards right</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2012474" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42B0249-518D-B981-627B-04724AF99401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="247650"/>
+          <a:ext cx="2012474" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Boolean and Errors align</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> middle</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{503F3CCD-0AAD-446E-97BA-E431AE00EECA}" name="Table2" displayName="Table2" ref="A1:G51" totalsRowShown="0">
+  <autoFilter ref="A1:G51" xr:uid="{503F3CCD-0AAD-446E-97BA-E431AE00EECA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{47BB754B-4DE9-4203-8E91-273C9A1A9084}" name="Reg No."/>
+    <tableColumn id="2" xr3:uid="{8AD25F84-1FD4-4DBD-ADC0-46CC0FD68A7F}" name="Name" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{C16F76A0-D1B3-44D5-B6DF-F0E3A60E58F5}" name="Lang"/>
+    <tableColumn id="4" xr3:uid="{0FDCAC90-13FE-48E5-96BE-C274EBCB105B}" name="Eng"/>
+    <tableColumn id="5" xr3:uid="{69662E3A-CB6C-4E37-9A57-721D97D5FBBB}" name="Math"/>
+    <tableColumn id="6" xr3:uid="{64D754C1-6B75-4F67-A471-96F3A060FAF5}" name="Science"/>
+    <tableColumn id="7" xr3:uid="{77C5AE01-A4EE-4395-B3F2-5FA3591CE137}" name="Social"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3158,13 +3552,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA1A12F-1E41-41A1-853B-53EC10CAE414}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="11" style="16" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="16" customWidth="1"/>
@@ -3217,6 +3609,657 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C7C63A-B289-43DD-9A7C-2D11E4BAFA22}">
+  <dimension ref="A1:W51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H1" t="s">
+        <v>449</v>
+      </c>
+      <c r="L1">
+        <v>25615252</v>
+      </c>
+      <c r="M1" t="s">
+        <v>448</v>
+      </c>
+      <c r="N1" t="s">
+        <v>449</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="1">
+        <v>501</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D2" s="1">
+        <v>501</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2">
+        <v>25615253</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>452</v>
+      </c>
+      <c r="P2" s="1">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>435</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="1">
+        <v>480</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="1">
+        <v>480</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>457</v>
+      </c>
+      <c r="L3">
+        <v>25615254</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>457</v>
+      </c>
+      <c r="P3" s="1">
+        <v>501</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3" t="s">
+        <v>436</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="1">
+        <v>798</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="1">
+        <v>798</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>462</v>
+      </c>
+      <c r="L4">
+        <v>25615255</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>462</v>
+      </c>
+      <c r="P4" s="1">
+        <v>708</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>437</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="1">
+        <v>798</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="1">
+        <v>798</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="L5">
+        <v>25615256</v>
+      </c>
+      <c r="P5" s="1">
+        <v>480</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5" t="s">
+        <v>438</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="1">
+        <v>708</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D6" s="1">
+        <v>708</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="L6">
+        <v>25615257</v>
+      </c>
+      <c r="P6" s="1">
+        <v>798</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>439</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" s="1">
+        <v>501</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="1">
+        <v>501</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="L7">
+        <v>25615258</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>440</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" s="1">
+        <v>480</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="1">
+        <v>480</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="L8">
+        <v>25615259</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8" t="s">
+        <v>441</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" s="1">
+        <v>501</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="1">
+        <v>501</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="L9">
+        <v>25615260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="1">
+        <v>708</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" s="1">
+        <v>708</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="L10">
+        <v>25615261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="1">
+        <v>798</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" s="1">
+        <v>798</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="L11">
+        <v>25615262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" s="1">
+        <v>221</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" s="1">
+        <v>221</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" s="1">
+        <v>480</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="1">
+        <v>480</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="1">
+        <v>221</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D16" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" s="1">
+        <v>480</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D17" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" s="1">
+        <v>798</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19" s="1">
+        <v>798</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D19" s="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B20" s="1">
+        <v>798</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" s="1">
+        <v>221</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D21" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{2C561F34-81F9-4CAB-956E-16485D5E9EE4}"/>
+    <hyperlink ref="W3" r:id="rId2" xr:uid="{32E16DE5-2209-4069-8BE8-B0C17B34606B}"/>
+    <hyperlink ref="W4" r:id="rId3" xr:uid="{3EDC17D8-3E04-444E-B57B-125F4655DB4A}"/>
+    <hyperlink ref="W5" r:id="rId4" xr:uid="{84305B62-EE37-48B6-821E-9B2AC94DAB8C}"/>
+    <hyperlink ref="W6" r:id="rId5" xr:uid="{E80B595B-8339-4079-8F6B-CB7D23A6D48B}"/>
+    <hyperlink ref="W7" r:id="rId6" xr:uid="{3633C187-ADE2-4159-BBAF-6EADB466CA03}"/>
+    <hyperlink ref="W8" r:id="rId7" xr:uid="{36AFF22D-E43B-4009-92E8-0C44ED632D10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97242C3-98C7-4CC8-9E05-11ED756AE458}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -3345,7 +4388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108E1899-0BA1-4EAD-977B-5AF4891D964A}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3564,7 +4607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59B5EA-5F36-4506-9B80-2736CCDF45D1}">
   <dimension ref="A1:C201"/>
   <sheetViews>
@@ -5797,11 +6840,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB8F69F-168D-4701-80B4-C17E080F19B6}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -6935,7 +7978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968705CC-026E-4DAA-B41B-06B4A23E9192}">
   <dimension ref="C5:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6951,62 +7994,246 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="26" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>649</v>
       </c>
-      <c r="E6" s="20">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
         <v>123</v>
       </c>
-      <c r="G6" s="20" t="b">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="20" t="e" cm="1">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27" t="e" cm="1">
         <f t="array" ref="I6">num</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E7" s="20">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27">
         <v>3.14</v>
       </c>
-      <c r="G7" s="20" t="b">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="20" t="e">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="e">
         <f>SUM("TY")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E8" s="23">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="29">
         <v>44956</v>
       </c>
-      <c r="I8" s="20" t="e">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="22">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30">
         <v>44974.951585648145</v>
       </c>
-      <c r="I9" s="20" t="e" cm="1">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27" t="e" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("")</f>
         <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F49360-AC51-4238-99A6-81570E6697CB}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="b">
+        <f>F2=F3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <f>G2&lt;&gt;G3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <f>H2&gt;H3</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f>I2&lt;I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="b">
+        <f>AND(F4,G4)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <f>OR(G4,H4)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <f>NOT(H4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7015,32 +8242,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F8E3B5-554F-4D16-AC57-F84549ADE38B}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="10" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -7067,1776 +8294,1912 @@
       <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="O1" s="25">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="O1" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="22">
         <v>77</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>65</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <v>95</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="22">
         <v>84</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="22">
         <v>70</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="22">
         <f>SUM(C2:G2)</f>
         <v>391</v>
       </c>
-      <c r="I2" s="25">
-        <f>H2/5</f>
+      <c r="I2" s="22">
+        <f>AVERAGE(C2:G2)</f>
         <v>78.2</v>
       </c>
-      <c r="J2" s="25" t="str">
+      <c r="J2" s="22" t="str">
         <f>IF(AND(C2&gt;=$O$1,D2&gt;=$O$1,E2&gt;=$O$1,F2&gt;=$O$1,G2&gt;=$O$1),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="Q2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>88</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>90</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>86</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>94</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="22">
         <v>73</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="22">
         <f t="shared" ref="H3:H51" si="0">SUM(C3:G3)</f>
         <v>431</v>
       </c>
-      <c r="I3" s="25">
-        <f t="shared" ref="I3:I51" si="1">H3/5</f>
+      <c r="I3" s="22">
+        <f t="shared" ref="I3:I51" si="1">AVERAGE(C3:G3)</f>
         <v>86.2</v>
       </c>
-      <c r="J3" s="25" t="str">
+      <c r="J3" s="22" t="str">
         <f t="shared" ref="J3:J51" si="2">IF(AND(C3&gt;=$O$1,D3&gt;=$O$1,E3&gt;=$O$1,F3&gt;=$O$1,G3&gt;=$O$1),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="Q3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>84</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>69</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>69</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>53</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="22">
         <v>72</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="22">
         <f t="shared" si="1"/>
         <v>69.400000000000006</v>
       </c>
-      <c r="J4" s="25" t="str">
+      <c r="J4" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4" t="b">
+        <f>M4&gt;=O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>40</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <v>45</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>83</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>75</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <v>77</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="22">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="J5" s="25" t="str">
+      <c r="J5" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="N5" t="b">
+        <f>M5&gt;=$O$1</f>
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>47</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>70</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>48</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>52</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>53</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="22">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="J6" s="25" t="str">
+      <c r="J6" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="M6">
+        <v>52</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" ref="N6:N8" si="3">M6&gt;=$O$1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>95</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>82</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>40</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>81</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>92</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="22">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="J7" s="25" t="str">
+      <c r="J7" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="M7">
+        <v>70</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>78</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <v>95</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>60</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>85</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <v>89</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="22">
         <f t="shared" si="0"/>
         <v>407</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="22">
         <f t="shared" si="1"/>
         <v>81.400000000000006</v>
       </c>
-      <c r="J8" s="25" t="str">
+      <c r="J8" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="M8">
+        <v>90</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>97</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>48</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <v>76</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>98</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <v>86</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="22">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="J9" s="25" t="str">
+      <c r="J9" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>62</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>45</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>91</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>88</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <v>92</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="22">
         <f t="shared" si="1"/>
         <v>75.599999999999994</v>
       </c>
-      <c r="J10" s="25" t="str">
+      <c r="J10" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="O10" t="str">
+        <f>IF(50&gt;81,"Correct","Wrong")</f>
+        <v>Wrong</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF(20&gt;O1,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>45</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="22">
         <v>59</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>69</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>47</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="22">
         <v>68</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="22">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="22">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="J11" s="25" t="str">
+      <c r="J11" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>51</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>45</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>84</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>93</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="22">
         <v>79</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="22">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="22">
         <f t="shared" si="1"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="J12" s="25" t="str">
+      <c r="J12" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>84</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>60</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>44</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>20</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="22">
         <v>41</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="22">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="22">
         <f t="shared" si="1"/>
         <v>49.8</v>
       </c>
-      <c r="J13" s="25" t="str">
+      <c r="J13" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="22">
         <v>90</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="22">
         <v>63</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>66</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>47</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="22">
         <v>97</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="22">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="22">
         <f t="shared" si="1"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="J14" s="25" t="str">
+      <c r="J14" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>86</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>63</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <v>56</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>45</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="22">
         <v>78</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="22">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <f t="shared" si="1"/>
         <v>65.599999999999994</v>
       </c>
-      <c r="J15" s="25" t="str">
+      <c r="J15" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="N15" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="22">
         <v>75</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>81</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>70</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>72</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="22">
         <v>61</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="22">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="22">
         <f t="shared" si="1"/>
         <v>71.8</v>
       </c>
-      <c r="J16" s="25" t="str">
+      <c r="J16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <f>AND(N16,O16)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <f>OR(N16,O16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>40</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <v>76</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <v>98</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>66</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="22">
         <v>51</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="22">
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="22">
         <f t="shared" si="1"/>
         <v>66.2</v>
       </c>
-      <c r="J17" s="25" t="str">
+      <c r="J17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <f t="shared" ref="P17:P19" si="4">AND(N17,O17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <f t="shared" ref="Q17:Q19" si="5">OR(N17,O17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="22">
         <v>53</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="22">
         <v>65</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="22">
         <v>79</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>53</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="22">
         <v>39</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="22">
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="22">
         <f t="shared" si="1"/>
         <v>57.8</v>
       </c>
-      <c r="J18" s="25" t="str">
+      <c r="J18" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="22">
+        <v>85</v>
+      </c>
+      <c r="D19" s="22">
+        <v>88</v>
+      </c>
+      <c r="E19" s="22">
+        <v>100</v>
+      </c>
+      <c r="F19" s="22">
+        <v>92</v>
+      </c>
+      <c r="G19" s="22">
+        <v>98</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="1"/>
+        <v>92.6</v>
+      </c>
+      <c r="J19" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="25">
-        <v>85</v>
-      </c>
-      <c r="D19" s="25">
-        <v>88</v>
-      </c>
-      <c r="E19" s="25">
-        <v>100</v>
-      </c>
-      <c r="F19" s="25">
-        <v>92</v>
-      </c>
-      <c r="G19" s="25">
-        <v>98</v>
-      </c>
-      <c r="H19" s="25">
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="22">
+        <v>89</v>
+      </c>
+      <c r="D20" s="22">
+        <v>91</v>
+      </c>
+      <c r="E20" s="22">
+        <v>89</v>
+      </c>
+      <c r="F20" s="22">
+        <v>84</v>
+      </c>
+      <c r="G20" s="22">
+        <v>77</v>
+      </c>
+      <c r="H20" s="22">
         <f t="shared" si="0"/>
-        <v>463</v>
-      </c>
-      <c r="I19" s="25">
+        <v>430</v>
+      </c>
+      <c r="I20" s="22">
         <f t="shared" si="1"/>
-        <v>92.6</v>
-      </c>
-      <c r="J19" s="25" t="str">
+        <v>86</v>
+      </c>
+      <c r="J20" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="22">
+        <v>78</v>
+      </c>
+      <c r="D21" s="22">
+        <v>78</v>
+      </c>
+      <c r="E21" s="22">
+        <v>85</v>
+      </c>
+      <c r="F21" s="22">
+        <v>47</v>
+      </c>
+      <c r="G21" s="22">
         <v>46</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="25">
-        <v>89</v>
-      </c>
-      <c r="D20" s="25">
-        <v>91</v>
-      </c>
-      <c r="E20" s="25">
-        <v>89</v>
-      </c>
-      <c r="F20" s="25">
-        <v>84</v>
-      </c>
-      <c r="G20" s="25">
-        <v>77</v>
-      </c>
-      <c r="H20" s="25">
+      <c r="H21" s="22">
         <f t="shared" si="0"/>
-        <v>430</v>
-      </c>
-      <c r="I20" s="25">
+        <v>334</v>
+      </c>
+      <c r="I21" s="22">
         <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="J20" s="25" t="str">
+        <v>66.8</v>
+      </c>
+      <c r="J21" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="22">
+        <v>57</v>
+      </c>
+      <c r="E22" s="22">
+        <v>88</v>
+      </c>
+      <c r="F22" s="22">
+        <v>70</v>
+      </c>
+      <c r="G22" s="22">
+        <v>41</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="1"/>
+        <v>55.2</v>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="22">
+        <v>65</v>
+      </c>
+      <c r="D23" s="22">
+        <v>55</v>
+      </c>
+      <c r="E23" s="22">
+        <v>53</v>
+      </c>
+      <c r="F23" s="22">
+        <v>75</v>
+      </c>
+      <c r="G23" s="22">
+        <v>94</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="1"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="22">
+        <v>53</v>
+      </c>
+      <c r="D24" s="22">
+        <v>92</v>
+      </c>
+      <c r="E24" s="22">
+        <v>91</v>
+      </c>
+      <c r="F24" s="22">
         <v>48</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="25">
-        <v>78</v>
-      </c>
-      <c r="D21" s="25">
-        <v>78</v>
-      </c>
-      <c r="E21" s="25">
-        <v>85</v>
-      </c>
-      <c r="F21" s="25">
-        <v>47</v>
-      </c>
-      <c r="G21" s="25">
-        <v>46</v>
-      </c>
-      <c r="H21" s="25">
+      <c r="G24" s="22">
+        <v>50</v>
+      </c>
+      <c r="H24" s="22">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I24" s="22">
         <f t="shared" si="1"/>
         <v>66.8</v>
       </c>
-      <c r="J21" s="25" t="str">
+      <c r="J24" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="25">
-        <v>20</v>
-      </c>
-      <c r="D22" s="25">
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="25">
-        <v>88</v>
-      </c>
-      <c r="F22" s="25">
-        <v>70</v>
-      </c>
-      <c r="G22" s="25">
-        <v>41</v>
-      </c>
-      <c r="H22" s="25">
+      <c r="C25" s="22">
+        <v>68</v>
+      </c>
+      <c r="D25" s="22">
+        <v>53</v>
+      </c>
+      <c r="E25" s="22">
+        <v>38</v>
+      </c>
+      <c r="F25" s="22">
+        <v>85</v>
+      </c>
+      <c r="G25" s="22">
+        <v>78</v>
+      </c>
+      <c r="H25" s="22">
         <f t="shared" si="0"/>
-        <v>276</v>
-      </c>
-      <c r="I22" s="25">
+        <v>322</v>
+      </c>
+      <c r="I25" s="22">
         <f t="shared" si="1"/>
-        <v>55.2</v>
-      </c>
-      <c r="J22" s="25" t="str">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="J25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="25">
-        <v>65</v>
-      </c>
-      <c r="D23" s="25">
-        <v>55</v>
-      </c>
-      <c r="E23" s="25">
-        <v>53</v>
-      </c>
-      <c r="F23" s="25">
-        <v>75</v>
-      </c>
-      <c r="G23" s="25">
-        <v>94</v>
-      </c>
-      <c r="H23" s="25">
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="22">
+        <v>82</v>
+      </c>
+      <c r="D26" s="22">
+        <v>99</v>
+      </c>
+      <c r="E26" s="22">
+        <v>88</v>
+      </c>
+      <c r="F26" s="22">
+        <v>98</v>
+      </c>
+      <c r="G26" s="22">
+        <v>95</v>
+      </c>
+      <c r="H26" s="22">
         <f t="shared" si="0"/>
-        <v>342</v>
-      </c>
-      <c r="I23" s="25">
+        <v>462</v>
+      </c>
+      <c r="I26" s="22">
         <f t="shared" si="1"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="J23" s="25" t="str">
+        <v>92.4</v>
+      </c>
+      <c r="J26" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="25">
-        <v>53</v>
-      </c>
-      <c r="D24" s="25">
-        <v>92</v>
-      </c>
-      <c r="E24" s="25">
-        <v>91</v>
-      </c>
-      <c r="F24" s="25">
-        <v>48</v>
-      </c>
-      <c r="G24" s="25">
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="22">
+        <v>73</v>
+      </c>
+      <c r="D27" s="22">
         <v>50</v>
       </c>
-      <c r="H24" s="25">
+      <c r="E27" s="22">
+        <v>73</v>
+      </c>
+      <c r="F27" s="22">
+        <v>43</v>
+      </c>
+      <c r="G27" s="22">
+        <v>99</v>
+      </c>
+      <c r="H27" s="22">
         <f t="shared" si="0"/>
-        <v>334</v>
-      </c>
-      <c r="I24" s="25">
+        <v>338</v>
+      </c>
+      <c r="I27" s="22">
         <f t="shared" si="1"/>
-        <v>66.8</v>
-      </c>
-      <c r="J24" s="25" t="str">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="J27" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="25">
-        <v>68</v>
-      </c>
-      <c r="D25" s="25">
-        <v>53</v>
-      </c>
-      <c r="E25" s="25">
-        <v>38</v>
-      </c>
-      <c r="F25" s="25">
-        <v>85</v>
-      </c>
-      <c r="G25" s="25">
-        <v>78</v>
-      </c>
-      <c r="H25" s="25">
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="22">
+        <v>93</v>
+      </c>
+      <c r="D28" s="22">
+        <v>95</v>
+      </c>
+      <c r="E28" s="22">
+        <v>49</v>
+      </c>
+      <c r="F28" s="22">
+        <v>47</v>
+      </c>
+      <c r="G28" s="22">
+        <v>55</v>
+      </c>
+      <c r="H28" s="22">
         <f t="shared" si="0"/>
-        <v>322</v>
-      </c>
-      <c r="I25" s="25">
+        <v>339</v>
+      </c>
+      <c r="I28" s="22">
         <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
-      </c>
-      <c r="J25" s="25" t="str">
+        <v>67.8</v>
+      </c>
+      <c r="J28" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="25">
-        <v>82</v>
-      </c>
-      <c r="D26" s="25">
-        <v>99</v>
-      </c>
-      <c r="E26" s="25">
-        <v>88</v>
-      </c>
-      <c r="F26" s="25">
-        <v>98</v>
-      </c>
-      <c r="G26" s="25">
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="22">
+        <v>84</v>
+      </c>
+      <c r="D29" s="22">
+        <v>92</v>
+      </c>
+      <c r="E29" s="22">
+        <v>93</v>
+      </c>
+      <c r="F29" s="22">
         <v>95</v>
       </c>
-      <c r="H26" s="25">
+      <c r="G29" s="22">
+        <v>80</v>
+      </c>
+      <c r="H29" s="22">
         <f t="shared" si="0"/>
-        <v>462</v>
-      </c>
-      <c r="I26" s="25">
+        <v>444</v>
+      </c>
+      <c r="I29" s="22">
         <f t="shared" si="1"/>
-        <v>92.4</v>
-      </c>
-      <c r="J26" s="25" t="str">
+        <v>88.8</v>
+      </c>
+      <c r="J29" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="25">
-        <v>73</v>
-      </c>
-      <c r="D27" s="25">
-        <v>50</v>
-      </c>
-      <c r="E27" s="25">
-        <v>73</v>
-      </c>
-      <c r="F27" s="25">
-        <v>43</v>
-      </c>
-      <c r="G27" s="25">
-        <v>99</v>
-      </c>
-      <c r="H27" s="25">
+    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="22">
+        <v>75</v>
+      </c>
+      <c r="D30" s="22">
+        <v>91</v>
+      </c>
+      <c r="E30" s="22">
+        <v>68</v>
+      </c>
+      <c r="F30" s="22">
+        <v>75</v>
+      </c>
+      <c r="G30" s="22">
+        <v>71</v>
+      </c>
+      <c r="H30" s="22">
         <f t="shared" si="0"/>
-        <v>338</v>
-      </c>
-      <c r="I27" s="25">
+        <v>380</v>
+      </c>
+      <c r="I30" s="22">
         <f t="shared" si="1"/>
-        <v>67.599999999999994</v>
-      </c>
-      <c r="J27" s="25" t="str">
+        <v>76</v>
+      </c>
+      <c r="J30" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="25">
-        <v>93</v>
-      </c>
-      <c r="D28" s="25">
-        <v>95</v>
-      </c>
-      <c r="E28" s="25">
-        <v>49</v>
-      </c>
-      <c r="F28" s="25">
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="22">
+        <v>82</v>
+      </c>
+      <c r="D31" s="22">
+        <v>89</v>
+      </c>
+      <c r="E31" s="22">
+        <v>57</v>
+      </c>
+      <c r="F31" s="22">
+        <v>43</v>
+      </c>
+      <c r="G31" s="22">
         <v>47</v>
       </c>
-      <c r="G28" s="25">
-        <v>55</v>
-      </c>
-      <c r="H28" s="25">
+      <c r="H31" s="22">
         <f t="shared" si="0"/>
-        <v>339</v>
-      </c>
-      <c r="I28" s="25">
+        <v>318</v>
+      </c>
+      <c r="I31" s="22">
         <f t="shared" si="1"/>
-        <v>67.8</v>
-      </c>
-      <c r="J28" s="25" t="str">
+        <v>63.6</v>
+      </c>
+      <c r="J31" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="25">
-        <v>84</v>
-      </c>
-      <c r="D29" s="25">
+    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="22">
+        <v>72</v>
+      </c>
+      <c r="D32" s="22">
+        <v>99</v>
+      </c>
+      <c r="E32" s="22">
+        <v>78</v>
+      </c>
+      <c r="F32" s="22">
         <v>92</v>
       </c>
-      <c r="E29" s="25">
-        <v>93</v>
-      </c>
-      <c r="F29" s="25">
-        <v>95</v>
-      </c>
-      <c r="G29" s="25">
-        <v>80</v>
-      </c>
-      <c r="H29" s="25">
+      <c r="G32" s="22">
+        <v>78</v>
+      </c>
+      <c r="H32" s="22">
         <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="I29" s="25">
+        <v>419</v>
+      </c>
+      <c r="I32" s="22">
         <f t="shared" si="1"/>
-        <v>88.8</v>
-      </c>
-      <c r="J29" s="25" t="str">
+        <v>83.8</v>
+      </c>
+      <c r="J32" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="25">
-        <v>75</v>
-      </c>
-      <c r="D30" s="25">
-        <v>91</v>
-      </c>
-      <c r="E30" s="25">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="22">
+        <v>89</v>
+      </c>
+      <c r="D33" s="22">
+        <v>93</v>
+      </c>
+      <c r="E33" s="22">
         <v>68</v>
       </c>
-      <c r="F30" s="25">
-        <v>75</v>
-      </c>
-      <c r="G30" s="25">
-        <v>71</v>
-      </c>
-      <c r="H30" s="25">
+      <c r="F33" s="22">
+        <v>93</v>
+      </c>
+      <c r="G33" s="22">
+        <v>83</v>
+      </c>
+      <c r="H33" s="22">
         <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="I30" s="25">
+        <v>426</v>
+      </c>
+      <c r="I33" s="22">
         <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="J30" s="25" t="str">
+        <v>85.2</v>
+      </c>
+      <c r="J33" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="26" t="s">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="22">
         <v>69</v>
       </c>
-      <c r="C31" s="25">
-        <v>82</v>
-      </c>
-      <c r="D31" s="25">
-        <v>89</v>
-      </c>
-      <c r="E31" s="25">
-        <v>57</v>
-      </c>
-      <c r="F31" s="25">
-        <v>43</v>
-      </c>
-      <c r="G31" s="25">
-        <v>47</v>
-      </c>
-      <c r="H31" s="25">
+      <c r="D34" s="22">
+        <v>67</v>
+      </c>
+      <c r="E34" s="22">
+        <v>99</v>
+      </c>
+      <c r="F34" s="22">
+        <v>74</v>
+      </c>
+      <c r="G34" s="22">
+        <v>65</v>
+      </c>
+      <c r="H34" s="22">
         <f t="shared" si="0"/>
-        <v>318</v>
-      </c>
-      <c r="I31" s="25">
+        <v>374</v>
+      </c>
+      <c r="I34" s="22">
         <f t="shared" si="1"/>
-        <v>63.6</v>
-      </c>
-      <c r="J31" s="25" t="str">
+        <v>74.8</v>
+      </c>
+      <c r="J34" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="25">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="22">
+        <v>82</v>
+      </c>
+      <c r="D35" s="22">
         <v>72</v>
       </c>
-      <c r="D32" s="25">
-        <v>99</v>
-      </c>
-      <c r="E32" s="25">
-        <v>78</v>
-      </c>
-      <c r="F32" s="25">
-        <v>92</v>
-      </c>
-      <c r="G32" s="25">
-        <v>78</v>
-      </c>
-      <c r="H32" s="25">
+      <c r="E35" s="22">
+        <v>98</v>
+      </c>
+      <c r="F35" s="22">
+        <v>75</v>
+      </c>
+      <c r="G35" s="22">
+        <v>65</v>
+      </c>
+      <c r="H35" s="22">
         <f t="shared" si="0"/>
-        <v>419</v>
-      </c>
-      <c r="I32" s="25">
+        <v>392</v>
+      </c>
+      <c r="I35" s="22">
         <f t="shared" si="1"/>
-        <v>83.8</v>
-      </c>
-      <c r="J32" s="25" t="str">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="J35" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="25">
-        <v>89</v>
-      </c>
-      <c r="D33" s="25">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="22">
+        <v>92</v>
+      </c>
+      <c r="D36" s="22">
+        <v>84</v>
+      </c>
+      <c r="E36" s="22">
+        <v>32</v>
+      </c>
+      <c r="F36" s="22">
         <v>93</v>
       </c>
-      <c r="E33" s="25">
-        <v>68</v>
-      </c>
-      <c r="F33" s="25">
-        <v>93</v>
-      </c>
-      <c r="G33" s="25">
-        <v>83</v>
-      </c>
-      <c r="H33" s="25">
+      <c r="G36" s="22">
+        <v>94</v>
+      </c>
+      <c r="H36" s="22">
         <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="I33" s="25">
+        <v>395</v>
+      </c>
+      <c r="I36" s="22">
         <f t="shared" si="1"/>
-        <v>85.2</v>
-      </c>
-      <c r="J33" s="25" t="str">
+        <v>79</v>
+      </c>
+      <c r="J36" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="22">
+        <v>97</v>
+      </c>
+      <c r="D37" s="22">
+        <v>82</v>
+      </c>
+      <c r="E37" s="22">
+        <v>62</v>
+      </c>
+      <c r="F37" s="22">
+        <v>90</v>
+      </c>
+      <c r="G37" s="22">
+        <v>87</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
+      <c r="I37" s="22">
+        <f t="shared" si="1"/>
+        <v>83.6</v>
+      </c>
+      <c r="J37" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="26" t="s">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="22">
+        <v>66</v>
+      </c>
+      <c r="D38" s="22">
+        <v>86</v>
+      </c>
+      <c r="E38" s="22">
+        <v>61</v>
+      </c>
+      <c r="F38" s="22">
+        <v>71</v>
+      </c>
+      <c r="G38" s="22">
         <v>75</v>
       </c>
-      <c r="C34" s="25">
-        <v>69</v>
-      </c>
-      <c r="D34" s="25">
-        <v>67</v>
-      </c>
-      <c r="E34" s="25">
-        <v>99</v>
-      </c>
-      <c r="F34" s="25">
-        <v>74</v>
-      </c>
-      <c r="G34" s="25">
-        <v>65</v>
-      </c>
-      <c r="H34" s="25">
+      <c r="H38" s="22">
         <f t="shared" si="0"/>
-        <v>374</v>
-      </c>
-      <c r="I34" s="25">
+        <v>359</v>
+      </c>
+      <c r="I38" s="22">
         <f t="shared" si="1"/>
-        <v>74.8</v>
-      </c>
-      <c r="J34" s="25" t="str">
+        <v>71.8</v>
+      </c>
+      <c r="J38" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="25">
-        <v>82</v>
-      </c>
-      <c r="D35" s="25">
-        <v>72</v>
-      </c>
-      <c r="E35" s="25">
-        <v>98</v>
-      </c>
-      <c r="F35" s="25">
-        <v>75</v>
-      </c>
-      <c r="G35" s="25">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="22">
         <v>65</v>
       </c>
-      <c r="H35" s="25">
+      <c r="D39" s="22">
+        <v>92</v>
+      </c>
+      <c r="E39" s="22">
+        <v>88</v>
+      </c>
+      <c r="F39" s="22">
+        <v>63</v>
+      </c>
+      <c r="G39" s="22">
+        <v>62</v>
+      </c>
+      <c r="H39" s="22">
         <f t="shared" si="0"/>
-        <v>392</v>
-      </c>
-      <c r="I35" s="25">
+        <v>370</v>
+      </c>
+      <c r="I39" s="22">
         <f t="shared" si="1"/>
-        <v>78.400000000000006</v>
-      </c>
-      <c r="J35" s="25" t="str">
+        <v>74</v>
+      </c>
+      <c r="J39" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="25">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="22">
+        <v>70</v>
+      </c>
+      <c r="D40" s="22">
+        <v>95</v>
+      </c>
+      <c r="E40" s="22">
+        <v>96</v>
+      </c>
+      <c r="F40" s="22">
+        <v>85</v>
+      </c>
+      <c r="G40" s="22">
+        <v>63</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="I40" s="22">
+        <f t="shared" si="1"/>
+        <v>81.8</v>
+      </c>
+      <c r="J40" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="22">
+        <v>68</v>
+      </c>
+      <c r="D41" s="22">
+        <v>75</v>
+      </c>
+      <c r="E41" s="22">
+        <v>94</v>
+      </c>
+      <c r="F41" s="22">
+        <v>93</v>
+      </c>
+      <c r="G41" s="22">
+        <v>75</v>
+      </c>
+      <c r="H41" s="22">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="I41" s="22">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="J41" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="22">
+        <v>98</v>
+      </c>
+      <c r="D42" s="22">
+        <v>64</v>
+      </c>
+      <c r="E42" s="22">
+        <v>100</v>
+      </c>
+      <c r="F42" s="22">
+        <v>64</v>
+      </c>
+      <c r="G42" s="22">
+        <v>72</v>
+      </c>
+      <c r="H42" s="22">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="I42" s="22">
+        <f t="shared" si="1"/>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="J42" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="25">
-        <v>84</v>
-      </c>
-      <c r="E36" s="25">
+      <c r="B43" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="22">
         <v>32</v>
       </c>
-      <c r="F36" s="25">
-        <v>93</v>
-      </c>
-      <c r="G36" s="25">
-        <v>94</v>
-      </c>
-      <c r="H36" s="25">
+      <c r="D43" s="22">
+        <v>80</v>
+      </c>
+      <c r="E43" s="22">
+        <v>80</v>
+      </c>
+      <c r="F43" s="22">
+        <v>77</v>
+      </c>
+      <c r="G43" s="22">
+        <v>67</v>
+      </c>
+      <c r="H43" s="22">
         <f t="shared" si="0"/>
-        <v>395</v>
-      </c>
-      <c r="I36" s="25">
+        <v>336</v>
+      </c>
+      <c r="I43" s="22">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="J36" s="25" t="str">
+        <v>67.2</v>
+      </c>
+      <c r="J43" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="25">
-        <v>97</v>
-      </c>
-      <c r="D37" s="25">
-        <v>82</v>
-      </c>
-      <c r="E37" s="25">
-        <v>62</v>
-      </c>
-      <c r="F37" s="25">
-        <v>90</v>
-      </c>
-      <c r="G37" s="25">
-        <v>87</v>
-      </c>
-      <c r="H37" s="25">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="22">
+        <v>85</v>
+      </c>
+      <c r="D44" s="22">
+        <v>71</v>
+      </c>
+      <c r="E44" s="22">
+        <v>86</v>
+      </c>
+      <c r="F44" s="22">
+        <v>65</v>
+      </c>
+      <c r="G44" s="22">
+        <v>83</v>
+      </c>
+      <c r="H44" s="22">
         <f t="shared" si="0"/>
-        <v>418</v>
-      </c>
-      <c r="I37" s="25">
+        <v>390</v>
+      </c>
+      <c r="I44" s="22">
         <f t="shared" si="1"/>
-        <v>83.6</v>
-      </c>
-      <c r="J37" s="25" t="str">
+        <v>78</v>
+      </c>
+      <c r="J44" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="25">
-        <v>66</v>
-      </c>
-      <c r="D38" s="25">
-        <v>86</v>
-      </c>
-      <c r="E38" s="25">
-        <v>61</v>
-      </c>
-      <c r="F38" s="25">
-        <v>71</v>
-      </c>
-      <c r="G38" s="25">
-        <v>75</v>
-      </c>
-      <c r="H38" s="25">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="22">
+        <v>87</v>
+      </c>
+      <c r="D45" s="22">
+        <v>84</v>
+      </c>
+      <c r="E45" s="22">
+        <v>78</v>
+      </c>
+      <c r="F45" s="22">
+        <v>65</v>
+      </c>
+      <c r="G45" s="22">
+        <v>87</v>
+      </c>
+      <c r="H45" s="22">
         <f t="shared" si="0"/>
-        <v>359</v>
-      </c>
-      <c r="I38" s="25">
+        <v>401</v>
+      </c>
+      <c r="I45" s="22">
         <f t="shared" si="1"/>
-        <v>71.8</v>
-      </c>
-      <c r="J38" s="25" t="str">
+        <v>80.2</v>
+      </c>
+      <c r="J45" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="26" t="s">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="22">
+        <v>94</v>
+      </c>
+      <c r="D46" s="22">
+        <v>79</v>
+      </c>
+      <c r="E46" s="22">
+        <v>73</v>
+      </c>
+      <c r="F46" s="22">
+        <v>62</v>
+      </c>
+      <c r="G46" s="22">
+        <v>88</v>
+      </c>
+      <c r="H46" s="22">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="I46" s="22">
+        <f t="shared" si="1"/>
+        <v>79.2</v>
+      </c>
+      <c r="J46" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="22">
+        <v>77</v>
+      </c>
+      <c r="D47" s="22">
+        <v>76</v>
+      </c>
+      <c r="E47" s="22">
+        <v>72</v>
+      </c>
+      <c r="F47" s="22">
+        <v>77</v>
+      </c>
+      <c r="G47" s="22">
+        <v>80</v>
+      </c>
+      <c r="H47" s="22">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="I47" s="22">
+        <f t="shared" si="1"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="J47" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="22">
         <v>85</v>
       </c>
-      <c r="C39" s="25">
+      <c r="D48" s="22">
+        <v>98</v>
+      </c>
+      <c r="E48" s="22">
+        <v>82</v>
+      </c>
+      <c r="F48" s="22">
+        <v>99</v>
+      </c>
+      <c r="G48" s="22">
+        <v>82</v>
+      </c>
+      <c r="H48" s="22">
+        <f t="shared" si="0"/>
+        <v>446</v>
+      </c>
+      <c r="I48" s="22">
+        <f t="shared" si="1"/>
+        <v>89.2</v>
+      </c>
+      <c r="J48" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="22">
         <v>65</v>
       </c>
-      <c r="D39" s="25">
-        <v>92</v>
-      </c>
-      <c r="E39" s="25">
-        <v>88</v>
-      </c>
-      <c r="F39" s="25">
-        <v>63</v>
-      </c>
-      <c r="G39" s="25">
-        <v>62</v>
-      </c>
-      <c r="H39" s="25">
+      <c r="D49" s="22">
+        <v>90</v>
+      </c>
+      <c r="E49" s="22">
+        <v>73</v>
+      </c>
+      <c r="F49" s="22">
+        <v>73</v>
+      </c>
+      <c r="G49" s="22">
+        <v>80</v>
+      </c>
+      <c r="H49" s="22">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="I49" s="22">
+        <f t="shared" si="1"/>
+        <v>76.2</v>
+      </c>
+      <c r="J49" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="22">
+        <v>45</v>
+      </c>
+      <c r="D50" s="22">
+        <v>66</v>
+      </c>
+      <c r="E50" s="22">
+        <v>70</v>
+      </c>
+      <c r="F50" s="22">
+        <v>31</v>
+      </c>
+      <c r="G50" s="22">
+        <v>56</v>
+      </c>
+      <c r="H50" s="22">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="I50" s="22">
+        <f t="shared" si="1"/>
+        <v>53.6</v>
+      </c>
+      <c r="J50" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="22">
+        <v>61</v>
+      </c>
+      <c r="D51" s="22">
+        <v>93</v>
+      </c>
+      <c r="E51" s="22">
+        <v>80</v>
+      </c>
+      <c r="F51" s="22">
+        <v>60</v>
+      </c>
+      <c r="G51" s="22">
+        <v>76</v>
+      </c>
+      <c r="H51" s="22">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I51" s="22">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J39" s="25" t="str">
+      <c r="J51" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="25">
-        <v>70</v>
-      </c>
-      <c r="D40" s="25">
-        <v>95</v>
-      </c>
-      <c r="E40" s="25">
-        <v>96</v>
-      </c>
-      <c r="F40" s="25">
-        <v>85</v>
-      </c>
-      <c r="G40" s="25">
-        <v>63</v>
-      </c>
-      <c r="H40" s="25">
-        <f t="shared" si="0"/>
-        <v>409</v>
-      </c>
-      <c r="I40" s="25">
-        <f t="shared" si="1"/>
-        <v>81.8</v>
-      </c>
-      <c r="J40" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="25">
-        <v>68</v>
-      </c>
-      <c r="D41" s="25">
-        <v>75</v>
-      </c>
-      <c r="E41" s="25">
-        <v>94</v>
-      </c>
-      <c r="F41" s="25">
-        <v>93</v>
-      </c>
-      <c r="G41" s="25">
-        <v>75</v>
-      </c>
-      <c r="H41" s="25">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="I41" s="25">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="J41" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="25">
-        <v>98</v>
-      </c>
-      <c r="D42" s="25">
-        <v>64</v>
-      </c>
-      <c r="E42" s="25">
-        <v>100</v>
-      </c>
-      <c r="F42" s="25">
-        <v>64</v>
-      </c>
-      <c r="G42" s="25">
-        <v>72</v>
-      </c>
-      <c r="H42" s="25">
-        <f t="shared" si="0"/>
-        <v>398</v>
-      </c>
-      <c r="I42" s="25">
-        <f t="shared" si="1"/>
-        <v>79.599999999999994</v>
-      </c>
-      <c r="J42" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="25">
-        <v>32</v>
-      </c>
-      <c r="D43" s="25">
-        <v>80</v>
-      </c>
-      <c r="E43" s="25">
-        <v>80</v>
-      </c>
-      <c r="F43" s="25">
-        <v>77</v>
-      </c>
-      <c r="G43" s="25">
-        <v>67</v>
-      </c>
-      <c r="H43" s="25">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="I43" s="25">
-        <f t="shared" si="1"/>
-        <v>67.2</v>
-      </c>
-      <c r="J43" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="25">
-        <v>85</v>
-      </c>
-      <c r="D44" s="25">
-        <v>71</v>
-      </c>
-      <c r="E44" s="25">
-        <v>86</v>
-      </c>
-      <c r="F44" s="25">
-        <v>65</v>
-      </c>
-      <c r="G44" s="25">
-        <v>83</v>
-      </c>
-      <c r="H44" s="25">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-      <c r="I44" s="25">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="J44" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="25">
-        <v>87</v>
-      </c>
-      <c r="D45" s="25">
-        <v>84</v>
-      </c>
-      <c r="E45" s="25">
-        <v>78</v>
-      </c>
-      <c r="F45" s="25">
-        <v>65</v>
-      </c>
-      <c r="G45" s="25">
-        <v>87</v>
-      </c>
-      <c r="H45" s="25">
-        <f t="shared" si="0"/>
-        <v>401</v>
-      </c>
-      <c r="I45" s="25">
-        <f t="shared" si="1"/>
-        <v>80.2</v>
-      </c>
-      <c r="J45" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="25">
-        <v>94</v>
-      </c>
-      <c r="D46" s="25">
-        <v>79</v>
-      </c>
-      <c r="E46" s="25">
-        <v>73</v>
-      </c>
-      <c r="F46" s="25">
-        <v>62</v>
-      </c>
-      <c r="G46" s="25">
-        <v>88</v>
-      </c>
-      <c r="H46" s="25">
-        <f t="shared" si="0"/>
-        <v>396</v>
-      </c>
-      <c r="I46" s="25">
-        <f t="shared" si="1"/>
-        <v>79.2</v>
-      </c>
-      <c r="J46" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="25">
-        <v>77</v>
-      </c>
-      <c r="D47" s="25">
-        <v>76</v>
-      </c>
-      <c r="E47" s="25">
-        <v>72</v>
-      </c>
-      <c r="F47" s="25">
-        <v>77</v>
-      </c>
-      <c r="G47" s="25">
-        <v>80</v>
-      </c>
-      <c r="H47" s="25">
-        <f t="shared" si="0"/>
-        <v>382</v>
-      </c>
-      <c r="I47" s="25">
-        <f t="shared" si="1"/>
-        <v>76.400000000000006</v>
-      </c>
-      <c r="J47" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="25">
-        <v>85</v>
-      </c>
-      <c r="D48" s="25">
-        <v>98</v>
-      </c>
-      <c r="E48" s="25">
-        <v>82</v>
-      </c>
-      <c r="F48" s="25">
-        <v>99</v>
-      </c>
-      <c r="G48" s="25">
-        <v>82</v>
-      </c>
-      <c r="H48" s="25">
-        <f t="shared" si="0"/>
-        <v>446</v>
-      </c>
-      <c r="I48" s="25">
-        <f t="shared" si="1"/>
-        <v>89.2</v>
-      </c>
-      <c r="J48" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="25">
-        <v>65</v>
-      </c>
-      <c r="D49" s="25">
-        <v>90</v>
-      </c>
-      <c r="E49" s="25">
-        <v>73</v>
-      </c>
-      <c r="F49" s="25">
-        <v>73</v>
-      </c>
-      <c r="G49" s="25">
-        <v>80</v>
-      </c>
-      <c r="H49" s="25">
-        <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
-      <c r="I49" s="25">
-        <f t="shared" si="1"/>
-        <v>76.2</v>
-      </c>
-      <c r="J49" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="25">
-        <v>45</v>
-      </c>
-      <c r="D50" s="25">
-        <v>66</v>
-      </c>
-      <c r="E50" s="25">
-        <v>70</v>
-      </c>
-      <c r="F50" s="25">
-        <v>31</v>
-      </c>
-      <c r="G50" s="25">
-        <v>56</v>
-      </c>
-      <c r="H50" s="25">
-        <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
-      <c r="I50" s="25">
-        <f t="shared" si="1"/>
-        <v>53.6</v>
-      </c>
-      <c r="J50" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="25">
-        <v>61</v>
-      </c>
-      <c r="D51" s="25">
-        <v>93</v>
-      </c>
-      <c r="E51" s="25">
-        <v>80</v>
-      </c>
-      <c r="F51" s="25">
-        <v>60</v>
-      </c>
-      <c r="G51" s="25">
-        <v>76</v>
-      </c>
-      <c r="H51" s="25">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="I51" s="25">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="J51" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="C2:G51">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>$O$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:J51">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$J2=$Q$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBF5D9-8FB7-42E4-B0A4-B8AC86EC7EE1}">
   <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8847,6 +10210,9 @@
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -8867,11 +10233,14 @@
       <c r="N1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>114</v>
+      <c r="P1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" t="s">
+        <v>699</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>115</v>
@@ -8905,17 +10274,38 @@
       <c r="B2" t="s">
         <v>123</v>
       </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF($B$2:$B$51,E2)</f>
+        <v>21</v>
+      </c>
       <c r="M2" t="s">
         <v>124</v>
       </c>
       <c r="N2" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" t="s">
-        <v>127</v>
+      <c r="P2" t="str">
+        <f>TRIM(M2)</f>
+        <v>Aaron</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>TRIM(N2)</f>
+        <v>Burr</v>
+      </c>
+      <c r="R2" t="str">
+        <f>CONCATENATE(P2," ", Q2)</f>
+        <v>Aaron Burr</v>
+      </c>
+      <c r="S2">
+        <f>LEN(M2)</f>
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <f>LEN(P2)</f>
+        <v>5</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>128</v>
@@ -8949,17 +10339,30 @@
       <c r="B3" t="s">
         <v>134</v>
       </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF($B$2:$B$51,E3)</f>
+        <v>29</v>
+      </c>
       <c r="M3" t="s">
         <v>135</v>
       </c>
       <c r="N3" t="s">
         <v>136</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3" t="s">
-        <v>138</v>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P15" si="0">TRIM(M3)</f>
+        <v>Dane</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q15" si="1">TRIM(N3)</f>
+        <v>Ali</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R15" si="2">CONCATENATE(P3," ", Q3)</f>
+        <v>Dane Ali</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>139</v>
@@ -8993,17 +10396,30 @@
       <c r="B4" t="s">
         <v>123</v>
       </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f>SUM(F2:F3)</f>
+        <v>50</v>
+      </c>
       <c r="M4" t="s">
         <v>142</v>
       </c>
       <c r="N4" t="s">
         <v>143</v>
       </c>
-      <c r="U4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="V4" t="s">
-        <v>145</v>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>George</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>Clinton</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="2"/>
+        <v>George Clinton</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>146</v>
@@ -9043,11 +10459,17 @@
       <c r="N5" t="s">
         <v>150</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="V5" t="s">
-        <v>152</v>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>Sabrina</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>Buchanan</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="2"/>
+        <v>Sabrina Buchanan</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>153</v>
@@ -9087,11 +10509,17 @@
       <c r="N6" t="s">
         <v>159</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="V6" t="s">
-        <v>161</v>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>John C.</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>Calhoun</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="2"/>
+        <v>John C. Calhoun</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>162</v>
@@ -9131,11 +10559,17 @@
       <c r="N7" t="s">
         <v>165</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="V7" t="s">
-        <v>167</v>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>Millard</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>Fillmore</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="2"/>
+        <v>Millard Fillmore</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>168</v>
@@ -9175,6 +10609,18 @@
       <c r="N8" t="s">
         <v>171</v>
       </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>Maximilian</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>Blevins</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="2"/>
+        <v>Maximilian Blevins</v>
+      </c>
       <c r="X8" s="4" t="s">
         <v>172</v>
       </c>
@@ -9213,6 +10659,18 @@
       <c r="N9" t="s">
         <v>176</v>
       </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>Adison</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>Zamora</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="2"/>
+        <v>Adison Zamora</v>
+      </c>
       <c r="X9" s="4" t="s">
         <v>177</v>
       </c>
@@ -9251,8 +10709,17 @@
       <c r="N10" t="s">
         <v>180</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>181</v>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>Angeline</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>Zuniga</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="2"/>
+        <v>Angeline Zuniga</v>
       </c>
       <c r="X10" s="4" t="s">
         <v>182</v>
@@ -9292,11 +10759,17 @@
       <c r="N11" t="s">
         <v>186</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="V11" t="s">
-        <v>188</v>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicole</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>Gray</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="2"/>
+        <v>Nicole Gray</v>
       </c>
       <c r="X11" s="4" t="s">
         <v>189</v>
@@ -9336,11 +10809,17 @@
       <c r="N12" t="s">
         <v>193</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="V12" t="s">
-        <v>195</v>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>Mann</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="2"/>
+        <v>Morgan Mann</v>
       </c>
       <c r="X12" s="4" t="s">
         <v>196</v>
@@ -9380,11 +10859,17 @@
       <c r="N13" t="s">
         <v>199</v>
       </c>
-      <c r="U13" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="V13" t="s">
-        <v>201</v>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>Gal</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>Gadot</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="2"/>
+        <v>Gal Gadot</v>
       </c>
       <c r="X13" s="4" t="s">
         <v>189</v>
@@ -9424,6 +10909,18 @@
       <c r="N14" t="s">
         <v>204</v>
       </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>Rachel</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>Daws</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="2"/>
+        <v>Rachel Daws</v>
+      </c>
       <c r="X14" s="4" t="s">
         <v>205</v>
       </c>
@@ -9462,6 +10959,18 @@
       <c r="N15" t="s">
         <v>209</v>
       </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>Roy</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="2"/>
+        <v>Alex Roy</v>
+      </c>
       <c r="X15" s="4" t="s">
         <v>210</v>
       </c>
@@ -9611,7 +11120,7 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AD20" t="s">
         <v>217</v>
@@ -10203,19 +11712,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4979C08-6F67-4EBD-8816-064FDFF2B18B}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11394,15 +12904,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5639990B-6750-4226-8125-85B5B2D017B4}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11643,12 +13156,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2151C0B-73BA-4D05-A62D-E4D9FD47320B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11700,7 +13213,7 @@
       <c r="C2" t="s">
         <v>664</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>42535</v>
       </c>
       <c r="E2">
@@ -11726,7 +13239,7 @@
       <c r="C3" t="s">
         <v>669</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>42748</v>
       </c>
       <c r="E3">
@@ -11752,7 +13265,7 @@
       <c r="C4" t="s">
         <v>673</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>42651</v>
       </c>
       <c r="E4">
@@ -11778,7 +13291,7 @@
       <c r="C5" t="s">
         <v>676</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>43222</v>
       </c>
       <c r="E5">
@@ -11804,7 +13317,7 @@
       <c r="C6" t="s">
         <v>679</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>42765</v>
       </c>
       <c r="E6">
@@ -11830,7 +13343,7 @@
       <c r="C7" t="s">
         <v>683</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>42101</v>
       </c>
       <c r="E7">
@@ -11856,7 +13369,7 @@
       <c r="C8" t="s">
         <v>686</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>41704</v>
       </c>
       <c r="E8">
@@ -11882,7 +13395,7 @@
       <c r="C9" t="s">
         <v>676</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>43244</v>
       </c>
       <c r="E9">
@@ -11908,7 +13421,7 @@
       <c r="C10" t="s">
         <v>692</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>41962</v>
       </c>
       <c r="E10">
@@ -11947,7 +13460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C35B6DA-4005-4159-8F42-B0AFAD2CF07B}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -12004,7 +13517,7 @@
       <c r="C2" t="s">
         <v>664</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>42535</v>
       </c>
       <c r="E2">
@@ -12030,7 +13543,7 @@
       <c r="C3" t="s">
         <v>669</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>42748</v>
       </c>
       <c r="E3">
@@ -12056,7 +13569,7 @@
       <c r="C4" t="s">
         <v>673</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>42651</v>
       </c>
       <c r="E4">
@@ -12082,7 +13595,7 @@
       <c r="C5" t="s">
         <v>676</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>43222</v>
       </c>
       <c r="E5">
@@ -12108,7 +13621,7 @@
       <c r="C6" t="s">
         <v>679</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>42765</v>
       </c>
       <c r="E6">
@@ -12134,7 +13647,7 @@
       <c r="C7" t="s">
         <v>683</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>42101</v>
       </c>
       <c r="E7">
@@ -12160,7 +13673,7 @@
       <c r="C8" t="s">
         <v>686</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>41704</v>
       </c>
       <c r="E8">
@@ -12186,7 +13699,7 @@
       <c r="C9" t="s">
         <v>676</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>43244</v>
       </c>
       <c r="E9">
@@ -12212,7 +13725,7 @@
       <c r="C10" t="s">
         <v>692</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>41962</v>
       </c>
       <c r="E10">
@@ -12295,655 +13808,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C7C63A-B289-43DD-9A7C-2D11E4BAFA22}">
-  <dimension ref="A1:W51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H1" t="s">
-        <v>449</v>
-      </c>
-      <c r="L1">
-        <v>25615252</v>
-      </c>
-      <c r="M1" t="s">
-        <v>448</v>
-      </c>
-      <c r="N1" t="s">
-        <v>449</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" s="1">
-        <v>501</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2" s="1">
-        <v>501</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L2">
-        <v>25615253</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>452</v>
-      </c>
-      <c r="P2" s="1">
-        <v>221</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>435</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B3" s="1">
-        <v>480</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D3" s="1">
-        <v>480</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>457</v>
-      </c>
-      <c r="L3">
-        <v>25615254</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>457</v>
-      </c>
-      <c r="P3" s="1">
-        <v>501</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3" t="s">
-        <v>436</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B4" s="1">
-        <v>798</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D4" s="1">
-        <v>798</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>462</v>
-      </c>
-      <c r="L4">
-        <v>25615255</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>462</v>
-      </c>
-      <c r="P4" s="1">
-        <v>708</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4" t="s">
-        <v>437</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="1">
-        <v>798</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D5" s="1">
-        <v>798</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="L5">
-        <v>25615256</v>
-      </c>
-      <c r="P5" s="1">
-        <v>480</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="U5">
-        <v>4</v>
-      </c>
-      <c r="V5" t="s">
-        <v>438</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="B6" s="1">
-        <v>708</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D6" s="1">
-        <v>708</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="L6">
-        <v>25615257</v>
-      </c>
-      <c r="P6" s="1">
-        <v>798</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="U6">
-        <v>5</v>
-      </c>
-      <c r="V6" t="s">
-        <v>439</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B7" s="1">
-        <v>501</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D7" s="1">
-        <v>501</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="L7">
-        <v>25615258</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7" t="s">
-        <v>440</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" s="1">
-        <v>480</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D8" s="1">
-        <v>480</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="L8">
-        <v>25615259</v>
-      </c>
-      <c r="U8">
-        <v>7</v>
-      </c>
-      <c r="V8" t="s">
-        <v>441</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B9" s="1">
-        <v>501</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" s="1">
-        <v>501</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="L9">
-        <v>25615260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B10" s="1">
-        <v>708</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D10" s="1">
-        <v>708</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="L10">
-        <v>25615261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="1">
-        <v>798</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D11" s="1">
-        <v>798</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="L11">
-        <v>25615262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B12" s="1">
-        <v>221</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D12" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="B13" s="1">
-        <v>221</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D13" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B14" s="1">
-        <v>480</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D14" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B15" s="1">
-        <v>480</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D15" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B16" s="1">
-        <v>221</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D16" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B17" s="1">
-        <v>480</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D17" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="B18" s="1">
-        <v>798</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D18" s="1">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B19" s="1">
-        <v>798</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D19" s="1">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B20" s="1">
-        <v>798</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D20" s="1">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="B21" s="1">
-        <v>221</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D21" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" xr:uid="{2C561F34-81F9-4CAB-956E-16485D5E9EE4}"/>
-    <hyperlink ref="W3" r:id="rId2" xr:uid="{32E16DE5-2209-4069-8BE8-B0C17B34606B}"/>
-    <hyperlink ref="W4" r:id="rId3" xr:uid="{3EDC17D8-3E04-444E-B57B-125F4655DB4A}"/>
-    <hyperlink ref="W5" r:id="rId4" xr:uid="{84305B62-EE37-48B6-821E-9B2AC94DAB8C}"/>
-    <hyperlink ref="W6" r:id="rId5" xr:uid="{E80B595B-8339-4079-8F6B-CB7D23A6D48B}"/>
-    <hyperlink ref="W7" r:id="rId6" xr:uid="{3633C187-ADE2-4159-BBAF-6EADB466CA03}"/>
-    <hyperlink ref="W8" r:id="rId7" xr:uid="{36AFF22D-E43B-4009-92E8-0C44ED632D10}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel-beginner-tutorial.xlsx
+++ b/excel-beginner-tutorial.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1541B47-130B-4494-90D7-9D185CC34961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066F873-CE7F-4AA7-8130-B5383C5518D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="9" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="14" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
     <sheet name="DataTypes" sheetId="14" r:id="rId2"/>
     <sheet name="Logical and Condi State." sheetId="15" r:id="rId3"/>
     <sheet name="Formatting" sheetId="2" r:id="rId4"/>
-    <sheet name="Text" sheetId="4" r:id="rId5"/>
-    <sheet name="Table" sheetId="3" r:id="rId6"/>
-    <sheet name="AbsoluteAndRelative" sheetId="9" r:id="rId7"/>
-    <sheet name="Vlookup simple" sheetId="11" r:id="rId8"/>
-    <sheet name="Vlookup 1" sheetId="10" r:id="rId9"/>
-    <sheet name="Vlookup 2" sheetId="8" r:id="rId10"/>
-    <sheet name="Vlookup Scenario" sheetId="13" r:id="rId11"/>
-    <sheet name="Shortcut Keys" sheetId="12" r:id="rId12"/>
-    <sheet name="Pivot" sheetId="5" r:id="rId13"/>
-    <sheet name="Pivot (2)" sheetId="7" r:id="rId14"/>
+    <sheet name="Understanding Formula" sheetId="16" r:id="rId5"/>
+    <sheet name="Text" sheetId="4" r:id="rId6"/>
+    <sheet name="Table" sheetId="3" r:id="rId7"/>
+    <sheet name="AbsoluteAndRelative" sheetId="9" r:id="rId8"/>
+    <sheet name="Vlookup simple" sheetId="11" r:id="rId9"/>
+    <sheet name="Vlookup 1" sheetId="10" r:id="rId10"/>
+    <sheet name="Vlookup 2" sheetId="8" r:id="rId11"/>
+    <sheet name="Vlookup Scenario" sheetId="13" r:id="rId12"/>
+    <sheet name="Shortcut Keys" sheetId="12" r:id="rId13"/>
+    <sheet name="Pivot" sheetId="5" r:id="rId14"/>
+    <sheet name="Pivot (2)" sheetId="7" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Text!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Text!$A$1:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="713">
   <si>
     <t>Reg No.</t>
   </si>
@@ -2174,6 +2175,45 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>=F2=F3</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Sample Data</t>
+  </si>
+  <si>
+    <t>=G2&lt;&gt;G3</t>
+  </si>
+  <si>
+    <t>=H2&gt;H3</t>
+  </si>
+  <si>
+    <t>=I2&lt;I3</t>
+  </si>
+  <si>
+    <t>=I2&lt;=I3</t>
+  </si>
+  <si>
+    <t>=H2&gt;=H3</t>
+  </si>
+  <si>
+    <t>=AND(D3:D5)</t>
+  </si>
+  <si>
+    <t>=OR(D3:D8)</t>
+  </si>
+  <si>
+    <t>=NOT(D8)</t>
+  </si>
+  <si>
+    <t>https://exceljet.net/formulas</t>
+  </si>
+  <si>
+    <t>=IF(logical_test,value_if_true,value_if_false)</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +2418,6 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2399,44 +2438,16 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C317EB46-FD19-411F-B09C-9673D28024EA}"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2462,50 +2473,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3237,6 +3204,444 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Intro To Formula">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322208D4-F4B9-ADDD-ABCD-E404A4586E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133349" y="109537"/>
+          <a:ext cx="5343526" cy="1281114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>Understanding</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+            <a:t> Formula and Its Syntax:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Formulas in Excel start with an equal sign (=) and can be composed of various functions, mathematical operators, and cell references.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> There are lot of formulas in excel for different purposes. Here we will be looking in to the most commonly used. Before hand its good to understand its syntax, so that it will be helpful to understand and explore other formulas as per your requirements.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>237945</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>197828</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Graphical user interface, application&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9B34AE-511A-DFDC-364A-5F8E8D3C3956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="61725" t="66343" r="20606" b="24723"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1454214" y="2615711"/>
+          <a:ext cx="3000556" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>70183</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165434</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Intro To Formula">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61CEE8D-468C-6AC1-1F22-A985F5C8233E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="70183" y="1560345"/>
+          <a:ext cx="3153277" cy="269457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t>Have</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t> a closer look at the below syntax of IF formula</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>77202</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140368</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>37097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Intro To Formula">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0753611F-E7D1-1782-5AE6-C8B3A89E6804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77202" y="2244140"/>
+          <a:ext cx="3732798" cy="269457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t>You can find these</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t> syntax while typing any formula like below</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>105044</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1384789</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Intro To Formula">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55FA596-2FDE-6B50-3064-03785DE0CE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="105044" y="3546867"/>
+          <a:ext cx="5536687" cy="1332863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t>In</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t> case of IF formula you can pass up to 3 arguments separate by comma and if you closly look at the last two arguments are enclosed in square brackets unlike the 1st arguments. This is because these two arguments are optional arguments i.e. This formula works even if you do not pass the last two arguments.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t>Similarlly, have a look at a formula you have used before and try to understand its syntax.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{503F3CCD-0AAD-446E-97BA-E431AE00EECA}" name="Table2" displayName="Table2" ref="A1:G51" totalsRowShown="0">
   <autoFilter ref="A1:G51" xr:uid="{503F3CCD-0AAD-446E-97BA-E431AE00EECA}"/>
@@ -3556,50 +3961,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="37.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="17"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3609,10 +4014,360 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C35B6DA-4005-4159-8F42-B0AFAD2CF07B}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D2" s="23">
+        <v>42535</v>
+      </c>
+      <c r="E2">
+        <v>12495185438</v>
+      </c>
+      <c r="F2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D3" s="23">
+        <v>42748</v>
+      </c>
+      <c r="E3">
+        <v>8109237463</v>
+      </c>
+      <c r="F3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D4" s="23">
+        <v>42651</v>
+      </c>
+      <c r="E4">
+        <v>6653263786</v>
+      </c>
+      <c r="F4" t="s">
+        <v>665</v>
+      </c>
+      <c r="G4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D5" s="23">
+        <v>43222</v>
+      </c>
+      <c r="E5">
+        <v>6071073952</v>
+      </c>
+      <c r="F5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G5" t="s">
+        <v>666</v>
+      </c>
+      <c r="H5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D6" s="23">
+        <v>42765</v>
+      </c>
+      <c r="E6">
+        <v>5944830525</v>
+      </c>
+      <c r="F6" t="s">
+        <v>680</v>
+      </c>
+      <c r="G6" t="s">
+        <v>666</v>
+      </c>
+      <c r="H6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D7" s="23">
+        <v>42101</v>
+      </c>
+      <c r="E7">
+        <v>5816307940</v>
+      </c>
+      <c r="F7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D8" s="23">
+        <v>41704</v>
+      </c>
+      <c r="E8">
+        <v>5209038987</v>
+      </c>
+      <c r="F8" t="s">
+        <v>687</v>
+      </c>
+      <c r="G8" t="s">
+        <v>666</v>
+      </c>
+      <c r="H8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D9" s="23">
+        <v>43244</v>
+      </c>
+      <c r="E9">
+        <v>5021165699</v>
+      </c>
+      <c r="F9" t="s">
+        <v>665</v>
+      </c>
+      <c r="G9" t="s">
+        <v>666</v>
+      </c>
+      <c r="H9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C10" t="s">
+        <v>692</v>
+      </c>
+      <c r="D10" s="23">
+        <v>41962</v>
+      </c>
+      <c r="E10">
+        <v>4859631966</v>
+      </c>
+      <c r="F10" t="s">
+        <v>665</v>
+      </c>
+      <c r="G10" t="s">
+        <v>666</v>
+      </c>
+      <c r="H10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>655</v>
+      </c>
+      <c r="H17" t="s">
+        <v>657</v>
+      </c>
+      <c r="I17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="str">
+        <f>VLOOKUP($G18,$A$1:$H$10,3,FALSE)</f>
+        <v>LuisFonsiVEVO</v>
+      </c>
+      <c r="I18">
+        <f>VLOOKUP($G18,$A$1:$H$10,5,FALSE)</f>
+        <v>8109237463</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ref="H19:H21" si="0">VLOOKUP($G19,$A$1:$H$10,3,FALSE)</f>
+        <v>Ed Sheeran</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I21" si="1">VLOOKUP($G19,$A$1:$H$10,5,FALSE)</f>
+        <v>5944830525</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>Wiz Khalifa</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>5816307940</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>MarkRonsonVEVO</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>4859631966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C7C63A-B289-43DD-9A7C-2D11E4BAFA22}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3633,20 +4388,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" t="s">
         <v>448</v>
       </c>
@@ -3694,8 +4449,8 @@
       <c r="D2" s="1">
         <v>501</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2">
         <v>1</v>
       </c>
@@ -3726,7 +4481,7 @@
       <c r="V2" t="s">
         <v>435</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="12" t="s">
         <v>452</v>
       </c>
     </row>
@@ -3743,8 +4498,8 @@
       <c r="D3" s="1">
         <v>480</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3">
         <v>7</v>
       </c>
@@ -3775,7 +4530,7 @@
       <c r="V3" t="s">
         <v>436</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="12" t="s">
         <v>459</v>
       </c>
     </row>
@@ -3792,7 +4547,7 @@
       <c r="D4" s="1">
         <v>798</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="13"/>
       <c r="G4">
         <v>5</v>
       </c>
@@ -3823,7 +4578,7 @@
       <c r="V4" t="s">
         <v>437</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="12" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3840,8 +4595,8 @@
       <c r="D5" s="1">
         <v>798</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="L5">
         <v>25615256</v>
       </c>
@@ -3860,7 +4615,7 @@
       <c r="V5" t="s">
         <v>438</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="12" t="s">
         <v>468</v>
       </c>
     </row>
@@ -3877,8 +4632,8 @@
       <c r="D6" s="1">
         <v>708</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="L6">
         <v>25615257</v>
       </c>
@@ -3897,7 +4652,7 @@
       <c r="V6" t="s">
         <v>439</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="12" t="s">
         <v>462</v>
       </c>
     </row>
@@ -3914,8 +4669,8 @@
       <c r="D7" s="1">
         <v>501</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="L7">
         <v>25615258</v>
       </c>
@@ -3925,7 +4680,7 @@
       <c r="V7" t="s">
         <v>440</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="12" t="s">
         <v>472</v>
       </c>
     </row>
@@ -3942,8 +4697,8 @@
       <c r="D8" s="1">
         <v>480</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="L8">
         <v>25615259</v>
       </c>
@@ -3953,7 +4708,7 @@
       <c r="V8" t="s">
         <v>441</v>
       </c>
-      <c r="W8" s="13" t="s">
+      <c r="W8" s="12" t="s">
         <v>457</v>
       </c>
     </row>
@@ -3970,8 +4725,8 @@
       <c r="D9" s="1">
         <v>501</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="L9">
         <v>25615260</v>
       </c>
@@ -3989,8 +4744,8 @@
       <c r="D10" s="1">
         <v>708</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="L10">
         <v>25615261</v>
       </c>
@@ -4008,8 +4763,8 @@
       <c r="D11" s="1">
         <v>798</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="L11">
         <v>25615262</v>
       </c>
@@ -4259,7 +5014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97242C3-98C7-4CC8-9E05-11ED756AE458}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -4388,7 +5143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108E1899-0BA1-4EAD-977B-5AF4891D964A}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -4607,7 +5362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59B5EA-5F36-4506-9B80-2736CCDF45D1}">
   <dimension ref="A1:C201"/>
   <sheetViews>
@@ -6840,11 +7595,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB8F69F-168D-4701-80B4-C17E080F19B6}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -7982,92 +8737,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="20"/>
-    <col min="3" max="3" width="16.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="10" style="20" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="20"/>
-    <col min="7" max="7" width="12.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="20"/>
-    <col min="9" max="9" width="15" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="2" width="9.140625" style="19"/>
+    <col min="3" max="3" width="20" style="19" customWidth="1"/>
+    <col min="4" max="4" width="10" style="19" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="13.7109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="19"/>
+    <col min="9" max="9" width="16.7109375" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
         <v>123</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="b">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27" t="e" cm="1">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="e" cm="1">
         <f t="array" ref="I6">num</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26">
         <v>3.14</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="b">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27" t="e">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="e">
         <f>SUM("TY")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="29">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="28">
         <v>44956</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27" t="e">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="30">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="29">
         <v>44974.951585648145</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27" t="e" cm="1">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="e" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("")</f>
         <v>#REF!</v>
       </c>
@@ -8084,18 +8839,24 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1" s="30"/>
       <c r="F1" s="2" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8105,6 +8866,12 @@
       <c r="B2" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2">
         <v>21</v>
       </c>
@@ -8112,7 +8879,7 @@
         <v>31</v>
       </c>
       <c r="H2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>33</v>
@@ -8125,6 +8892,13 @@
       <c r="B3" t="s">
         <v>127</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D3" t="b">
+        <f>F2=F3</f>
+        <v>1</v>
+      </c>
       <c r="F3">
         <v>21</v>
       </c>
@@ -8145,21 +8919,12 @@
       <c r="B4" t="s">
         <v>138</v>
       </c>
-      <c r="F4" t="b">
-        <f>F2=F3</f>
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
+      <c r="C4" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D4" t="b">
         <f>G2&lt;&gt;G3</f>
         <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <f>H2&gt;H3</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <f>I2&lt;I3</f>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -8169,6 +8934,13 @@
       <c r="B5" t="s">
         <v>145</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="D5" t="b">
+        <f>H2&gt;H3</f>
+        <v>1</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8178,17 +8950,12 @@
       <c r="B6" t="s">
         <v>152</v>
       </c>
-      <c r="F6" t="b">
-        <f>AND(F4,G4)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <f>OR(G4,H4)</f>
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <f>NOT(H4)</f>
-        <v>1</v>
+      <c r="C6" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D6" t="b">
+        <f>I2&lt;I3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8198,6 +8965,13 @@
       <c r="B7" t="s">
         <v>161</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D7" t="b">
+        <f>H2&gt;=H3</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -8206,10 +8980,20 @@
       <c r="B8" t="s">
         <v>167</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D8" t="b">
+        <f>I2&lt;=I3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>181</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8219,6 +9003,13 @@
       <c r="B12" t="s">
         <v>188</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D12" t="b">
+        <f>AND(D3:D5)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -8227,6 +9018,13 @@
       <c r="B13" t="s">
         <v>195</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D13" t="b">
+        <f>OR(D3:D8)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -8235,8 +9033,18 @@
       <c r="B14" t="s">
         <v>201</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D14" t="b">
+        <f>NOT(D8)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8250,7 +9058,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8264,40 +9072,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="O1" s="22">
+      <c r="O1" s="21">
         <v>40</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -8305,36 +9113,36 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>77</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>65</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>95</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>84</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>70</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <f>SUM(C2:G2)</f>
         <v>391</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="21">
         <f>AVERAGE(C2:G2)</f>
         <v>78.2</v>
       </c>
-      <c r="J2" s="22" t="str">
+      <c r="J2" s="21" t="str">
         <f>IF(AND(C2&gt;=$O$1,D2&gt;=$O$1,E2&gt;=$O$1,F2&gt;=$O$1,G2&gt;=$O$1),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
@@ -8343,36 +9151,36 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>88</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>90</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>86</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>94</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>73</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <f t="shared" ref="H3:H51" si="0">SUM(C3:G3)</f>
         <v>431</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <f t="shared" ref="I3:I51" si="1">AVERAGE(C3:G3)</f>
         <v>86.2</v>
       </c>
-      <c r="J3" s="22" t="str">
+      <c r="J3" s="21" t="str">
         <f t="shared" ref="J3:J51" si="2">IF(AND(C3&gt;=$O$1,D3&gt;=$O$1,E3&gt;=$O$1,F3&gt;=$O$1,G3&gt;=$O$1),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
@@ -8381,36 +9189,36 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>84</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>69</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>69</v>
       </c>
-      <c r="F4" s="22">
-        <v>53</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="21">
+        <v>60</v>
+      </c>
+      <c r="G4" s="21">
         <v>72</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <f t="shared" si="0"/>
-        <v>347</v>
-      </c>
-      <c r="I4" s="22">
+        <v>354</v>
+      </c>
+      <c r="I4" s="21">
         <f t="shared" si="1"/>
-        <v>69.400000000000006</v>
-      </c>
-      <c r="J4" s="22" t="str">
+        <v>70.8</v>
+      </c>
+      <c r="J4" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8426,36 +9234,36 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>40</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>45</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>83</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>75</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>77</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="J5" s="22" t="str">
+      <c r="J5" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8471,36 +9279,36 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>47</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>70</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>48</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>52</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>53</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="J6" s="22" t="str">
+      <c r="J6" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8513,36 +9321,36 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>95</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>82</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>40</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>81</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>92</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8555,36 +9363,36 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>78</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>95</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>60</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>85</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>89</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <f t="shared" si="0"/>
         <v>407</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <f t="shared" si="1"/>
         <v>81.400000000000006</v>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8597,71 +9405,71 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>97</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>48</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>76</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>98</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>86</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="J9" s="22" t="str">
+      <c r="J9" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>62</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>45</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>91</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>88</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>92</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="21">
         <f t="shared" si="1"/>
         <v>75.599999999999994</v>
       </c>
-      <c r="J10" s="22" t="str">
+      <c r="J10" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8675,176 +9483,176 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>45</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>59</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>69</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>47</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>68</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="21">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="J11" s="22" t="str">
+      <c r="J11" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>51</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>45</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>84</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>93</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>79</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <f t="shared" si="1"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="J12" s="22" t="str">
+      <c r="J12" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>84</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>60</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>44</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>20</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>41</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="21">
         <f t="shared" si="1"/>
         <v>49.8</v>
       </c>
-      <c r="J13" s="22" t="str">
+      <c r="J13" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>90</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>63</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>66</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>47</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>97</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="21">
         <f t="shared" si="1"/>
         <v>72.599999999999994</v>
       </c>
-      <c r="J14" s="22" t="str">
+      <c r="J14" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>86</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>63</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>56</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>45</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>78</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="21">
         <f t="shared" si="1"/>
         <v>65.599999999999994</v>
       </c>
-      <c r="J15" s="22" t="str">
+      <c r="J15" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8862,36 +9670,36 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>75</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>81</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>70</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>72</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <v>61</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="21">
         <f t="shared" si="1"/>
         <v>71.8</v>
       </c>
-      <c r="J16" s="22" t="str">
+      <c r="J16" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8911,36 +9719,36 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>40</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>76</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>98</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>66</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>51</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <f t="shared" si="1"/>
         <v>66.2</v>
       </c>
-      <c r="J17" s="22" t="str">
+      <c r="J17" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -8960,36 +9768,36 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>53</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>65</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>79</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>53</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <v>39</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <f t="shared" si="1"/>
         <v>57.8</v>
       </c>
-      <c r="J18" s="22" t="str">
+      <c r="J18" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
@@ -9009,36 +9817,36 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>85</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>88</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>100</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>92</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>98</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <f t="shared" si="1"/>
         <v>92.6</v>
       </c>
-      <c r="J19" s="22" t="str">
+      <c r="J19" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
@@ -9058,1135 +9866,1135 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>89</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>91</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>89</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>84</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>77</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="J20" s="22" t="str">
+      <c r="J20" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>78</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>78</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>85</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>47</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <v>46</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <f t="shared" si="1"/>
         <v>66.8</v>
       </c>
-      <c r="J21" s="22" t="str">
+      <c r="J21" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>20</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>57</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>88</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>70</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>41</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <f t="shared" si="1"/>
         <v>55.2</v>
       </c>
-      <c r="J22" s="22" t="str">
+      <c r="J22" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>65</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>55</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>53</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>75</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>94</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <f t="shared" si="1"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="J23" s="22" t="str">
+      <c r="J23" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>53</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>92</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>91</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>48</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>50</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <f t="shared" si="1"/>
         <v>66.8</v>
       </c>
-      <c r="J24" s="22" t="str">
+      <c r="J24" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>68</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>53</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>38</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <v>85</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <v>78</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <f t="shared" si="0"/>
         <v>322</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <f t="shared" si="1"/>
         <v>64.400000000000006</v>
       </c>
-      <c r="J25" s="22" t="str">
+      <c r="J25" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>82</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>99</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>88</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="21">
         <v>98</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>95</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>462</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <f t="shared" si="1"/>
         <v>92.4</v>
       </c>
-      <c r="J26" s="22" t="str">
+      <c r="J26" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>73</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>50</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>73</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>43</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>99</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="21">
         <f t="shared" si="0"/>
         <v>338</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="21">
         <f t="shared" si="1"/>
         <v>67.599999999999994</v>
       </c>
-      <c r="J27" s="22" t="str">
+      <c r="J27" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>93</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>95</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>49</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>47</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>55</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <f t="shared" si="0"/>
         <v>339</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <f t="shared" si="1"/>
         <v>67.8</v>
       </c>
-      <c r="J28" s="22" t="str">
+      <c r="J28" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>84</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>92</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>93</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>95</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>80</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="21">
         <f t="shared" si="0"/>
         <v>444</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <f t="shared" si="1"/>
         <v>88.8</v>
       </c>
-      <c r="J29" s="22" t="str">
+      <c r="J29" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>75</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>91</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>68</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>75</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>71</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="21">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="J30" s="22" t="str">
+      <c r="J30" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>82</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>89</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>57</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>43</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>47</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="21">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <f t="shared" si="1"/>
         <v>63.6</v>
       </c>
-      <c r="J31" s="22" t="str">
+      <c r="J31" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>72</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>99</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="21">
         <v>78</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="21">
         <v>92</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>78</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="21">
         <f t="shared" si="0"/>
         <v>419</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="21">
         <f t="shared" si="1"/>
         <v>83.8</v>
       </c>
-      <c r="J32" s="22" t="str">
+      <c r="J32" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>89</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>93</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>68</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="21">
         <v>93</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <v>83</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="21">
         <f t="shared" si="0"/>
         <v>426</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="21">
         <f t="shared" si="1"/>
         <v>85.2</v>
       </c>
-      <c r="J33" s="22" t="str">
+      <c r="J33" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>69</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>67</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="21">
         <v>99</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <v>74</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>65</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="21">
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="21">
         <f t="shared" si="1"/>
         <v>74.8</v>
       </c>
-      <c r="J34" s="22" t="str">
+      <c r="J34" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <v>82</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>72</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <v>98</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <v>75</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>65</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="21">
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="21">
         <f t="shared" si="1"/>
         <v>78.400000000000006</v>
       </c>
-      <c r="J35" s="22" t="str">
+      <c r="J35" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <v>92</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>84</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="21">
         <v>32</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="21">
         <v>93</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>94</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="21">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="21">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="J36" s="22" t="str">
+      <c r="J36" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <v>97</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>82</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="21">
         <v>62</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="21">
         <v>90</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21">
         <v>87</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="21">
         <f t="shared" si="0"/>
         <v>418</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="21">
         <f t="shared" si="1"/>
         <v>83.6</v>
       </c>
-      <c r="J37" s="22" t="str">
+      <c r="J37" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="21">
         <v>66</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>86</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="21">
         <v>61</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="21">
         <v>71</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="21">
         <v>75</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="21">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="21">
         <f t="shared" si="1"/>
         <v>71.8</v>
       </c>
-      <c r="J38" s="22" t="str">
+      <c r="J38" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="21">
         <v>65</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>92</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="21">
         <v>88</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
         <v>63</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="21">
         <v>62</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="21">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="21">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J39" s="22" t="str">
+      <c r="J39" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <v>70</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>95</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="21">
         <v>96</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="21">
         <v>85</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="21">
         <v>63</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="21">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="21">
         <f t="shared" si="1"/>
         <v>81.8</v>
       </c>
-      <c r="J40" s="22" t="str">
+      <c r="J40" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <v>68</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>75</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <v>94</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="21">
         <v>93</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21">
         <v>75</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="21">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="21">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="J41" s="22" t="str">
+      <c r="J41" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="21">
         <v>98</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>64</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="21">
         <v>100</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="21">
         <v>64</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="21">
         <v>72</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="21">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="21">
         <f t="shared" si="1"/>
         <v>79.599999999999994</v>
       </c>
-      <c r="J42" s="22" t="str">
+      <c r="J42" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="21">
         <v>32</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>80</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="21">
         <v>80</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <v>77</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <v>67</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="21">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="21">
         <f t="shared" si="1"/>
         <v>67.2</v>
       </c>
-      <c r="J43" s="22" t="str">
+      <c r="J43" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="21">
         <v>85</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>71</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="21">
         <v>86</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="21">
         <v>65</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <v>83</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="21">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="21">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="J44" s="22" t="str">
+      <c r="J44" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="21">
         <v>87</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>84</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="21">
         <v>78</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="21">
         <v>65</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="21">
         <v>87</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="21">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="21">
         <f t="shared" si="1"/>
         <v>80.2</v>
       </c>
-      <c r="J45" s="22" t="str">
+      <c r="J45" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="21">
         <v>94</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>79</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="21">
         <v>73</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="21">
         <v>62</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="21">
         <v>88</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="21">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="21">
         <f t="shared" si="1"/>
         <v>79.2</v>
       </c>
-      <c r="J46" s="22" t="str">
+      <c r="J46" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="21">
         <v>77</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <v>76</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="21">
         <v>72</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <v>77</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="21">
         <v>80</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="21">
         <f t="shared" si="0"/>
         <v>382</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="21">
         <f t="shared" si="1"/>
         <v>76.400000000000006</v>
       </c>
-      <c r="J47" s="22" t="str">
+      <c r="J47" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <v>85</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <v>98</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="21">
         <v>82</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="21">
         <v>99</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="21">
         <v>82</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="21">
         <f t="shared" si="0"/>
         <v>446</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="21">
         <f t="shared" si="1"/>
         <v>89.2</v>
       </c>
-      <c r="J48" s="22" t="str">
+      <c r="J48" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <v>65</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <v>90</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="21">
         <v>73</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="21">
         <v>73</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="21">
         <v>80</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="21">
         <f t="shared" si="0"/>
         <v>381</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="21">
         <f t="shared" si="1"/>
         <v>76.2</v>
       </c>
-      <c r="J49" s="22" t="str">
+      <c r="J49" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="21">
         <v>45</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>66</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="21">
         <v>70</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="21">
         <v>31</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="21">
         <v>56</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="21">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="21">
         <f t="shared" si="1"/>
         <v>53.6</v>
       </c>
-      <c r="J50" s="22" t="str">
+      <c r="J50" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="21">
         <v>61</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>93</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="21">
         <v>80</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="21">
         <v>60</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="21">
         <v>76</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="21">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="21">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="J51" s="22" t="str">
+      <c r="J51" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:G51">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
-      <formula>$O$1</formula>
+  <conditionalFormatting sqref="A2:J51">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$J2=$Q$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J51">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$J2=$Q$3</formula>
+  <conditionalFormatting sqref="C2:G51">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10195,11 +11003,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF75E77F-8A53-495B-8423-338ED4416D93}">
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T1" s="12" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H12" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T1" r:id="rId1" xr:uid="{53E3E1CA-50B7-44EB-8C87-0AE065EA96D1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBF5D9-8FB7-42E4-B0A4-B8AC86EC7EE1}">
   <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10214,6 +11060,7 @@
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -11712,12 +12559,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4979C08-6F67-4EBD-8816-064FDFF2B18B}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11732,7 +12579,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -12910,7 +13757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5639990B-6750-4226-8125-85B5B2D017B4}">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -13156,7 +14003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2151C0B-73BA-4D05-A62D-E4D9FD47320B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -13213,7 +14060,7 @@
       <c r="C2" t="s">
         <v>664</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>42535</v>
       </c>
       <c r="E2">
@@ -13239,7 +14086,7 @@
       <c r="C3" t="s">
         <v>669</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>42748</v>
       </c>
       <c r="E3">
@@ -13265,7 +14112,7 @@
       <c r="C4" t="s">
         <v>673</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>42651</v>
       </c>
       <c r="E4">
@@ -13291,7 +14138,7 @@
       <c r="C5" t="s">
         <v>676</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>43222</v>
       </c>
       <c r="E5">
@@ -13317,7 +14164,7 @@
       <c r="C6" t="s">
         <v>679</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>42765</v>
       </c>
       <c r="E6">
@@ -13343,7 +14190,7 @@
       <c r="C7" t="s">
         <v>683</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>42101</v>
       </c>
       <c r="E7">
@@ -13369,7 +14216,7 @@
       <c r="C8" t="s">
         <v>686</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>41704</v>
       </c>
       <c r="E8">
@@ -13395,7 +14242,7 @@
       <c r="C9" t="s">
         <v>676</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>43244</v>
       </c>
       <c r="E9">
@@ -13421,7 +14268,7 @@
       <c r="C10" t="s">
         <v>692</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>41962</v>
       </c>
       <c r="E10">
@@ -13452,356 +14299,6 @@
       <c r="J17" t="str">
         <f>VLOOKUP(I17,A1:H10,2,0)</f>
         <v>Phonics Song with TWO Words - A For Apple - ABC Alphabet Songs with Sounds for Children</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C35B6DA-4005-4159-8F42-B0AFAD2CF07B}">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="36.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C2" t="s">
-        <v>664</v>
-      </c>
-      <c r="D2" s="24">
-        <v>42535</v>
-      </c>
-      <c r="E2">
-        <v>12495185438</v>
-      </c>
-      <c r="F2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G2" t="s">
-        <v>666</v>
-      </c>
-      <c r="H2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D3" s="24">
-        <v>42748</v>
-      </c>
-      <c r="E3">
-        <v>8109237463</v>
-      </c>
-      <c r="F3" t="s">
-        <v>665</v>
-      </c>
-      <c r="G3" t="s">
-        <v>670</v>
-      </c>
-      <c r="H3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C4" t="s">
-        <v>673</v>
-      </c>
-      <c r="D4" s="24">
-        <v>42651</v>
-      </c>
-      <c r="E4">
-        <v>6653263786</v>
-      </c>
-      <c r="F4" t="s">
-        <v>665</v>
-      </c>
-      <c r="G4" t="s">
-        <v>666</v>
-      </c>
-      <c r="H4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>675</v>
-      </c>
-      <c r="C5" t="s">
-        <v>676</v>
-      </c>
-      <c r="D5" s="24">
-        <v>43222</v>
-      </c>
-      <c r="E5">
-        <v>6071073952</v>
-      </c>
-      <c r="F5" t="s">
-        <v>665</v>
-      </c>
-      <c r="G5" t="s">
-        <v>666</v>
-      </c>
-      <c r="H5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D6" s="24">
-        <v>42765</v>
-      </c>
-      <c r="E6">
-        <v>5944830525</v>
-      </c>
-      <c r="F6" t="s">
-        <v>680</v>
-      </c>
-      <c r="G6" t="s">
-        <v>666</v>
-      </c>
-      <c r="H6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C7" t="s">
-        <v>683</v>
-      </c>
-      <c r="D7" s="24">
-        <v>42101</v>
-      </c>
-      <c r="E7">
-        <v>5816307940</v>
-      </c>
-      <c r="F7" t="s">
-        <v>665</v>
-      </c>
-      <c r="G7" t="s">
-        <v>666</v>
-      </c>
-      <c r="H7" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>685</v>
-      </c>
-      <c r="C8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D8" s="24">
-        <v>41704</v>
-      </c>
-      <c r="E8">
-        <v>5209038987</v>
-      </c>
-      <c r="F8" t="s">
-        <v>687</v>
-      </c>
-      <c r="G8" t="s">
-        <v>666</v>
-      </c>
-      <c r="H8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>689</v>
-      </c>
-      <c r="C9" t="s">
-        <v>676</v>
-      </c>
-      <c r="D9" s="24">
-        <v>43244</v>
-      </c>
-      <c r="E9">
-        <v>5021165699</v>
-      </c>
-      <c r="F9" t="s">
-        <v>665</v>
-      </c>
-      <c r="G9" t="s">
-        <v>666</v>
-      </c>
-      <c r="H9" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>691</v>
-      </c>
-      <c r="C10" t="s">
-        <v>692</v>
-      </c>
-      <c r="D10" s="24">
-        <v>41962</v>
-      </c>
-      <c r="E10">
-        <v>4859631966</v>
-      </c>
-      <c r="F10" t="s">
-        <v>665</v>
-      </c>
-      <c r="G10" t="s">
-        <v>666</v>
-      </c>
-      <c r="H10" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>655</v>
-      </c>
-      <c r="H17" t="s">
-        <v>657</v>
-      </c>
-      <c r="I17" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="str">
-        <f>VLOOKUP($G18,$A$1:$H$10,3,FALSE)</f>
-        <v>LuisFonsiVEVO</v>
-      </c>
-      <c r="I18">
-        <f>VLOOKUP($G18,$A$1:$H$10,5,FALSE)</f>
-        <v>8109237463</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" ref="H19:H21" si="0">VLOOKUP($G19,$A$1:$H$10,3,FALSE)</f>
-        <v>Ed Sheeran</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I21" si="1">VLOOKUP($G19,$A$1:$H$10,5,FALSE)</f>
-        <v>5944830525</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>Wiz Khalifa</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>5816307940</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>MarkRonsonVEVO</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>4859631966</v>
       </c>
     </row>
   </sheetData>

--- a/excel-beginner-tutorial.xlsx
+++ b/excel-beginner-tutorial.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26316"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066F873-CE7F-4AA7-8130-B5383C5518D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D7EAA2-346E-435A-A309-39F3B62D1697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="14" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="8" activeTab="14" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Text!$A$1:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId16"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="720">
   <si>
     <t>Reg No.</t>
   </si>
@@ -2214,6 +2217,27 @@
   </si>
   <si>
     <t>=IF(logical_test,value_if_true,value_if_false)</t>
+  </si>
+  <si>
+    <t>=$N$1</t>
+  </si>
+  <si>
+    <t>=N$1</t>
+  </si>
+  <si>
+    <t>=$N1</t>
+  </si>
+  <si>
+    <t>=N1</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Title</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2383,12 +2407,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
@@ -2403,7 +2460,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2433,13 +2490,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3642,6 +3709,1627 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="amutheswaran" refreshedDate="45012.864845023149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="200" xr:uid="{C68812BC-1809-4E89-B12F-62BA5D67F19A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C201" sheet="Pivot"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems count="199">
+        <s v="Avatar"/>
+        <s v="Avengers: Endgame"/>
+        <s v="Titanic"/>
+        <s v="Star Wars: Episode VII - The Force Awakens"/>
+        <s v="Avengers: Infinity War"/>
+        <s v="Spider-Man: No Way Home"/>
+        <s v="Jurassic World"/>
+        <s v="The Lion King"/>
+        <s v="The Avengers"/>
+        <s v="Furious 7"/>
+        <s v="Frozen II"/>
+        <s v="Avengers: Age of Ultron"/>
+        <s v="Black Panther"/>
+        <s v="Harry Potter and the Deathly Hallows: Part 2"/>
+        <s v="Star Wars: Episode VIII - The Last Jedi"/>
+        <s v="Jurassic World: Fallen Kingdom"/>
+        <s v="Frozen"/>
+        <s v="Beauty and the Beast"/>
+        <s v="Incredibles 2"/>
+        <s v="The Fate of the Furious"/>
+        <s v="Iron Man 3"/>
+        <s v="Minions"/>
+        <s v="Captain America: Civil War"/>
+        <s v="Aquaman"/>
+        <s v="The Lord of the Rings: The Return of the King"/>
+        <s v="Spider-Man: Far from Home"/>
+        <s v="Captain Marvel"/>
+        <s v="Transformers: Dark of the Moon"/>
+        <s v="Skyfall"/>
+        <s v="Transformers: Age of Extinction"/>
+        <s v="Jurassic Park"/>
+        <s v="The Dark Knight Rises"/>
+        <s v="Joker"/>
+        <s v="Star Wars: Episode IX - The Rise of Skywalker"/>
+        <s v="Toy Story 4"/>
+        <s v="Toy Story 3"/>
+        <s v="Pirates of the Caribbean: Dead Man's Chest"/>
+        <s v="Rogue One: A Star Wars Story"/>
+        <s v="Aladdin"/>
+        <s v="Pirates of the Caribbean: On Stranger Tides"/>
+        <s v="Despicable Me 3"/>
+        <s v="Finding Dory"/>
+        <s v="Star Wars: Episode I - The Phantom Menace"/>
+        <s v="Alice in Wonderland"/>
+        <s v="Zootopia"/>
+        <s v="Harry Potter and the Sorcerer's Stone"/>
+        <s v="The Hobbit: An Unexpected Journey"/>
+        <s v="The Dark Knight"/>
+        <s v="Harry Potter and the Deathly Hallows: Part 1"/>
+        <s v="Despicable Me 2"/>
+        <s v="The Jungle Book"/>
+        <s v="Jumanji: Welcome to the Jungle"/>
+        <s v="The Hobbit: The Battle of the Five Armies"/>
+        <s v="Pirates of the Caribbean: At World's End"/>
+        <s v="The Hobbit: The Desolation of Smaug"/>
+        <s v="The Lord of the Rings: The Two Towers"/>
+        <s v="Harry Potter and the Order of the Phoenix"/>
+        <s v="Finding Nemo"/>
+        <s v="Harry Potter and the Half-Blood Prince"/>
+        <s v="Shrek 2"/>
+        <s v="Bohemian Rhapsody"/>
+        <s v="The Battle at Lake Changjin"/>
+        <s v="The Lord of the Rings: The Fellowship of the Ring"/>
+        <s v="Harry Potter and the Goblet of Fire"/>
+        <s v="Spider-Man 3"/>
+        <s v="Ice Age 3: Dawn of the Dinosaurs"/>
+        <s v="Spectre"/>
+        <s v="Spider-Man: Homecoming"/>
+        <s v="Harry Potter and the Chamber of Secrets"/>
+        <s v="Ice Age 4: Continental Drift"/>
+        <s v="The Secret Life of Pets"/>
+        <s v="Batman v Superman: Dawn of Justice"/>
+        <s v="Wolf Warrior 2"/>
+        <s v="Star Wars: Episode III - Revenge of the Sith"/>
+        <s v="The Hunger Games: Catching Fire"/>
+        <s v="Guardians of the Galaxy Vol. 2"/>
+        <s v="Inside Out"/>
+        <s v="Venom"/>
+        <s v="Thor: Ragnarok"/>
+        <s v="Inception"/>
+        <s v="Transformers: Revenge of the Fallen"/>
+        <s v="The Twilight Saga: Breaking Dawn - Part 2"/>
+        <s v="Spider-Man"/>
+        <s v="Wonder Woman"/>
+        <s v="Hi, Mom"/>
+        <s v="Independence Day"/>
+        <s v="Fantastic Beasts and Where to Find Them"/>
+        <s v="Shrek the Third"/>
+        <s v="Coco"/>
+        <s v="Jumanji: The Next Level"/>
+        <s v="Harry Potter and the Prisoner of Azkaban"/>
+        <s v="Pirates of the Caribbean: Dead Men Tell No Tales"/>
+        <s v="E.T. the Extra-Terrestrial"/>
+        <s v="Mission: Impossible - Fallout"/>
+        <s v="2012"/>
+        <s v="Indiana Jones and the Kingdom of the Crystal Skull"/>
+        <s v="Spider-Man 2"/>
+        <s v="Fast &amp; Furious 6"/>
+        <s v="Deadpool 2"/>
+        <s v="Deadpool"/>
+        <s v="Star Wars"/>
+        <s v="No Time to Die"/>
+        <s v="Guardians of the Galaxy"/>
+        <s v="The Da Vinci Code"/>
+        <s v="Fast &amp; Furious Presents: Hobbs &amp; Shaw"/>
+        <s v="Maleficent"/>
+        <s v="The Amazing Spider-Man"/>
+        <s v="The Hunger Games: Mockingjay - Part 1"/>
+        <s v="Shrek Forever After"/>
+        <s v="Madagascar 3: Europe's Most Wanted"/>
+        <s v="Suicide Squad"/>
+        <s v="X-Men: Days of Future Past"/>
+        <s v="The Chronicles of Narnia: The Lion, the Witch and the Wardrobe"/>
+        <s v="Monsters University"/>
+        <s v="The Matrix Reloaded"/>
+        <s v="Up"/>
+        <s v="Ne Zha"/>
+        <s v="F9: The Fast Saga"/>
+        <s v="Gravity"/>
+        <s v="Captain America: The Winter Soldier"/>
+        <s v="The Twilight Saga: Breaking Dawn - Part 1"/>
+        <s v="The Twilight Saga: New Moon"/>
+        <s v="Dawn of the Planet of the Apes"/>
+        <s v="Transformers"/>
+        <s v="The Amazing Spider-Man 2"/>
+        <s v="It"/>
+        <s v="Interstellar"/>
+        <s v="The Wandering Earth"/>
+        <s v="The Twilight Saga: Eclipse"/>
+        <s v="Mission: Impossible - Ghost Protocol"/>
+        <s v="The Hunger Games"/>
+        <s v="Detective Chinatown 3"/>
+        <s v="Mission: Impossible - Rogue Nation"/>
+        <s v="The Batman"/>
+        <s v="Forrest Gump"/>
+        <s v="Doctor Strange"/>
+        <s v="The Sixth Sense"/>
+        <s v="Man of Steel"/>
+        <s v="Ice Age 2: The Meltdown"/>
+        <s v="Kung Fu Panda 2"/>
+        <s v="The Hunger Games: Mockingjay - Part 2"/>
+        <s v="Justice League"/>
+        <s v="Big Hero 6"/>
+        <s v="Fantastic Beasts: The Crimes of Grindelwald"/>
+        <s v="Pirates of the Caribbean: The Curse of the Black Pearl"/>
+        <s v="Star Wars: Episode II - Attack of the Clones"/>
+        <s v="Thor: The Dark World"/>
+        <s v="Moana"/>
+        <s v="Sing"/>
+        <s v="Kung Fu Panda"/>
+        <s v="The Incredibles"/>
+        <s v="The Martian"/>
+        <s v="Hancock"/>
+        <s v="Water Gate Bridge"/>
+        <s v="Fast Five"/>
+        <s v="Men in Black 3"/>
+        <s v="Iron Man 2"/>
+        <s v="Ratatouille"/>
+        <s v="Ant-Man and the Wasp"/>
+        <s v="How to Train Your Dragon 2"/>
+        <s v="Logan"/>
+        <s v="The Lost World: Jurassic Park"/>
+        <s v="Casino Royale"/>
+        <s v="The Passion of the Christ"/>
+        <s v="Mamma Mia!"/>
+        <s v="Life of Pi"/>
+        <s v="Transformers: The Last Knight"/>
+        <s v="Madagascar: Escape 2 Africa"/>
+        <s v="War of the Worlds"/>
+        <s v="Tangled"/>
+        <s v="Quantum of Solace"/>
+        <s v="Men in Black"/>
+        <s v="The Croods"/>
+        <s v="The Hangover Part II"/>
+        <s v="Iron Man"/>
+        <s v="I Am Legend"/>
+        <s v="Ready Player One"/>
+        <s v="Monsters, Inc."/>
+        <s v="Operation Red Sea"/>
+        <s v="Night at the Museum"/>
+        <s v="Fifty Shades of Grey"/>
+        <s v="Kong: Skull Island"/>
+        <s v="The Smurfs"/>
+        <s v="Cars 2"/>
+        <s v="King Kong"/>
+        <s v="Puss in Boots"/>
+        <s v="The Mermaid"/>
+        <s v="Armageddon"/>
+        <s v="The Day After Tomorrow"/>
+        <s v="Ted"/>
+        <s v="American Sniper"/>
+        <s v="Mission: Impossible II"/>
+        <s v="Detective Chinatown 2"/>
+        <s v="X-Men: Apocalypse"/>
+        <s v="Sherlock Holmes: A Game of Shadows"/>
+        <s v="Despicable Me"/>
+        <s v="Cinderella"/>
+        <s v="Madagascar"/>
+        <s v="World War Z"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Worldwide Lifetime Gross" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="540455876" maxValue="2847379794"/>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1977" maxValue="2022" count="30">
+        <n v="2009"/>
+        <n v="2019"/>
+        <n v="1997"/>
+        <n v="2015"/>
+        <n v="2018"/>
+        <n v="2021"/>
+        <n v="2012"/>
+        <n v="2011"/>
+        <n v="2017"/>
+        <n v="2013"/>
+        <n v="2016"/>
+        <n v="2003"/>
+        <n v="2014"/>
+        <n v="1993"/>
+        <n v="2010"/>
+        <n v="2006"/>
+        <n v="1994"/>
+        <n v="1999"/>
+        <n v="2001"/>
+        <n v="2008"/>
+        <n v="2007"/>
+        <n v="2002"/>
+        <n v="2004"/>
+        <n v="2005"/>
+        <n v="1996"/>
+        <n v="1982"/>
+        <n v="1977"/>
+        <n v="2022"/>
+        <n v="1998"/>
+        <n v="2000"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="200">
+  <r>
+    <x v="0"/>
+    <n v="2847379794"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2797501328"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2201647264"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2069521700"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2048359754"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1889674167"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1671537444"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1662899439"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1518815515"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1515341399"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1450026933"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1402809540"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1347597973"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="1342359942"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="1332698830"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="1310466296"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="1281508100"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="1273576220"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="1243089244"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="1236005118"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="1214811252"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="1159444662"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="1153337496"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1148528393"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1146436214"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="1131927996"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="1128462972"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="1123794079"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="1108569499"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="1104054072"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="1099428303"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="1081153097"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="1074445730"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="1074149279"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="1073394593"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="1066970811"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="1066179747"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1063611805"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="1056057720"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="1050693953"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="1045713802"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="1034800131"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="1028570942"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="1027082707"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="1025468216"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="1024121104"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="1017713119"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="1017030651"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="1006102277"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="977070383"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="970766005"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="966554929"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="962542945"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="962201338"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="960996492"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="959027992"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="947896241"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="942201710"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <n v="940352645"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="934483039"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="928760770"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <n v="910809311"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <n v="902540935"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <n v="898094742"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <n v="896730264"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <n v="894983373"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <n v="886686817"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <n v="880681519"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <n v="880166924"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <n v="879793867"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <n v="877244782"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <n v="875458631"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="873637528"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="870325439"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="868390560"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="865011746"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="863756051"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="858848019"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="856085151"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="853983911"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <n v="836848102"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <n v="836303693"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <n v="829747654"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <n v="825025036"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <n v="822854286"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <n v="822009764"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <n v="817400891"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <n v="814044001"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <n v="813367380"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <n v="807817888"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <n v="800059707"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <n v="797491273"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <n v="794881442"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <n v="792910554"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <n v="791657398"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <n v="791217826"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <n v="790653942"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <n v="788976453"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <n v="788680968"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <n v="785896609"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <n v="782836791"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <n v="775398007"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <n v="774153007"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <n v="773350147"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <n v="760006945"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <n v="759056935"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <n v="758411779"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <n v="757930663"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <n v="755356711"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <n v="752600867"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <n v="746921274"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <n v="746846894"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <n v="746045700"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <n v="745013115"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <n v="743559645"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <n v="741847937"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <n v="735099102"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <n v="726264074"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <n v="726229501"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <n v="723192705"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <n v="714421503"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <n v="712205856"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <n v="711025481"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <n v="710644566"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <n v="709709780"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <n v="708982323"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <n v="701842551"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <n v="701729206"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <n v="699992512"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <n v="698491347"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <n v="694713380"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <n v="694394724"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <n v="686257563"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <n v="682716636"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <n v="682200000"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <n v="678226133"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <n v="677796076"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <n v="672806432"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <n v="668045518"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <n v="667094506"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <n v="665692281"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <n v="658344137"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <n v="657926987"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <n v="657869686"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <n v="654855901"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <n v="654264015"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <n v="653779970"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <n v="644783140"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <n v="644136488"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <n v="634338384"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <n v="632083197"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <n v="631607053"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <n v="630620818"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <n v="629443428"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <n v="626203271"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <n v="626137675"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <n v="624026776"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <n v="623933331"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <n v="623726085"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <n v="622674139"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <n v="621537519"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <n v="619179950"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <n v="618638999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <n v="616502912"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <n v="612054506"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <n v="611257819"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <n v="609016565"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <n v="605425157"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <n v="603900354"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <n v="603873119"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <n v="592462816"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <n v="589580482"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <n v="589390539"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <n v="587235983"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <n v="586764305"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <n v="585796247"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <n v="585410052"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <n v="582918849"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <n v="579707738"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <n v="579330426"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <n v="574481229"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <n v="569651467"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <n v="566652812"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <n v="563749323"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <n v="559852396"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <n v="556906378"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <n v="554987477"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <n v="553810228"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <n v="553709788"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <n v="552639571"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <n v="549368315"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <n v="547459020"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <n v="546388108"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <n v="544185156"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <n v="543934105"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <n v="543848418"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <n v="543157985"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <n v="542358331"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <n v="542063846"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <n v="540455876"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21910D12-4AC3-43FC-B612-EFC83897ABBF}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G4:H35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0">
+      <items count="200">
+        <item x="94"/>
+        <item x="38"/>
+        <item x="43"/>
+        <item x="190"/>
+        <item x="158"/>
+        <item x="23"/>
+        <item x="187"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="71"/>
+        <item x="17"/>
+        <item x="142"/>
+        <item x="12"/>
+        <item x="60"/>
+        <item x="22"/>
+        <item x="119"/>
+        <item x="26"/>
+        <item x="183"/>
+        <item x="162"/>
+        <item x="196"/>
+        <item x="88"/>
+        <item x="122"/>
+        <item x="99"/>
+        <item x="98"/>
+        <item x="195"/>
+        <item x="49"/>
+        <item x="40"/>
+        <item x="192"/>
+        <item x="131"/>
+        <item x="135"/>
+        <item x="92"/>
+        <item x="117"/>
+        <item x="86"/>
+        <item x="143"/>
+        <item x="97"/>
+        <item x="104"/>
+        <item x="154"/>
+        <item x="180"/>
+        <item x="41"/>
+        <item x="57"/>
+        <item x="134"/>
+        <item x="16"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="118"/>
+        <item x="102"/>
+        <item x="75"/>
+        <item x="152"/>
+        <item x="68"/>
+        <item x="48"/>
+        <item x="13"/>
+        <item x="63"/>
+        <item x="58"/>
+        <item x="56"/>
+        <item x="90"/>
+        <item x="45"/>
+        <item x="84"/>
+        <item x="159"/>
+        <item x="175"/>
+        <item x="138"/>
+        <item x="65"/>
+        <item x="69"/>
+        <item x="79"/>
+        <item x="18"/>
+        <item x="85"/>
+        <item x="95"/>
+        <item x="76"/>
+        <item x="126"/>
+        <item x="174"/>
+        <item x="156"/>
+        <item x="20"/>
+        <item x="125"/>
+        <item x="32"/>
+        <item x="89"/>
+        <item x="51"/>
+        <item x="30"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="141"/>
+        <item x="184"/>
+        <item x="181"/>
+        <item x="149"/>
+        <item x="139"/>
+        <item x="165"/>
+        <item x="160"/>
+        <item x="197"/>
+        <item x="109"/>
+        <item x="167"/>
+        <item x="105"/>
+        <item x="164"/>
+        <item x="137"/>
+        <item x="171"/>
+        <item x="155"/>
+        <item x="21"/>
+        <item x="93"/>
+        <item x="129"/>
+        <item x="132"/>
+        <item x="191"/>
+        <item x="147"/>
+        <item x="113"/>
+        <item x="177"/>
+        <item x="116"/>
+        <item x="179"/>
+        <item x="101"/>
+        <item x="178"/>
+        <item x="53"/>
+        <item x="36"/>
+        <item x="91"/>
+        <item x="39"/>
+        <item x="144"/>
+        <item x="185"/>
+        <item x="170"/>
+        <item x="157"/>
+        <item x="176"/>
+        <item x="37"/>
+        <item x="194"/>
+        <item x="59"/>
+        <item x="108"/>
+        <item x="87"/>
+        <item x="148"/>
+        <item x="28"/>
+        <item x="66"/>
+        <item x="82"/>
+        <item x="96"/>
+        <item x="64"/>
+        <item x="25"/>
+        <item x="67"/>
+        <item x="5"/>
+        <item x="100"/>
+        <item x="42"/>
+        <item x="145"/>
+        <item x="73"/>
+        <item x="33"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="110"/>
+        <item x="169"/>
+        <item x="189"/>
+        <item x="106"/>
+        <item x="124"/>
+        <item x="8"/>
+        <item x="133"/>
+        <item x="61"/>
+        <item x="112"/>
+        <item x="172"/>
+        <item x="103"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="173"/>
+        <item x="46"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="130"/>
+        <item x="74"/>
+        <item x="107"/>
+        <item x="140"/>
+        <item x="150"/>
+        <item x="50"/>
+        <item x="7"/>
+        <item x="62"/>
+        <item x="24"/>
+        <item x="55"/>
+        <item x="161"/>
+        <item x="151"/>
+        <item x="114"/>
+        <item x="186"/>
+        <item x="163"/>
+        <item x="70"/>
+        <item x="136"/>
+        <item x="182"/>
+        <item x="120"/>
+        <item x="81"/>
+        <item x="128"/>
+        <item x="121"/>
+        <item x="127"/>
+        <item x="78"/>
+        <item x="146"/>
+        <item x="2"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="123"/>
+        <item x="29"/>
+        <item x="27"/>
+        <item x="80"/>
+        <item x="166"/>
+        <item x="115"/>
+        <item x="77"/>
+        <item x="168"/>
+        <item x="153"/>
+        <item x="72"/>
+        <item x="83"/>
+        <item x="198"/>
+        <item x="193"/>
+        <item x="111"/>
+        <item x="44"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="31">
+        <item x="26"/>
+        <item x="25"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="17"/>
+        <item x="29"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{503F3CCD-0AAD-446E-97BA-E431AE00EECA}" name="Table2" displayName="Table2" ref="A1:G51" totalsRowShown="0">
   <autoFilter ref="A1:G51" xr:uid="{503F3CCD-0AAD-446E-97BA-E431AE00EECA}"/>
@@ -3957,7 +5645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA1A12F-1E41-41A1-853B-53EC10CAE414}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5364,10 +7052,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59B5EA-5F36-4506-9B80-2736CCDF45D1}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5377,9 +7065,10 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>116</v>
       </c>
@@ -5390,7 +7079,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>239</v>
       </c>
@@ -5401,7 +7090,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -5412,7 +7101,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -5422,8 +7111,14 @@
       <c r="C4">
         <v>1997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="H4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -5433,8 +7128,14 @@
       <c r="C5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" s="38">
+        <v>1977</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -5444,8 +7145,14 @@
       <c r="C6">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G6" s="38">
+        <v>1982</v>
+      </c>
+      <c r="H6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>244</v>
       </c>
@@ -5455,8 +7162,14 @@
       <c r="C7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7" s="38">
+        <v>1993</v>
+      </c>
+      <c r="H7" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -5466,8 +7179,14 @@
       <c r="C8">
         <v>2015</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G8" s="38">
+        <v>1994</v>
+      </c>
+      <c r="H8" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -5477,8 +7196,14 @@
       <c r="C9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G9" s="38">
+        <v>1996</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -5488,8 +7213,14 @@
       <c r="C10">
         <v>2012</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G10" s="38">
+        <v>1997</v>
+      </c>
+      <c r="H10" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>248</v>
       </c>
@@ -5499,8 +7230,14 @@
       <c r="C11">
         <v>2015</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G11" s="38">
+        <v>1998</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>249</v>
       </c>
@@ -5510,8 +7247,14 @@
       <c r="C12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G12" s="38">
+        <v>1999</v>
+      </c>
+      <c r="H12" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -5521,8 +7264,14 @@
       <c r="C13">
         <v>2015</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G13" s="38">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -5532,8 +7281,14 @@
       <c r="C14">
         <v>2018</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G14" s="38">
+        <v>2001</v>
+      </c>
+      <c r="H14" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -5543,8 +7298,14 @@
       <c r="C15">
         <v>2011</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G15" s="38">
+        <v>2002</v>
+      </c>
+      <c r="H15" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>253</v>
       </c>
@@ -5554,8 +7315,14 @@
       <c r="C16">
         <v>2017</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16" s="38">
+        <v>2003</v>
+      </c>
+      <c r="H16" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -5565,8 +7332,14 @@
       <c r="C17">
         <v>2018</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17" s="38">
+        <v>2004</v>
+      </c>
+      <c r="H17" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>255</v>
       </c>
@@ -5576,8 +7349,14 @@
       <c r="C18">
         <v>2013</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18" s="38">
+        <v>2005</v>
+      </c>
+      <c r="H18" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -5587,8 +7366,14 @@
       <c r="C19">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19" s="38">
+        <v>2006</v>
+      </c>
+      <c r="H19" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>257</v>
       </c>
@@ -5598,8 +7383,14 @@
       <c r="C20">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G20" s="38">
+        <v>2007</v>
+      </c>
+      <c r="H20" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>258</v>
       </c>
@@ -5609,8 +7400,14 @@
       <c r="C21">
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G21" s="38">
+        <v>2008</v>
+      </c>
+      <c r="H21" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>259</v>
       </c>
@@ -5620,8 +7417,14 @@
       <c r="C22">
         <v>2013</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G22" s="38">
+        <v>2009</v>
+      </c>
+      <c r="H22" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>260</v>
       </c>
@@ -5631,8 +7434,14 @@
       <c r="C23">
         <v>2015</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G23" s="38">
+        <v>2010</v>
+      </c>
+      <c r="H23" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>261</v>
       </c>
@@ -5642,8 +7451,14 @@
       <c r="C24">
         <v>2016</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G24" s="38">
+        <v>2011</v>
+      </c>
+      <c r="H24" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>262</v>
       </c>
@@ -5653,8 +7468,14 @@
       <c r="C25">
         <v>2018</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G25" s="38">
+        <v>2012</v>
+      </c>
+      <c r="H25" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>263</v>
       </c>
@@ -5664,8 +7485,14 @@
       <c r="C26">
         <v>2003</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G26" s="38">
+        <v>2013</v>
+      </c>
+      <c r="H26" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>264</v>
       </c>
@@ -5675,8 +7502,14 @@
       <c r="C27">
         <v>2019</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G27" s="38">
+        <v>2014</v>
+      </c>
+      <c r="H27" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>265</v>
       </c>
@@ -5686,8 +7519,14 @@
       <c r="C28">
         <v>2019</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G28" s="38">
+        <v>2015</v>
+      </c>
+      <c r="H28" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>266</v>
       </c>
@@ -5697,8 +7536,14 @@
       <c r="C29">
         <v>2011</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G29" s="38">
+        <v>2016</v>
+      </c>
+      <c r="H29" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>267</v>
       </c>
@@ -5708,8 +7553,14 @@
       <c r="C30">
         <v>2012</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G30" s="38">
+        <v>2017</v>
+      </c>
+      <c r="H30" s="36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>268</v>
       </c>
@@ -5719,8 +7570,14 @@
       <c r="C31">
         <v>2014</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G31" s="38">
+        <v>2018</v>
+      </c>
+      <c r="H31" s="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>269</v>
       </c>
@@ -5730,8 +7587,14 @@
       <c r="C32">
         <v>1993</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G32" s="38">
+        <v>2019</v>
+      </c>
+      <c r="H32" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>270</v>
       </c>
@@ -5741,8 +7604,14 @@
       <c r="C33">
         <v>2012</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G33" s="38">
+        <v>2021</v>
+      </c>
+      <c r="H33" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>271</v>
       </c>
@@ -5752,8 +7621,14 @@
       <c r="C34">
         <v>2019</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G34" s="38">
+        <v>2022</v>
+      </c>
+      <c r="H34" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -5763,8 +7638,14 @@
       <c r="C35">
         <v>2019</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G35" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="H35" s="36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -5775,7 +7656,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>273</v>
       </c>
@@ -5786,7 +7667,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>274</v>
       </c>
@@ -5797,7 +7678,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>246</v>
       </c>
@@ -5808,7 +7689,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -5819,7 +7700,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>276</v>
       </c>
@@ -5830,7 +7711,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>277</v>
       </c>
@@ -5841,7 +7722,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>278</v>
       </c>
@@ -5852,7 +7733,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>279</v>
       </c>
@@ -5863,7 +7744,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5874,7 +7755,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -5885,7 +7766,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>282</v>
       </c>
@@ -5896,7 +7777,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>283</v>
       </c>
@@ -7600,7 +9481,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8733,7 +10614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968705CC-026E-4DAA-B41B-06B4A23E9192}">
   <dimension ref="C5:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8749,79 +10632,79 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="27" t="s">
         <v>652</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
         <v>650</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="34" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26">
+      <c r="D6" s="29"/>
+      <c r="E6" s="31">
         <v>123</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26" t="b">
+      <c r="F6" s="29"/>
+      <c r="G6" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="26" t="e" cm="1">
         <f t="array" ref="I6">num</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26">
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="31">
         <v>3.14</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="b">
+      <c r="F7" s="29"/>
+      <c r="G7" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="26" t="e">
         <f>SUM("TY")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="28">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="32">
         <v>44956</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="26" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="29">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="33">
         <v>44974.951585648145</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="26" t="e" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("")</f>
         <v>#REF!</v>
@@ -8838,9 +10721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F49360-AC51-4238-99A6-81570E6697CB}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8851,10 +10732,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="25"/>
       <c r="F1" s="2" t="s">
         <v>702</v>
       </c>
@@ -11007,7 +12888,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11045,7 +12926,7 @@
   <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13759,15 +15640,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5639990B-6750-4226-8125-85B5B2D017B4}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>432</v>
       </c>
@@ -13781,7 +15662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>435</v>
       </c>
@@ -13799,8 +15680,11 @@
       <c r="G2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>436</v>
       </c>
@@ -13818,8 +15702,11 @@
       <c r="G3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>437</v>
       </c>
@@ -13837,8 +15724,11 @@
       <c r="G4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>438</v>
       </c>
@@ -13856,8 +15746,11 @@
       <c r="G5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -13876,7 +15769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>440</v>
       </c>
@@ -13895,7 +15788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>441</v>
       </c>
@@ -13908,7 +15801,7 @@
         <v>Name 1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>442</v>
       </c>
@@ -13921,7 +15814,7 @@
         <v>Name 1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>443</v>
       </c>
@@ -13934,7 +15827,7 @@
         <v>Name 1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>444</v>
       </c>
@@ -13947,12 +15840,12 @@
         <v>Name 1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>436</v>
       </c>

--- a/excel-beginner-tutorial.xlsx
+++ b/excel-beginner-tutorial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABFB7B-1E90-41D5-B474-E1EA819E764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED55DE-0FDB-49D7-B6D8-34A3C6E83933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="15" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="964">
   <si>
     <t>Reg No.</t>
   </si>
@@ -2620,9 +2620,6 @@
     <t>Payroll</t>
   </si>
   <si>
-    <t>@company.com</t>
-  </si>
-  <si>
     <t>PHONE_NUMBER2</t>
   </si>
   <si>
@@ -2948,6 +2945,30 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>=find()</t>
+  </si>
+  <si>
+    <t>=search()</t>
+  </si>
+  <si>
+    <t>=rept()</t>
+  </si>
+  <si>
+    <t>=substitute()</t>
+  </si>
+  <si>
+    <t>=code()</t>
+  </si>
+  <si>
+    <t>=char()</t>
+  </si>
+  <si>
+    <t>=value()</t>
+  </si>
+  <si>
+    <t>=text()</t>
   </si>
 </sst>
 </file>
@@ -3179,7 +3200,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3224,10 +3245,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5765,7 +5789,7 @@
         <v>395</v>
       </c>
       <c r="I1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K1" t="s">
         <v>395</v>
@@ -9281,7 +9305,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9500,7 +9524,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9552,9 +9576,9 @@
         <v>398</v>
       </c>
       <c r="D2" t="s">
-        <v>849</v>
-      </c>
-      <c r="E2" s="41">
+        <v>848</v>
+      </c>
+      <c r="E2" s="40">
         <v>5151234567</v>
       </c>
       <c r="F2" s="39">
@@ -9578,9 +9602,9 @@
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>850</v>
-      </c>
-      <c r="E3" s="41">
+        <v>849</v>
+      </c>
+      <c r="E3" s="40">
         <v>5151234568</v>
       </c>
       <c r="F3" s="39">
@@ -9604,9 +9628,9 @@
         <v>409</v>
       </c>
       <c r="D4" t="s">
-        <v>851</v>
-      </c>
-      <c r="E4" s="41">
+        <v>850</v>
+      </c>
+      <c r="E4" s="40">
         <v>5151234569</v>
       </c>
       <c r="F4" s="39">
@@ -9630,9 +9654,9 @@
         <v>413</v>
       </c>
       <c r="D5" t="s">
-        <v>852</v>
-      </c>
-      <c r="E5" s="41">
+        <v>851</v>
+      </c>
+      <c r="E5" s="40">
         <v>5904234567</v>
       </c>
       <c r="F5" s="39">
@@ -9656,9 +9680,9 @@
         <v>419</v>
       </c>
       <c r="D6" t="s">
-        <v>853</v>
-      </c>
-      <c r="E6" s="41">
+        <v>852</v>
+      </c>
+      <c r="E6" s="40">
         <v>5904234568</v>
       </c>
       <c r="F6" s="39">
@@ -9682,9 +9706,9 @@
         <v>423</v>
       </c>
       <c r="D7" t="s">
-        <v>854</v>
-      </c>
-      <c r="E7" s="41">
+        <v>853</v>
+      </c>
+      <c r="E7" s="40">
         <v>5904234569</v>
       </c>
       <c r="F7" s="39">
@@ -9708,9 +9732,9 @@
         <v>427</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
-      </c>
-      <c r="E8" s="41">
+        <v>854</v>
+      </c>
+      <c r="E8" s="40">
         <v>5904234560</v>
       </c>
       <c r="F8" s="39">
@@ -9734,9 +9758,9 @@
         <v>431</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
-      </c>
-      <c r="E9" s="41">
+        <v>855</v>
+      </c>
+      <c r="E9" s="40">
         <v>5904235567</v>
       </c>
       <c r="F9" s="39">
@@ -9760,9 +9784,9 @@
         <v>435</v>
       </c>
       <c r="D10" t="s">
-        <v>857</v>
-      </c>
-      <c r="E10" s="41">
+        <v>856</v>
+      </c>
+      <c r="E10" s="40">
         <v>5151244569</v>
       </c>
       <c r="F10" s="39">
@@ -9786,9 +9810,9 @@
         <v>440</v>
       </c>
       <c r="D11" t="s">
-        <v>858</v>
-      </c>
-      <c r="E11" s="41">
+        <v>857</v>
+      </c>
+      <c r="E11" s="40">
         <v>5151244169</v>
       </c>
       <c r="F11" s="39">
@@ -9812,9 +9836,9 @@
         <v>445</v>
       </c>
       <c r="D12" t="s">
-        <v>859</v>
-      </c>
-      <c r="E12" s="41">
+        <v>858</v>
+      </c>
+      <c r="E12" s="40">
         <v>5151244269</v>
       </c>
       <c r="F12" s="39">
@@ -9838,9 +9862,9 @@
         <v>449</v>
       </c>
       <c r="D13" t="s">
-        <v>860</v>
-      </c>
-      <c r="E13" s="41">
+        <v>859</v>
+      </c>
+      <c r="E13" s="40">
         <v>5151244369</v>
       </c>
       <c r="F13" s="39">
@@ -9864,9 +9888,9 @@
         <v>453</v>
       </c>
       <c r="D14" t="s">
-        <v>861</v>
-      </c>
-      <c r="E14" s="41">
+        <v>860</v>
+      </c>
+      <c r="E14" s="40">
         <v>5151244469</v>
       </c>
       <c r="F14" s="39">
@@ -9890,9 +9914,9 @@
         <v>457</v>
       </c>
       <c r="D15" t="s">
-        <v>862</v>
-      </c>
-      <c r="E15" s="41">
+        <v>861</v>
+      </c>
+      <c r="E15" s="40">
         <v>5151244567</v>
       </c>
       <c r="F15" s="39">
@@ -9916,9 +9940,9 @@
         <v>461</v>
       </c>
       <c r="D16" t="s">
-        <v>863</v>
-      </c>
-      <c r="E16" s="41">
+        <v>862</v>
+      </c>
+      <c r="E16" s="40">
         <v>5151274561</v>
       </c>
       <c r="F16" s="39">
@@ -9942,9 +9966,9 @@
         <v>466</v>
       </c>
       <c r="D17" t="s">
-        <v>864</v>
-      </c>
-      <c r="E17" s="41">
+        <v>863</v>
+      </c>
+      <c r="E17" s="40">
         <v>5151274562</v>
       </c>
       <c r="F17" s="39">
@@ -9968,9 +9992,9 @@
         <v>471</v>
       </c>
       <c r="D18" t="s">
-        <v>865</v>
-      </c>
-      <c r="E18" s="41">
+        <v>864</v>
+      </c>
+      <c r="E18" s="40">
         <v>5151274563</v>
       </c>
       <c r="F18" s="39">
@@ -9994,9 +10018,9 @@
         <v>475</v>
       </c>
       <c r="D19" t="s">
-        <v>866</v>
-      </c>
-      <c r="E19" s="41">
+        <v>865</v>
+      </c>
+      <c r="E19" s="40">
         <v>5151274564</v>
       </c>
       <c r="F19" s="39">
@@ -10020,9 +10044,9 @@
         <v>479</v>
       </c>
       <c r="D20" t="s">
-        <v>867</v>
-      </c>
-      <c r="E20" s="41">
+        <v>866</v>
+      </c>
+      <c r="E20" s="40">
         <v>5151274565</v>
       </c>
       <c r="F20" s="39">
@@ -10046,9 +10070,9 @@
         <v>483</v>
       </c>
       <c r="D21" t="s">
-        <v>868</v>
-      </c>
-      <c r="E21" s="41">
+        <v>867</v>
+      </c>
+      <c r="E21" s="40">
         <v>5151274566</v>
       </c>
       <c r="F21" s="39">
@@ -10072,9 +10096,9 @@
         <v>487</v>
       </c>
       <c r="D22" t="s">
-        <v>869</v>
-      </c>
-      <c r="E22" s="41">
+        <v>868</v>
+      </c>
+      <c r="E22" s="40">
         <v>6501231234</v>
       </c>
       <c r="F22" s="39">
@@ -10098,9 +10122,9 @@
         <v>493</v>
       </c>
       <c r="D23" t="s">
-        <v>870</v>
-      </c>
-      <c r="E23" s="41">
+        <v>869</v>
+      </c>
+      <c r="E23" s="40">
         <v>6501232234</v>
       </c>
       <c r="F23" s="39">
@@ -10124,9 +10148,9 @@
         <v>497</v>
       </c>
       <c r="D24" t="s">
-        <v>871</v>
-      </c>
-      <c r="E24" s="41">
+        <v>870</v>
+      </c>
+      <c r="E24" s="40">
         <v>6501233234</v>
       </c>
       <c r="F24" s="39">
@@ -10150,9 +10174,9 @@
         <v>501</v>
       </c>
       <c r="D25" t="s">
-        <v>872</v>
-      </c>
-      <c r="E25" s="41">
+        <v>871</v>
+      </c>
+      <c r="E25" s="40">
         <v>6501234234</v>
       </c>
       <c r="F25" s="39">
@@ -10176,9 +10200,9 @@
         <v>505</v>
       </c>
       <c r="D26" t="s">
-        <v>873</v>
-      </c>
-      <c r="E26" s="41">
+        <v>872</v>
+      </c>
+      <c r="E26" s="40">
         <v>6501235234</v>
       </c>
       <c r="F26" s="39">
@@ -10202,9 +10226,9 @@
         <v>509</v>
       </c>
       <c r="D27" t="s">
-        <v>874</v>
-      </c>
-      <c r="E27" s="41">
+        <v>873</v>
+      </c>
+      <c r="E27" s="40">
         <v>6501241214</v>
       </c>
       <c r="F27" s="39">
@@ -10228,9 +10252,9 @@
         <v>514</v>
       </c>
       <c r="D28" t="s">
-        <v>875</v>
-      </c>
-      <c r="E28" s="41">
+        <v>874</v>
+      </c>
+      <c r="E28" s="40">
         <v>6501241224</v>
       </c>
       <c r="F28" s="39">
@@ -10254,9 +10278,9 @@
         <v>518</v>
       </c>
       <c r="D29" t="s">
-        <v>876</v>
-      </c>
-      <c r="E29" s="41">
+        <v>875</v>
+      </c>
+      <c r="E29" s="40">
         <v>6501241334</v>
       </c>
       <c r="F29" s="39">
@@ -10280,9 +10304,9 @@
         <v>521</v>
       </c>
       <c r="D30" t="s">
-        <v>877</v>
-      </c>
-      <c r="E30" s="41">
+        <v>876</v>
+      </c>
+      <c r="E30" s="40">
         <v>6501241434</v>
       </c>
       <c r="F30" s="39">
@@ -10306,9 +10330,9 @@
         <v>525</v>
       </c>
       <c r="D31" t="s">
-        <v>878</v>
-      </c>
-      <c r="E31" s="41">
+        <v>877</v>
+      </c>
+      <c r="E31" s="40">
         <v>6501245234</v>
       </c>
       <c r="F31" s="39">
@@ -10332,9 +10356,9 @@
         <v>529</v>
       </c>
       <c r="D32" t="s">
-        <v>879</v>
-      </c>
-      <c r="E32" s="41">
+        <v>878</v>
+      </c>
+      <c r="E32" s="40">
         <v>6501246234</v>
       </c>
       <c r="F32" s="39">
@@ -10358,9 +10382,9 @@
         <v>532</v>
       </c>
       <c r="D33" t="s">
-        <v>880</v>
-      </c>
-      <c r="E33" s="41">
+        <v>879</v>
+      </c>
+      <c r="E33" s="40">
         <v>6501247234</v>
       </c>
       <c r="F33" s="39">
@@ -10384,9 +10408,9 @@
         <v>536</v>
       </c>
       <c r="D34" t="s">
-        <v>881</v>
-      </c>
-      <c r="E34" s="41">
+        <v>880</v>
+      </c>
+      <c r="E34" s="40">
         <v>6501248234</v>
       </c>
       <c r="F34" s="39">
@@ -10410,9 +10434,9 @@
         <v>540</v>
       </c>
       <c r="D35" t="s">
-        <v>882</v>
-      </c>
-      <c r="E35" s="41">
+        <v>881</v>
+      </c>
+      <c r="E35" s="40">
         <v>6501271934</v>
       </c>
       <c r="F35" s="39">
@@ -10436,9 +10460,9 @@
         <v>544</v>
       </c>
       <c r="D36" t="s">
-        <v>883</v>
-      </c>
-      <c r="E36" s="41">
+        <v>882</v>
+      </c>
+      <c r="E36" s="40">
         <v>6501271834</v>
       </c>
       <c r="F36" s="39">
@@ -10462,9 +10486,9 @@
         <v>548</v>
       </c>
       <c r="D37" t="s">
-        <v>884</v>
-      </c>
-      <c r="E37" s="41">
+        <v>883</v>
+      </c>
+      <c r="E37" s="40">
         <v>6501271734</v>
       </c>
       <c r="F37" s="39">
@@ -10488,9 +10512,9 @@
         <v>552</v>
       </c>
       <c r="D38" t="s">
-        <v>885</v>
-      </c>
-      <c r="E38" s="41">
+        <v>884</v>
+      </c>
+      <c r="E38" s="40">
         <v>6501271634</v>
       </c>
       <c r="F38" s="39">
@@ -10514,9 +10538,9 @@
         <v>556</v>
       </c>
       <c r="D39" t="s">
-        <v>886</v>
-      </c>
-      <c r="E39" s="41">
+        <v>885</v>
+      </c>
+      <c r="E39" s="40">
         <v>6501211234</v>
       </c>
       <c r="F39" s="39">
@@ -10540,9 +10564,9 @@
         <v>560</v>
       </c>
       <c r="D40" t="s">
-        <v>887</v>
-      </c>
-      <c r="E40" s="41">
+        <v>886</v>
+      </c>
+      <c r="E40" s="40">
         <v>6501212034</v>
       </c>
       <c r="F40" s="39">
@@ -10566,9 +10590,9 @@
         <v>563</v>
       </c>
       <c r="D41" t="s">
-        <v>888</v>
-      </c>
-      <c r="E41" s="41">
+        <v>887</v>
+      </c>
+      <c r="E41" s="40">
         <v>6501212019</v>
       </c>
       <c r="F41" s="39">
@@ -10592,9 +10616,9 @@
         <v>567</v>
       </c>
       <c r="D42" t="s">
-        <v>889</v>
-      </c>
-      <c r="E42" s="41">
+        <v>888</v>
+      </c>
+      <c r="E42" s="40">
         <v>6501211834</v>
       </c>
       <c r="F42" s="39">
@@ -10618,9 +10642,9 @@
         <v>571</v>
       </c>
       <c r="D43" t="s">
-        <v>890</v>
-      </c>
-      <c r="E43" s="41">
+        <v>889</v>
+      </c>
+      <c r="E43" s="40">
         <v>6501218009</v>
       </c>
       <c r="F43" s="39">
@@ -10644,9 +10668,9 @@
         <v>575</v>
       </c>
       <c r="D44" t="s">
-        <v>891</v>
-      </c>
-      <c r="E44" s="41">
+        <v>890</v>
+      </c>
+      <c r="E44" s="40">
         <v>6501212994</v>
       </c>
       <c r="F44" s="39">
@@ -10670,9 +10694,9 @@
         <v>579</v>
       </c>
       <c r="D45" t="s">
-        <v>892</v>
-      </c>
-      <c r="E45" s="41">
+        <v>891</v>
+      </c>
+      <c r="E45" s="40">
         <v>6501212874</v>
       </c>
       <c r="F45" s="39">
@@ -10696,9 +10720,9 @@
         <v>583</v>
       </c>
       <c r="D46" t="s">
-        <v>893</v>
-      </c>
-      <c r="E46" s="41">
+        <v>892</v>
+      </c>
+      <c r="E46" s="40">
         <v>6501212004</v>
       </c>
       <c r="F46" s="39">
@@ -10722,9 +10746,9 @@
         <v>586</v>
       </c>
       <c r="D47" t="s">
-        <v>894</v>
-      </c>
-      <c r="E47" s="41">
+        <v>893</v>
+      </c>
+      <c r="E47" s="40">
         <v>11441344429268</v>
       </c>
       <c r="F47" s="39">
@@ -10748,9 +10772,9 @@
         <v>591</v>
       </c>
       <c r="D48" t="s">
-        <v>895</v>
-      </c>
-      <c r="E48" s="41">
+        <v>894</v>
+      </c>
+      <c r="E48" s="40">
         <v>11441344467268</v>
       </c>
       <c r="F48" s="39">
@@ -10774,9 +10798,9 @@
         <v>595</v>
       </c>
       <c r="D49" t="s">
-        <v>896</v>
-      </c>
-      <c r="E49" s="41">
+        <v>895</v>
+      </c>
+      <c r="E49" s="40">
         <v>11441344429278</v>
       </c>
       <c r="F49" s="39">
@@ -10800,9 +10824,9 @@
         <v>599</v>
       </c>
       <c r="D50" t="s">
-        <v>897</v>
-      </c>
-      <c r="E50" s="41">
+        <v>896</v>
+      </c>
+      <c r="E50" s="40">
         <v>11441344619268</v>
       </c>
       <c r="F50" s="39">
@@ -10826,9 +10850,9 @@
         <v>603</v>
       </c>
       <c r="D51" t="s">
-        <v>898</v>
-      </c>
-      <c r="E51" s="41">
+        <v>897</v>
+      </c>
+      <c r="E51" s="40">
         <v>11441344429018</v>
       </c>
       <c r="F51" s="39">
@@ -10852,9 +10876,9 @@
         <v>606</v>
       </c>
       <c r="D52" t="s">
-        <v>899</v>
-      </c>
-      <c r="E52" s="41">
+        <v>898</v>
+      </c>
+      <c r="E52" s="40">
         <v>11441344129268</v>
       </c>
       <c r="F52" s="39">
@@ -10878,9 +10902,9 @@
         <v>610</v>
       </c>
       <c r="D53" t="s">
-        <v>900</v>
-      </c>
-      <c r="E53" s="41">
+        <v>899</v>
+      </c>
+      <c r="E53" s="40">
         <v>11441344345268</v>
       </c>
       <c r="F53" s="39">
@@ -10904,9 +10928,9 @@
         <v>613</v>
       </c>
       <c r="D54" t="s">
-        <v>901</v>
-      </c>
-      <c r="E54" s="41">
+        <v>900</v>
+      </c>
+      <c r="E54" s="40">
         <v>11441344478968</v>
       </c>
       <c r="F54" s="39">
@@ -10930,9 +10954,9 @@
         <v>617</v>
       </c>
       <c r="D55" t="s">
-        <v>902</v>
-      </c>
-      <c r="E55" s="41">
+        <v>901</v>
+      </c>
+      <c r="E55" s="40">
         <v>11441344498718</v>
       </c>
       <c r="F55" s="39">
@@ -10956,9 +10980,9 @@
         <v>599</v>
       </c>
       <c r="D56" t="s">
-        <v>903</v>
-      </c>
-      <c r="E56" s="41">
+        <v>902</v>
+      </c>
+      <c r="E56" s="40">
         <v>11441344987668</v>
       </c>
       <c r="F56" s="39">
@@ -10982,9 +11006,9 @@
         <v>624</v>
       </c>
       <c r="D57" t="s">
-        <v>904</v>
-      </c>
-      <c r="E57" s="41">
+        <v>903</v>
+      </c>
+      <c r="E57" s="40">
         <v>11441344486508</v>
       </c>
       <c r="F57" s="39">
@@ -11008,9 +11032,9 @@
         <v>398</v>
       </c>
       <c r="D58" t="s">
-        <v>905</v>
-      </c>
-      <c r="E58" s="41">
+        <v>904</v>
+      </c>
+      <c r="E58" s="40">
         <v>11441345429268</v>
       </c>
       <c r="F58" s="39">
@@ -11034,9 +11058,9 @@
         <v>631</v>
       </c>
       <c r="D59" t="s">
-        <v>906</v>
-      </c>
-      <c r="E59" s="41">
+        <v>905</v>
+      </c>
+      <c r="E59" s="40">
         <v>11441345929268</v>
       </c>
       <c r="F59" s="39">
@@ -11060,9 +11084,9 @@
         <v>635</v>
       </c>
       <c r="D60" t="s">
-        <v>907</v>
-      </c>
-      <c r="E60" s="41">
+        <v>906</v>
+      </c>
+      <c r="E60" s="40">
         <v>11441345829268</v>
       </c>
       <c r="F60" s="39">
@@ -11086,9 +11110,9 @@
         <v>639</v>
       </c>
       <c r="D61" t="s">
-        <v>908</v>
-      </c>
-      <c r="E61" s="41">
+        <v>907</v>
+      </c>
+      <c r="E61" s="40">
         <v>11441345729268</v>
       </c>
       <c r="F61" s="39">
@@ -11112,9 +11136,9 @@
         <v>643</v>
       </c>
       <c r="D62" t="s">
-        <v>909</v>
-      </c>
-      <c r="E62" s="41">
+        <v>908</v>
+      </c>
+      <c r="E62" s="40">
         <v>11441345629268</v>
       </c>
       <c r="F62" s="39">
@@ -11138,9 +11162,9 @@
         <v>647</v>
       </c>
       <c r="D63" t="s">
-        <v>910</v>
-      </c>
-      <c r="E63" s="41">
+        <v>909</v>
+      </c>
+      <c r="E63" s="40">
         <v>11441345529268</v>
       </c>
       <c r="F63" s="39">
@@ -11164,9 +11188,9 @@
         <v>651</v>
       </c>
       <c r="D64" t="s">
-        <v>911</v>
-      </c>
-      <c r="E64" s="41">
+        <v>910</v>
+      </c>
+      <c r="E64" s="40">
         <v>11441346129268</v>
       </c>
       <c r="F64" s="39">
@@ -11190,9 +11214,9 @@
         <v>655</v>
       </c>
       <c r="D65" t="s">
-        <v>912</v>
-      </c>
-      <c r="E65" s="41">
+        <v>911</v>
+      </c>
+      <c r="E65" s="40">
         <v>11441346229268</v>
       </c>
       <c r="F65" s="39">
@@ -11216,9 +11240,9 @@
         <v>659</v>
       </c>
       <c r="D66" t="s">
-        <v>913</v>
-      </c>
-      <c r="E66" s="41">
+        <v>912</v>
+      </c>
+      <c r="E66" s="40">
         <v>11441346329268</v>
       </c>
       <c r="F66" s="39">
@@ -11242,9 +11266,9 @@
         <v>662</v>
       </c>
       <c r="D67" t="s">
-        <v>914</v>
-      </c>
-      <c r="E67" s="41">
+        <v>913</v>
+      </c>
+      <c r="E67" s="40">
         <v>11441346529268</v>
       </c>
       <c r="F67" s="39">
@@ -11268,9 +11292,9 @@
         <v>666</v>
       </c>
       <c r="D68" t="s">
-        <v>915</v>
-      </c>
-      <c r="E68" s="41">
+        <v>914</v>
+      </c>
+      <c r="E68" s="40">
         <v>11441346629268</v>
       </c>
       <c r="F68" s="39">
@@ -11294,9 +11318,9 @@
         <v>670</v>
       </c>
       <c r="D69" t="s">
-        <v>916</v>
-      </c>
-      <c r="E69" s="41">
+        <v>915</v>
+      </c>
+      <c r="E69" s="40">
         <v>11441346729268</v>
       </c>
       <c r="F69" s="39">
@@ -11320,9 +11344,9 @@
         <v>674</v>
       </c>
       <c r="D70" t="s">
-        <v>917</v>
-      </c>
-      <c r="E70" s="41">
+        <v>916</v>
+      </c>
+      <c r="E70" s="40">
         <v>11441343929268</v>
       </c>
       <c r="F70" s="39">
@@ -11346,9 +11370,9 @@
         <v>678</v>
       </c>
       <c r="D71" t="s">
-        <v>918</v>
-      </c>
-      <c r="E71" s="41">
+        <v>917</v>
+      </c>
+      <c r="E71" s="40">
         <v>11441343829268</v>
       </c>
       <c r="F71" s="39">
@@ -11372,9 +11396,9 @@
         <v>682</v>
       </c>
       <c r="D72" t="s">
-        <v>919</v>
-      </c>
-      <c r="E72" s="41">
+        <v>918</v>
+      </c>
+      <c r="E72" s="40">
         <v>11441343729268</v>
       </c>
       <c r="F72" s="39">
@@ -11398,9 +11422,9 @@
         <v>639</v>
       </c>
       <c r="D73" t="s">
-        <v>920</v>
-      </c>
-      <c r="E73" s="41">
+        <v>919</v>
+      </c>
+      <c r="E73" s="40">
         <v>11441343629268</v>
       </c>
       <c r="F73" s="39">
@@ -11424,9 +11448,9 @@
         <v>689</v>
       </c>
       <c r="D74" t="s">
-        <v>921</v>
-      </c>
-      <c r="E74" s="41">
+        <v>920</v>
+      </c>
+      <c r="E74" s="40">
         <v>11441343529268</v>
       </c>
       <c r="F74" s="39">
@@ -11450,9 +11474,9 @@
         <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>922</v>
-      </c>
-      <c r="E75" s="41">
+        <v>921</v>
+      </c>
+      <c r="E75" s="40">
         <v>11441343329268</v>
       </c>
       <c r="F75" s="39">
@@ -11476,9 +11500,9 @@
         <v>696</v>
       </c>
       <c r="D76" t="s">
-        <v>923</v>
-      </c>
-      <c r="E76" s="41">
+        <v>922</v>
+      </c>
+      <c r="E76" s="40">
         <v>11441644429267</v>
       </c>
       <c r="F76" s="39">
@@ -11502,9 +11526,9 @@
         <v>700</v>
       </c>
       <c r="D77" t="s">
-        <v>924</v>
-      </c>
-      <c r="E77" s="41">
+        <v>923</v>
+      </c>
+      <c r="E77" s="40">
         <v>11441644429266</v>
       </c>
       <c r="F77" s="39">
@@ -11528,9 +11552,9 @@
         <v>704</v>
       </c>
       <c r="D78" t="s">
-        <v>925</v>
-      </c>
-      <c r="E78" s="41">
+        <v>924</v>
+      </c>
+      <c r="E78" s="40">
         <v>11441644429265</v>
       </c>
       <c r="F78" s="39">
@@ -11554,9 +11578,9 @@
         <v>708</v>
       </c>
       <c r="D79" t="s">
-        <v>926</v>
-      </c>
-      <c r="E79" s="41">
+        <v>925</v>
+      </c>
+      <c r="E79" s="40">
         <v>11441644429264</v>
       </c>
       <c r="F79" s="39">
@@ -11580,9 +11604,9 @@
         <v>712</v>
       </c>
       <c r="D80" t="s">
-        <v>927</v>
-      </c>
-      <c r="E80" s="41">
+        <v>926</v>
+      </c>
+      <c r="E80" s="40">
         <v>11441644429263</v>
       </c>
       <c r="F80" s="39">
@@ -11606,9 +11630,9 @@
         <v>716</v>
       </c>
       <c r="D81" t="s">
-        <v>928</v>
-      </c>
-      <c r="E81" s="41">
+        <v>927</v>
+      </c>
+      <c r="E81" s="40">
         <v>11441644429262</v>
       </c>
       <c r="F81" s="39">
@@ -11632,9 +11656,9 @@
         <v>704</v>
       </c>
       <c r="D82" t="s">
-        <v>929</v>
-      </c>
-      <c r="E82" s="41">
+        <v>928</v>
+      </c>
+      <c r="E82" s="40">
         <v>6505079876</v>
       </c>
       <c r="F82" s="39">
@@ -11658,9 +11682,9 @@
         <v>724</v>
       </c>
       <c r="D83" t="s">
-        <v>930</v>
-      </c>
-      <c r="E83" s="41">
+        <v>929</v>
+      </c>
+      <c r="E83" s="40">
         <v>6505079877</v>
       </c>
       <c r="F83" s="39">
@@ -11684,9 +11708,9 @@
         <v>728</v>
       </c>
       <c r="D84" t="s">
-        <v>931</v>
-      </c>
-      <c r="E84" s="41">
+        <v>930</v>
+      </c>
+      <c r="E84" s="40">
         <v>6505079878</v>
       </c>
       <c r="F84" s="39">
@@ -11710,9 +11734,9 @@
         <v>732</v>
       </c>
       <c r="D85" t="s">
-        <v>932</v>
-      </c>
-      <c r="E85" s="41">
+        <v>931</v>
+      </c>
+      <c r="E85" s="40">
         <v>6505079879</v>
       </c>
       <c r="F85" s="39">
@@ -11736,9 +11760,9 @@
         <v>736</v>
       </c>
       <c r="D86" t="s">
-        <v>933</v>
-      </c>
-      <c r="E86" s="41">
+        <v>932</v>
+      </c>
+      <c r="E86" s="40">
         <v>6505091876</v>
       </c>
       <c r="F86" s="39">
@@ -11762,9 +11786,9 @@
         <v>740</v>
       </c>
       <c r="D87" t="s">
-        <v>934</v>
-      </c>
-      <c r="E87" s="41">
+        <v>933</v>
+      </c>
+      <c r="E87" s="40">
         <v>6505092876</v>
       </c>
       <c r="F87" s="39">
@@ -11788,9 +11812,9 @@
         <v>743</v>
       </c>
       <c r="D88" t="s">
-        <v>935</v>
-      </c>
-      <c r="E88" s="41">
+        <v>934</v>
+      </c>
+      <c r="E88" s="40">
         <v>6505093876</v>
       </c>
       <c r="F88" s="39">
@@ -11814,9 +11838,9 @@
         <v>747</v>
       </c>
       <c r="D89" t="s">
-        <v>936</v>
-      </c>
-      <c r="E89" s="41">
+        <v>935</v>
+      </c>
+      <c r="E89" s="40">
         <v>6505094876</v>
       </c>
       <c r="F89" s="39">
@@ -11840,9 +11864,9 @@
         <v>751</v>
       </c>
       <c r="D90" t="s">
-        <v>937</v>
-      </c>
-      <c r="E90" s="41">
+        <v>936</v>
+      </c>
+      <c r="E90" s="40">
         <v>6505051876</v>
       </c>
       <c r="F90" s="39">
@@ -11866,9 +11890,9 @@
         <v>755</v>
       </c>
       <c r="D91" t="s">
-        <v>938</v>
-      </c>
-      <c r="E91" s="41">
+        <v>937</v>
+      </c>
+      <c r="E91" s="40">
         <v>6505052876</v>
       </c>
       <c r="F91" s="39">
@@ -11892,9 +11916,9 @@
         <v>759</v>
       </c>
       <c r="D92" t="s">
-        <v>939</v>
-      </c>
-      <c r="E92" s="41">
+        <v>938</v>
+      </c>
+      <c r="E92" s="40">
         <v>6505053876</v>
       </c>
       <c r="F92" s="39">
@@ -11918,9 +11942,9 @@
         <v>762</v>
       </c>
       <c r="D93" t="s">
-        <v>940</v>
-      </c>
-      <c r="E93" s="41">
+        <v>939</v>
+      </c>
+      <c r="E93" s="40">
         <v>6505054876</v>
       </c>
       <c r="F93" s="39">
@@ -11944,9 +11968,9 @@
         <v>766</v>
       </c>
       <c r="D94" t="s">
-        <v>941</v>
-      </c>
-      <c r="E94" s="41">
+        <v>940</v>
+      </c>
+      <c r="E94" s="40">
         <v>6505011876</v>
       </c>
       <c r="F94" s="39">
@@ -11970,9 +11994,9 @@
         <v>770</v>
       </c>
       <c r="D95" t="s">
-        <v>942</v>
-      </c>
-      <c r="E95" s="41">
+        <v>941</v>
+      </c>
+      <c r="E95" s="40">
         <v>6505012876</v>
       </c>
       <c r="F95" s="39">
@@ -11996,9 +12020,9 @@
         <v>774</v>
       </c>
       <c r="D96" t="s">
-        <v>943</v>
-      </c>
-      <c r="E96" s="41">
+        <v>942</v>
+      </c>
+      <c r="E96" s="40">
         <v>6505013876</v>
       </c>
       <c r="F96" s="39">
@@ -12022,9 +12046,9 @@
         <v>778</v>
       </c>
       <c r="D97" t="s">
-        <v>944</v>
-      </c>
-      <c r="E97" s="41">
+        <v>943</v>
+      </c>
+      <c r="E97" s="40">
         <v>6505014876</v>
       </c>
       <c r="F97" s="39">
@@ -12048,9 +12072,9 @@
         <v>782</v>
       </c>
       <c r="D98" t="s">
-        <v>945</v>
-      </c>
-      <c r="E98" s="41">
+        <v>944</v>
+      </c>
+      <c r="E98" s="40">
         <v>6505079811</v>
       </c>
       <c r="F98" s="39">
@@ -12074,9 +12098,9 @@
         <v>785</v>
       </c>
       <c r="D99" t="s">
-        <v>946</v>
-      </c>
-      <c r="E99" s="41">
+        <v>945</v>
+      </c>
+      <c r="E99" s="40">
         <v>6505079822</v>
       </c>
       <c r="F99" s="39">
@@ -12100,9 +12124,9 @@
         <v>789</v>
       </c>
       <c r="D100" t="s">
-        <v>947</v>
-      </c>
-      <c r="E100" s="41">
+        <v>946</v>
+      </c>
+      <c r="E100" s="40">
         <v>6505079833</v>
       </c>
       <c r="F100" s="39">
@@ -12126,9 +12150,9 @@
         <v>712</v>
       </c>
       <c r="D101" t="s">
-        <v>948</v>
-      </c>
-      <c r="E101" s="41">
+        <v>947</v>
+      </c>
+      <c r="E101" s="40">
         <v>6505079844</v>
       </c>
       <c r="F101" s="39">
@@ -12152,9 +12176,9 @@
         <v>795</v>
       </c>
       <c r="D102" t="s">
-        <v>949</v>
-      </c>
-      <c r="E102" s="41">
+        <v>948</v>
+      </c>
+      <c r="E102" s="40">
         <v>5151234444</v>
       </c>
       <c r="F102" s="39">
@@ -12178,9 +12202,9 @@
         <v>800</v>
       </c>
       <c r="D103" t="s">
-        <v>950</v>
-      </c>
-      <c r="E103" s="41">
+        <v>949</v>
+      </c>
+      <c r="E103" s="40">
         <v>5151235555</v>
       </c>
       <c r="F103" s="39">
@@ -12204,9 +12228,9 @@
         <v>806</v>
       </c>
       <c r="D104" t="s">
-        <v>951</v>
-      </c>
-      <c r="E104" s="41">
+        <v>950</v>
+      </c>
+      <c r="E104" s="40">
         <v>6031236666</v>
       </c>
       <c r="F104" s="39">
@@ -12230,9 +12254,9 @@
         <v>811</v>
       </c>
       <c r="D105" t="s">
-        <v>952</v>
-      </c>
-      <c r="E105" s="41">
+        <v>951</v>
+      </c>
+      <c r="E105" s="40">
         <v>5151237777</v>
       </c>
       <c r="F105" s="39">
@@ -12256,9 +12280,9 @@
         <v>817</v>
       </c>
       <c r="D106" t="s">
-        <v>953</v>
-      </c>
-      <c r="E106" s="41">
+        <v>952</v>
+      </c>
+      <c r="E106" s="40">
         <v>5151238888</v>
       </c>
       <c r="F106" s="39">
@@ -12282,9 +12306,9 @@
         <v>823</v>
       </c>
       <c r="D107" t="s">
-        <v>954</v>
-      </c>
-      <c r="E107" s="41">
+        <v>953</v>
+      </c>
+      <c r="E107" s="40">
         <v>5151238080</v>
       </c>
       <c r="F107" s="39">
@@ -12308,9 +12332,9 @@
         <v>827</v>
       </c>
       <c r="D108" t="s">
-        <v>955</v>
-      </c>
-      <c r="E108" s="41">
+        <v>954</v>
+      </c>
+      <c r="E108" s="40">
         <v>5151238181</v>
       </c>
       <c r="F108" s="39">
@@ -12452,10 +12476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="F1" s="2" t="s">
         <v>312</v>
       </c>
@@ -13589,10 +13613,10 @@
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="P22" s="40"/>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
@@ -14677,10 +14701,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBF5D9-8FB7-42E4-B0A4-B8AC86EC7EE1}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14746,18 +14770,6 @@
         <f>TRIM(B2)</f>
         <v>Burr</v>
       </c>
-      <c r="F2" t="str">
-        <f>CONCATENATE(D2," ", E2)</f>
-        <v>Aaron Burr</v>
-      </c>
-      <c r="G2">
-        <f>LEN(A2)</f>
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <f>LEN(D2)</f>
-        <v>5</v>
-      </c>
       <c r="N2" s="4" t="s">
         <v>139</v>
       </c>
@@ -14777,10 +14789,6 @@
         <f t="shared" ref="E3:E15" si="1">TRIM(B3)</f>
         <v>Ali</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F15" si="2">CONCATENATE(D3," ", E3)</f>
-        <v>Dane Ali</v>
-      </c>
       <c r="N3" s="4" t="s">
         <v>144</v>
       </c>
@@ -14800,10 +14808,6 @@
         <f t="shared" si="1"/>
         <v>Clinton</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="2"/>
-        <v>George Clinton</v>
-      </c>
       <c r="N4" s="4" t="s">
         <v>147</v>
       </c>
@@ -14829,10 +14833,6 @@
         <f t="shared" si="1"/>
         <v>Buchanan</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="2"/>
-        <v>Sabrina Buchanan</v>
-      </c>
       <c r="N5" s="4" t="s">
         <v>153</v>
       </c>
@@ -14855,10 +14855,6 @@
         <f t="shared" si="1"/>
         <v>Calhoun</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="2"/>
-        <v>John C. Calhoun</v>
-      </c>
       <c r="N6" s="4" t="s">
         <v>158</v>
       </c>
@@ -14878,10 +14874,6 @@
         <f t="shared" si="1"/>
         <v>Fillmore</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="2"/>
-        <v>Millard Fillmore</v>
-      </c>
       <c r="N7" s="4" t="s">
         <v>163</v>
       </c>
@@ -14901,10 +14893,6 @@
         <f t="shared" si="1"/>
         <v>Blevins</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="2"/>
-        <v>Maximilian Blevins</v>
-      </c>
       <c r="N8" s="4" t="s">
         <v>158</v>
       </c>
@@ -14924,10 +14912,6 @@
         <f t="shared" si="1"/>
         <v>Zamora</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="2"/>
-        <v>Adison Zamora</v>
-      </c>
       <c r="N9" s="4" t="s">
         <v>170</v>
       </c>
@@ -14947,10 +14931,6 @@
         <f t="shared" si="1"/>
         <v>Zuniga</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="2"/>
-        <v>Angeline Zuniga</v>
-      </c>
       <c r="N10" s="4" t="s">
         <v>173</v>
       </c>
@@ -14970,10 +14950,6 @@
         <f t="shared" si="1"/>
         <v>Gray</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="2"/>
-        <v>Nicole Gray</v>
-      </c>
       <c r="N11" s="4" t="s">
         <v>174</v>
       </c>
@@ -14993,10 +14969,6 @@
         <f t="shared" si="1"/>
         <v>Mann</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
-        <v>Morgan Mann</v>
-      </c>
       <c r="N12" s="4" t="s">
         <v>332</v>
       </c>
@@ -15016,9 +14988,8 @@
         <f t="shared" si="1"/>
         <v>Gadot</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="2"/>
-        <v>Gal Gadot</v>
+      <c r="N13" s="42" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -15036,9 +15007,8 @@
         <f t="shared" si="1"/>
         <v>Daws</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="2"/>
-        <v>Rachel Daws</v>
+      <c r="N14" s="4" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -15056,9 +15026,33 @@
         <f t="shared" si="1"/>
         <v>Roy</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="2"/>
-        <v>Alex Roy</v>
+      <c r="N15" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N16" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="4" t="s">
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -15071,9 +15065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E2969B-5042-435B-96EE-9A63113DCFD9}">
   <dimension ref="A1:AH9097"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J108"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15117,7 +15109,7 @@
         <v>391</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>392</v>
@@ -15151,17 +15143,10 @@
       <c r="C2" t="s">
         <v>398</v>
       </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE(B2,".",C2,$Q$2)</f>
-        <v>Steven.King@company.com</v>
-      </c>
       <c r="E2" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="41">
-        <f>_xlfn.NUMBERVALUE(SUBSTITUTE(E2,".",""))</f>
-        <v>5151234567</v>
-      </c>
+      <c r="F2" s="40"/>
       <c r="G2" s="39">
         <v>37789</v>
       </c>
@@ -15173,9 +15158,6 @@
       </c>
       <c r="J2" t="s">
         <v>402</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>847</v>
       </c>
       <c r="V2" s="4"/>
     </row>
@@ -15189,17 +15171,10 @@
       <c r="C3" t="s">
         <v>404</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">CONCATENATE(B3,".",C3,$Q$2)</f>
-        <v>Neena.Kochhar@company.com</v>
-      </c>
       <c r="E3" t="s">
         <v>406</v>
       </c>
-      <c r="F3" s="41">
-        <f t="shared" ref="F3:F66" si="1">_xlfn.NUMBERVALUE(SUBSTITUTE(E3,".",""))</f>
-        <v>5151234568</v>
-      </c>
+      <c r="F3" s="40"/>
       <c r="G3" s="39">
         <v>38616</v>
       </c>
@@ -15224,17 +15199,10 @@
       <c r="C4" t="s">
         <v>409</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>Lex.De Haan@company.com</v>
-      </c>
       <c r="E4" t="s">
         <v>411</v>
       </c>
-      <c r="F4" s="41">
-        <f t="shared" si="1"/>
-        <v>5151234569</v>
-      </c>
+      <c r="F4" s="40"/>
       <c r="G4" s="39">
         <v>36904</v>
       </c>
@@ -15259,17 +15227,10 @@
       <c r="C5" t="s">
         <v>413</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Alexander.Hunold@company.com</v>
-      </c>
       <c r="E5" t="s">
         <v>415</v>
       </c>
-      <c r="F5" s="41">
-        <f t="shared" si="1"/>
-        <v>5904234567</v>
-      </c>
+      <c r="F5" s="40"/>
       <c r="G5" s="39">
         <v>38720</v>
       </c>
@@ -15294,17 +15255,10 @@
       <c r="C6" t="s">
         <v>419</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Bruce.Ernst@company.com</v>
-      </c>
       <c r="E6" t="s">
         <v>421</v>
       </c>
-      <c r="F6" s="41">
-        <f t="shared" si="1"/>
-        <v>5904234568</v>
-      </c>
+      <c r="F6" s="40"/>
       <c r="G6" s="39">
         <v>39223</v>
       </c>
@@ -15329,17 +15283,10 @@
       <c r="C7" t="s">
         <v>423</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>David.Austin@company.com</v>
-      </c>
       <c r="E7" t="s">
         <v>425</v>
       </c>
-      <c r="F7" s="41">
-        <f t="shared" si="1"/>
-        <v>5904234569</v>
-      </c>
+      <c r="F7" s="40"/>
       <c r="G7" s="39">
         <v>38528</v>
       </c>
@@ -15364,17 +15311,10 @@
       <c r="C8" t="s">
         <v>427</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Valli.Pataballa@company.com</v>
-      </c>
       <c r="E8" t="s">
         <v>429</v>
       </c>
-      <c r="F8" s="41">
-        <f t="shared" si="1"/>
-        <v>5904234560</v>
-      </c>
+      <c r="F8" s="40"/>
       <c r="G8" s="39">
         <v>38753</v>
       </c>
@@ -15399,17 +15339,10 @@
       <c r="C9" t="s">
         <v>431</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>Diana.Lorentz@company.com</v>
-      </c>
       <c r="E9" t="s">
         <v>433</v>
       </c>
-      <c r="F9" s="41">
-        <f t="shared" si="1"/>
-        <v>5904235567</v>
-      </c>
+      <c r="F9" s="40"/>
       <c r="G9" s="39">
         <v>39120</v>
       </c>
@@ -15434,17 +15367,10 @@
       <c r="C10" t="s">
         <v>435</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>Nancy.Greenberg@company.com</v>
-      </c>
       <c r="E10" t="s">
         <v>437</v>
       </c>
-      <c r="F10" s="41">
-        <f t="shared" si="1"/>
-        <v>5151244569</v>
-      </c>
+      <c r="F10" s="40"/>
       <c r="G10" s="39">
         <v>37485</v>
       </c>
@@ -15469,17 +15395,10 @@
       <c r="C11" t="s">
         <v>440</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>Daniel.Faviet@company.com</v>
-      </c>
       <c r="E11" t="s">
         <v>442</v>
       </c>
-      <c r="F11" s="41">
-        <f t="shared" si="1"/>
-        <v>5151244169</v>
-      </c>
+      <c r="F11" s="40"/>
       <c r="G11" s="39">
         <v>37484</v>
       </c>
@@ -15504,17 +15423,10 @@
       <c r="C12" t="s">
         <v>445</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>John.Chen@company.com</v>
-      </c>
       <c r="E12" t="s">
         <v>447</v>
       </c>
-      <c r="F12" s="41">
-        <f t="shared" si="1"/>
-        <v>5151244269</v>
-      </c>
+      <c r="F12" s="40"/>
       <c r="G12" s="39">
         <v>38623</v>
       </c>
@@ -15539,17 +15451,10 @@
       <c r="C13" t="s">
         <v>449</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>Ismael.Sciarra@company.com</v>
-      </c>
       <c r="E13" t="s">
         <v>451</v>
       </c>
-      <c r="F13" s="41">
-        <f t="shared" si="1"/>
-        <v>5151244369</v>
-      </c>
+      <c r="F13" s="40"/>
       <c r="G13" s="39">
         <v>38625</v>
       </c>
@@ -15574,17 +15479,10 @@
       <c r="C14" t="s">
         <v>453</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>Jose Manuel.Urman@company.com</v>
-      </c>
       <c r="E14" t="s">
         <v>455</v>
       </c>
-      <c r="F14" s="41">
-        <f t="shared" si="1"/>
-        <v>5151244469</v>
-      </c>
+      <c r="F14" s="40"/>
       <c r="G14" s="39">
         <v>38783</v>
       </c>
@@ -15609,17 +15507,10 @@
       <c r="C15" t="s">
         <v>457</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>Luis.Popp@company.com</v>
-      </c>
       <c r="E15" t="s">
         <v>459</v>
       </c>
-      <c r="F15" s="41">
-        <f t="shared" si="1"/>
-        <v>5151244567</v>
-      </c>
+      <c r="F15" s="40"/>
       <c r="G15" s="39">
         <v>39423</v>
       </c>
@@ -15644,17 +15535,10 @@
       <c r="C16" t="s">
         <v>461</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>Den.Raphaely@company.com</v>
-      </c>
       <c r="E16" t="s">
         <v>463</v>
       </c>
-      <c r="F16" s="41">
-        <f t="shared" si="1"/>
-        <v>5151274561</v>
-      </c>
+      <c r="F16" s="40"/>
       <c r="G16" s="39">
         <v>37597</v>
       </c>
@@ -15679,17 +15563,10 @@
       <c r="C17" t="s">
         <v>466</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>Alexander.Khoo@company.com</v>
-      </c>
       <c r="E17" t="s">
         <v>468</v>
       </c>
-      <c r="F17" s="41">
-        <f t="shared" si="1"/>
-        <v>5151274562</v>
-      </c>
+      <c r="F17" s="40"/>
       <c r="G17" s="39">
         <v>37759</v>
       </c>
@@ -15713,17 +15590,10 @@
       <c r="C18" t="s">
         <v>471</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>Shelli.Baida@company.com</v>
-      </c>
       <c r="E18" t="s">
         <v>473</v>
       </c>
-      <c r="F18" s="41">
-        <f t="shared" si="1"/>
-        <v>5151274563</v>
-      </c>
+      <c r="F18" s="40"/>
       <c r="G18" s="39">
         <v>38710</v>
       </c>
@@ -15747,17 +15617,10 @@
       <c r="C19" t="s">
         <v>475</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>Sigal.Tobias@company.com</v>
-      </c>
       <c r="E19" t="s">
         <v>477</v>
       </c>
-      <c r="F19" s="41">
-        <f t="shared" si="1"/>
-        <v>5151274564</v>
-      </c>
+      <c r="F19" s="40"/>
       <c r="G19" s="39">
         <v>38557</v>
       </c>
@@ -15781,17 +15644,10 @@
       <c r="C20" t="s">
         <v>479</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>Guy.Himuro@company.com</v>
-      </c>
       <c r="E20" t="s">
         <v>481</v>
       </c>
-      <c r="F20" s="41">
-        <f t="shared" si="1"/>
-        <v>5151274565</v>
-      </c>
+      <c r="F20" s="40"/>
       <c r="G20" s="39">
         <v>39036</v>
       </c>
@@ -15815,17 +15671,10 @@
       <c r="C21" t="s">
         <v>483</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>Karen.Colmenares@company.com</v>
-      </c>
       <c r="E21" t="s">
         <v>485</v>
       </c>
-      <c r="F21" s="41">
-        <f t="shared" si="1"/>
-        <v>5151274566</v>
-      </c>
+      <c r="F21" s="40"/>
       <c r="G21" s="39">
         <v>39304</v>
       </c>
@@ -15849,17 +15698,10 @@
       <c r="C22" t="s">
         <v>487</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>Matthew.Weiss@company.com</v>
-      </c>
       <c r="E22" t="s">
         <v>489</v>
       </c>
-      <c r="F22" s="41">
-        <f t="shared" si="1"/>
-        <v>6501231234</v>
-      </c>
+      <c r="F22" s="40"/>
       <c r="G22" s="39">
         <v>38186</v>
       </c>
@@ -15883,17 +15725,10 @@
       <c r="C23" t="s">
         <v>493</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>Adam.Fripp@company.com</v>
-      </c>
       <c r="E23" t="s">
         <v>495</v>
       </c>
-      <c r="F23" s="41">
-        <f t="shared" si="1"/>
-        <v>6501232234</v>
-      </c>
+      <c r="F23" s="40"/>
       <c r="G23" s="39">
         <v>38452</v>
       </c>
@@ -15917,17 +15752,10 @@
       <c r="C24" t="s">
         <v>497</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>Payam.Kaufling@company.com</v>
-      </c>
       <c r="E24" t="s">
         <v>499</v>
       </c>
-      <c r="F24" s="41">
-        <f t="shared" si="1"/>
-        <v>6501233234</v>
-      </c>
+      <c r="F24" s="40"/>
       <c r="G24" s="39">
         <v>37742</v>
       </c>
@@ -15951,17 +15779,10 @@
       <c r="C25" t="s">
         <v>501</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>Shanta.Vollman@company.com</v>
-      </c>
       <c r="E25" t="s">
         <v>503</v>
       </c>
-      <c r="F25" s="41">
-        <f t="shared" si="1"/>
-        <v>6501234234</v>
-      </c>
+      <c r="F25" s="40"/>
       <c r="G25" s="39">
         <v>38635</v>
       </c>
@@ -15985,17 +15806,10 @@
       <c r="C26" t="s">
         <v>505</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>Kevin.Mourgos@company.com</v>
-      </c>
       <c r="E26" t="s">
         <v>507</v>
       </c>
-      <c r="F26" s="41">
-        <f t="shared" si="1"/>
-        <v>6501235234</v>
-      </c>
+      <c r="F26" s="40"/>
       <c r="G26" s="39">
         <v>39402</v>
       </c>
@@ -16019,17 +15833,10 @@
       <c r="C27" t="s">
         <v>509</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>Julia.Nayer@company.com</v>
-      </c>
       <c r="E27" t="s">
         <v>511</v>
       </c>
-      <c r="F27" s="41">
-        <f t="shared" si="1"/>
-        <v>6501241214</v>
-      </c>
+      <c r="F27" s="40"/>
       <c r="G27" s="39">
         <v>38549</v>
       </c>
@@ -16053,17 +15860,10 @@
       <c r="C28" t="s">
         <v>514</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>Irene.Mikkilineni@company.com</v>
-      </c>
       <c r="E28" t="s">
         <v>516</v>
       </c>
-      <c r="F28" s="41">
-        <f t="shared" si="1"/>
-        <v>6501241224</v>
-      </c>
+      <c r="F28" s="40"/>
       <c r="G28" s="39">
         <v>38988</v>
       </c>
@@ -16087,17 +15887,10 @@
       <c r="C29" t="s">
         <v>518</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>James.Landry@company.com</v>
-      </c>
       <c r="E29" t="s">
         <v>520</v>
       </c>
-      <c r="F29" s="41">
-        <f t="shared" si="1"/>
-        <v>6501241334</v>
-      </c>
+      <c r="F29" s="40"/>
       <c r="G29" s="39">
         <v>39096</v>
       </c>
@@ -16121,17 +15914,10 @@
       <c r="C30" t="s">
         <v>521</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>Steven.Markle@company.com</v>
-      </c>
       <c r="E30" t="s">
         <v>523</v>
       </c>
-      <c r="F30" s="41">
-        <f t="shared" si="1"/>
-        <v>6501241434</v>
-      </c>
+      <c r="F30" s="40"/>
       <c r="G30" s="39">
         <v>39515</v>
       </c>
@@ -16155,17 +15941,10 @@
       <c r="C31" t="s">
         <v>525</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>Laura.Bissot@company.com</v>
-      </c>
       <c r="E31" t="s">
         <v>527</v>
       </c>
-      <c r="F31" s="41">
-        <f t="shared" si="1"/>
-        <v>6501245234</v>
-      </c>
+      <c r="F31" s="40"/>
       <c r="G31" s="39">
         <v>38584</v>
       </c>
@@ -16189,17 +15968,10 @@
       <c r="C32" t="s">
         <v>529</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>Mozhe.Atkinson@company.com</v>
-      </c>
       <c r="E32" t="s">
         <v>531</v>
       </c>
-      <c r="F32" s="41">
-        <f t="shared" si="1"/>
-        <v>6501246234</v>
-      </c>
+      <c r="F32" s="40"/>
       <c r="G32" s="39">
         <v>38655</v>
       </c>
@@ -16223,17 +15995,10 @@
       <c r="C33" t="s">
         <v>532</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>James.Marlow@company.com</v>
-      </c>
       <c r="E33" t="s">
         <v>534</v>
       </c>
-      <c r="F33" s="41">
-        <f t="shared" si="1"/>
-        <v>6501247234</v>
-      </c>
+      <c r="F33" s="40"/>
       <c r="G33" s="39">
         <v>38399</v>
       </c>
@@ -16257,17 +16022,10 @@
       <c r="C34" t="s">
         <v>536</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>TJ.Olson@company.com</v>
-      </c>
       <c r="E34" t="s">
         <v>538</v>
       </c>
-      <c r="F34" s="41">
-        <f t="shared" si="1"/>
-        <v>6501248234</v>
-      </c>
+      <c r="F34" s="40"/>
       <c r="G34" s="39">
         <v>39182</v>
       </c>
@@ -16291,17 +16049,10 @@
       <c r="C35" t="s">
         <v>540</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>Jason.Mallin@company.com</v>
-      </c>
       <c r="E35" t="s">
         <v>542</v>
       </c>
-      <c r="F35" s="41">
-        <f t="shared" si="1"/>
-        <v>6501271934</v>
-      </c>
+      <c r="F35" s="40"/>
       <c r="G35" s="39">
         <v>38152</v>
       </c>
@@ -16325,17 +16076,10 @@
       <c r="C36" t="s">
         <v>544</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>Michael.Rogers@company.com</v>
-      </c>
       <c r="E36" t="s">
         <v>546</v>
       </c>
-      <c r="F36" s="41">
-        <f t="shared" si="1"/>
-        <v>6501271834</v>
-      </c>
+      <c r="F36" s="40"/>
       <c r="G36" s="39">
         <v>38955</v>
       </c>
@@ -16359,17 +16103,10 @@
       <c r="C37" t="s">
         <v>548</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>Ki.Gee@company.com</v>
-      </c>
       <c r="E37" t="s">
         <v>550</v>
       </c>
-      <c r="F37" s="41">
-        <f t="shared" si="1"/>
-        <v>6501271734</v>
-      </c>
+      <c r="F37" s="40"/>
       <c r="G37" s="39">
         <v>39428</v>
       </c>
@@ -16393,17 +16130,10 @@
       <c r="C38" t="s">
         <v>552</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>Hazel.Philtanker@company.com</v>
-      </c>
       <c r="E38" t="s">
         <v>554</v>
       </c>
-      <c r="F38" s="41">
-        <f t="shared" si="1"/>
-        <v>6501271634</v>
-      </c>
+      <c r="F38" s="40"/>
       <c r="G38" s="39">
         <v>39484</v>
       </c>
@@ -16427,17 +16157,10 @@
       <c r="C39" t="s">
         <v>556</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>Renske.Ladwig@company.com</v>
-      </c>
       <c r="E39" t="s">
         <v>558</v>
       </c>
-      <c r="F39" s="41">
-        <f t="shared" si="1"/>
-        <v>6501211234</v>
-      </c>
+      <c r="F39" s="40"/>
       <c r="G39" s="39">
         <v>37816</v>
       </c>
@@ -16461,17 +16184,10 @@
       <c r="C40" t="s">
         <v>560</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>Stephen.Stiles@company.com</v>
-      </c>
       <c r="E40" t="s">
         <v>562</v>
       </c>
-      <c r="F40" s="41">
-        <f t="shared" si="1"/>
-        <v>6501212034</v>
-      </c>
+      <c r="F40" s="40"/>
       <c r="G40" s="39">
         <v>38651</v>
       </c>
@@ -16495,17 +16211,10 @@
       <c r="C41" t="s">
         <v>563</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>John.Seo@company.com</v>
-      </c>
       <c r="E41" t="s">
         <v>565</v>
       </c>
-      <c r="F41" s="41">
-        <f t="shared" si="1"/>
-        <v>6501212019</v>
-      </c>
+      <c r="F41" s="40"/>
       <c r="G41" s="39">
         <v>38760</v>
       </c>
@@ -16529,17 +16238,10 @@
       <c r="C42" t="s">
         <v>567</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>Joshua.Patel@company.com</v>
-      </c>
       <c r="E42" t="s">
         <v>569</v>
       </c>
-      <c r="F42" s="41">
-        <f t="shared" si="1"/>
-        <v>6501211834</v>
-      </c>
+      <c r="F42" s="40"/>
       <c r="G42" s="39">
         <v>38813</v>
       </c>
@@ -16563,17 +16265,10 @@
       <c r="C43" t="s">
         <v>571</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>Trenna.Rajs@company.com</v>
-      </c>
       <c r="E43" t="s">
         <v>573</v>
       </c>
-      <c r="F43" s="41">
-        <f t="shared" si="1"/>
-        <v>6501218009</v>
-      </c>
+      <c r="F43" s="40"/>
       <c r="G43" s="39">
         <v>37911</v>
       </c>
@@ -16597,17 +16292,10 @@
       <c r="C44" t="s">
         <v>575</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>Curtis.Davies@company.com</v>
-      </c>
       <c r="E44" t="s">
         <v>577</v>
       </c>
-      <c r="F44" s="41">
-        <f t="shared" si="1"/>
-        <v>6501212994</v>
-      </c>
+      <c r="F44" s="40"/>
       <c r="G44" s="39">
         <v>38381</v>
       </c>
@@ -16631,17 +16319,10 @@
       <c r="C45" t="s">
         <v>579</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>Randall.Matos@company.com</v>
-      </c>
       <c r="E45" t="s">
         <v>581</v>
       </c>
-      <c r="F45" s="41">
-        <f t="shared" si="1"/>
-        <v>6501212874</v>
-      </c>
+      <c r="F45" s="40"/>
       <c r="G45" s="39">
         <v>38791</v>
       </c>
@@ -16665,17 +16346,10 @@
       <c r="C46" t="s">
         <v>583</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>Peter.Vargas@company.com</v>
-      </c>
       <c r="E46" t="s">
         <v>585</v>
       </c>
-      <c r="F46" s="41">
-        <f t="shared" si="1"/>
-        <v>6501212004</v>
-      </c>
+      <c r="F46" s="40"/>
       <c r="G46" s="39">
         <v>38907</v>
       </c>
@@ -16699,17 +16373,10 @@
       <c r="C47" t="s">
         <v>586</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>John.Russell@company.com</v>
-      </c>
       <c r="E47" t="s">
         <v>588</v>
       </c>
-      <c r="F47" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344429268</v>
-      </c>
+      <c r="F47" s="40"/>
       <c r="G47" s="39">
         <v>38261</v>
       </c>
@@ -16733,17 +16400,10 @@
       <c r="C48" t="s">
         <v>591</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>Karen.Partners@company.com</v>
-      </c>
       <c r="E48" t="s">
         <v>593</v>
       </c>
-      <c r="F48" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344467268</v>
-      </c>
+      <c r="F48" s="40"/>
       <c r="G48" s="39">
         <v>38357</v>
       </c>
@@ -16767,17 +16427,10 @@
       <c r="C49" t="s">
         <v>595</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>Alberto.Errazuriz@company.com</v>
-      </c>
       <c r="E49" t="s">
         <v>597</v>
       </c>
-      <c r="F49" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344429278</v>
-      </c>
+      <c r="F49" s="40"/>
       <c r="G49" s="39">
         <v>38421</v>
       </c>
@@ -16801,17 +16454,10 @@
       <c r="C50" t="s">
         <v>599</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>Gerald.Cambrault@company.com</v>
-      </c>
       <c r="E50" t="s">
         <v>601</v>
       </c>
-      <c r="F50" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344619268</v>
-      </c>
+      <c r="F50" s="40"/>
       <c r="G50" s="39">
         <v>39370</v>
       </c>
@@ -16835,17 +16481,10 @@
       <c r="C51" t="s">
         <v>603</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>Eleni.Zlotkey@company.com</v>
-      </c>
       <c r="E51" t="s">
         <v>605</v>
       </c>
-      <c r="F51" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344429018</v>
-      </c>
+      <c r="F51" s="40"/>
       <c r="G51" s="39">
         <v>39476</v>
       </c>
@@ -16869,17 +16508,10 @@
       <c r="C52" t="s">
         <v>606</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>Peter.Tucker@company.com</v>
-      </c>
       <c r="E52" t="s">
         <v>608</v>
       </c>
-      <c r="F52" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344129268</v>
-      </c>
+      <c r="F52" s="40"/>
       <c r="G52" s="39">
         <v>38382</v>
       </c>
@@ -16903,17 +16535,10 @@
       <c r="C53" t="s">
         <v>610</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>David.Bernstein@company.com</v>
-      </c>
       <c r="E53" t="s">
         <v>612</v>
       </c>
-      <c r="F53" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344345268</v>
-      </c>
+      <c r="F53" s="40"/>
       <c r="G53" s="39">
         <v>38435</v>
       </c>
@@ -16937,17 +16562,10 @@
       <c r="C54" t="s">
         <v>613</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>Peter.Hall@company.com</v>
-      </c>
       <c r="E54" t="s">
         <v>615</v>
       </c>
-      <c r="F54" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344478968</v>
-      </c>
+      <c r="F54" s="40"/>
       <c r="G54" s="39">
         <v>38584</v>
       </c>
@@ -16971,17 +16589,10 @@
       <c r="C55" t="s">
         <v>617</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>Christopher.Olsen@company.com</v>
-      </c>
       <c r="E55" t="s">
         <v>619</v>
       </c>
-      <c r="F55" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344498718</v>
-      </c>
+      <c r="F55" s="40"/>
       <c r="G55" s="39">
         <v>38806</v>
       </c>
@@ -17005,17 +16616,10 @@
       <c r="C56" t="s">
         <v>599</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>Nanette.Cambrault@company.com</v>
-      </c>
       <c r="E56" t="s">
         <v>622</v>
       </c>
-      <c r="F56" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344987668</v>
-      </c>
+      <c r="F56" s="40"/>
       <c r="G56" s="39">
         <v>39060</v>
       </c>
@@ -17039,17 +16643,10 @@
       <c r="C57" t="s">
         <v>624</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>Oliver.Tuvault@company.com</v>
-      </c>
       <c r="E57" t="s">
         <v>626</v>
       </c>
-      <c r="F57" s="41">
-        <f t="shared" si="1"/>
-        <v>11441344486508</v>
-      </c>
+      <c r="F57" s="40"/>
       <c r="G57" s="39">
         <v>39409</v>
       </c>
@@ -17073,17 +16670,10 @@
       <c r="C58" t="s">
         <v>398</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>Janette.King@company.com</v>
-      </c>
       <c r="E58" t="s">
         <v>629</v>
       </c>
-      <c r="F58" s="41">
-        <f t="shared" si="1"/>
-        <v>11441345429268</v>
-      </c>
+      <c r="F58" s="40"/>
       <c r="G58" s="39">
         <v>38016</v>
       </c>
@@ -17107,17 +16697,10 @@
       <c r="C59" t="s">
         <v>631</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>Patrick.Sully@company.com</v>
-      </c>
       <c r="E59" t="s">
         <v>633</v>
       </c>
-      <c r="F59" s="41">
-        <f t="shared" si="1"/>
-        <v>11441345929268</v>
-      </c>
+      <c r="F59" s="40"/>
       <c r="G59" s="39">
         <v>38050</v>
       </c>
@@ -17141,17 +16724,10 @@
       <c r="C60" t="s">
         <v>635</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>Allan.McEwen@company.com</v>
-      </c>
       <c r="E60" t="s">
         <v>637</v>
       </c>
-      <c r="F60" s="41">
-        <f t="shared" si="1"/>
-        <v>11441345829268</v>
-      </c>
+      <c r="F60" s="40"/>
       <c r="G60" s="39">
         <v>38200</v>
       </c>
@@ -17175,17 +16751,10 @@
       <c r="C61" t="s">
         <v>639</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>Lindsey.Smith@company.com</v>
-      </c>
       <c r="E61" t="s">
         <v>641</v>
       </c>
-      <c r="F61" s="41">
-        <f t="shared" si="1"/>
-        <v>11441345729268</v>
-      </c>
+      <c r="F61" s="40"/>
       <c r="G61" s="39">
         <v>38421</v>
       </c>
@@ -17209,17 +16778,10 @@
       <c r="C62" t="s">
         <v>643</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>Louise.Doran@company.com</v>
-      </c>
       <c r="E62" t="s">
         <v>645</v>
       </c>
-      <c r="F62" s="41">
-        <f t="shared" si="1"/>
-        <v>11441345629268</v>
-      </c>
+      <c r="F62" s="40"/>
       <c r="G62" s="39">
         <v>38701</v>
       </c>
@@ -17243,17 +16805,10 @@
       <c r="C63" t="s">
         <v>647</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>Sarath.Sewall@company.com</v>
-      </c>
       <c r="E63" t="s">
         <v>649</v>
       </c>
-      <c r="F63" s="41">
-        <f t="shared" si="1"/>
-        <v>11441345529268</v>
-      </c>
+      <c r="F63" s="40"/>
       <c r="G63" s="39">
         <v>39024</v>
       </c>
@@ -17277,17 +16832,10 @@
       <c r="C64" t="s">
         <v>651</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>Clara.Vishney@company.com</v>
-      </c>
       <c r="E64" t="s">
         <v>653</v>
       </c>
-      <c r="F64" s="41">
-        <f t="shared" si="1"/>
-        <v>11441346129268</v>
-      </c>
+      <c r="F64" s="40"/>
       <c r="G64" s="39">
         <v>38667</v>
       </c>
@@ -17311,17 +16859,10 @@
       <c r="C65" t="s">
         <v>655</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>Danielle.Greene@company.com</v>
-      </c>
       <c r="E65" t="s">
         <v>657</v>
       </c>
-      <c r="F65" s="41">
-        <f t="shared" si="1"/>
-        <v>11441346229268</v>
-      </c>
+      <c r="F65" s="40"/>
       <c r="G65" s="39">
         <v>39160</v>
       </c>
@@ -17345,17 +16886,10 @@
       <c r="C66" t="s">
         <v>659</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>Mattea.Marvins@company.com</v>
-      </c>
       <c r="E66" t="s">
         <v>661</v>
       </c>
-      <c r="F66" s="41">
-        <f t="shared" si="1"/>
-        <v>11441346329268</v>
-      </c>
+      <c r="F66" s="40"/>
       <c r="G66" s="39">
         <v>39471</v>
       </c>
@@ -17379,17 +16913,10 @@
       <c r="C67" t="s">
         <v>662</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D108" si="2">CONCATENATE(B67,".",C67,$Q$2)</f>
-        <v>David.Lee@company.com</v>
-      </c>
       <c r="E67" t="s">
         <v>664</v>
       </c>
-      <c r="F67" s="41">
-        <f t="shared" ref="F67:F108" si="3">_xlfn.NUMBERVALUE(SUBSTITUTE(E67,".",""))</f>
-        <v>11441346529268</v>
-      </c>
+      <c r="F67" s="40"/>
       <c r="G67" s="39">
         <v>39501</v>
       </c>
@@ -17413,17 +16940,10 @@
       <c r="C68" t="s">
         <v>666</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="2"/>
-        <v>Sundar.Ande@company.com</v>
-      </c>
       <c r="E68" t="s">
         <v>668</v>
       </c>
-      <c r="F68" s="41">
-        <f t="shared" si="3"/>
-        <v>11441346629268</v>
-      </c>
+      <c r="F68" s="40"/>
       <c r="G68" s="39">
         <v>39531</v>
       </c>
@@ -17447,17 +16967,10 @@
       <c r="C69" t="s">
         <v>670</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="2"/>
-        <v>Amit.Banda@company.com</v>
-      </c>
       <c r="E69" t="s">
         <v>672</v>
       </c>
-      <c r="F69" s="41">
-        <f t="shared" si="3"/>
-        <v>11441346729268</v>
-      </c>
+      <c r="F69" s="40"/>
       <c r="G69" s="39">
         <v>39559</v>
       </c>
@@ -17481,17 +16994,10 @@
       <c r="C70" t="s">
         <v>674</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="2"/>
-        <v>Lisa.Ozer@company.com</v>
-      </c>
       <c r="E70" t="s">
         <v>676</v>
       </c>
-      <c r="F70" s="41">
-        <f t="shared" si="3"/>
-        <v>11441343929268</v>
-      </c>
+      <c r="F70" s="40"/>
       <c r="G70" s="39">
         <v>38422</v>
       </c>
@@ -17515,17 +17021,10 @@
       <c r="C71" t="s">
         <v>678</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="2"/>
-        <v>Harrison.Bloom@company.com</v>
-      </c>
       <c r="E71" t="s">
         <v>680</v>
       </c>
-      <c r="F71" s="41">
-        <f t="shared" si="3"/>
-        <v>11441343829268</v>
-      </c>
+      <c r="F71" s="40"/>
       <c r="G71" s="39">
         <v>38799</v>
       </c>
@@ -17549,17 +17048,10 @@
       <c r="C72" t="s">
         <v>682</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="2"/>
-        <v>Tayler.Fox@company.com</v>
-      </c>
       <c r="E72" t="s">
         <v>684</v>
       </c>
-      <c r="F72" s="41">
-        <f t="shared" si="3"/>
-        <v>11441343729268</v>
-      </c>
+      <c r="F72" s="40"/>
       <c r="G72" s="39">
         <v>38741</v>
       </c>
@@ -17583,17 +17075,10 @@
       <c r="C73" t="s">
         <v>639</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="2"/>
-        <v>William.Smith@company.com</v>
-      </c>
       <c r="E73" t="s">
         <v>687</v>
       </c>
-      <c r="F73" s="41">
-        <f t="shared" si="3"/>
-        <v>11441343629268</v>
-      </c>
+      <c r="F73" s="40"/>
       <c r="G73" s="39">
         <v>39136</v>
       </c>
@@ -17617,17 +17102,10 @@
       <c r="C74" t="s">
         <v>689</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="2"/>
-        <v>Elizabeth.Bates@company.com</v>
-      </c>
       <c r="E74" t="s">
         <v>691</v>
       </c>
-      <c r="F74" s="41">
-        <f t="shared" si="3"/>
-        <v>11441343529268</v>
-      </c>
+      <c r="F74" s="40"/>
       <c r="G74" s="39">
         <v>39165</v>
       </c>
@@ -17651,17 +17129,10 @@
       <c r="C75" t="s">
         <v>190</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="2"/>
-        <v>Sundita.Kumar@company.com</v>
-      </c>
       <c r="E75" t="s">
         <v>694</v>
       </c>
-      <c r="F75" s="41">
-        <f t="shared" si="3"/>
-        <v>11441343329268</v>
-      </c>
+      <c r="F75" s="40"/>
       <c r="G75" s="39">
         <v>39559</v>
       </c>
@@ -17685,17 +17156,10 @@
       <c r="C76" t="s">
         <v>696</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="2"/>
-        <v>Ellen.Abel@company.com</v>
-      </c>
       <c r="E76" t="s">
         <v>698</v>
       </c>
-      <c r="F76" s="41">
-        <f t="shared" si="3"/>
-        <v>11441644429267</v>
-      </c>
+      <c r="F76" s="40"/>
       <c r="G76" s="39">
         <v>38118</v>
       </c>
@@ -17719,17 +17183,10 @@
       <c r="C77" t="s">
         <v>700</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="2"/>
-        <v>Alyssa.Hutton@company.com</v>
-      </c>
       <c r="E77" t="s">
         <v>702</v>
       </c>
-      <c r="F77" s="41">
-        <f t="shared" si="3"/>
-        <v>11441644429266</v>
-      </c>
+      <c r="F77" s="40"/>
       <c r="G77" s="39">
         <v>38430</v>
       </c>
@@ -17753,17 +17210,10 @@
       <c r="C78" t="s">
         <v>704</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="2"/>
-        <v>Jonathon.Taylor@company.com</v>
-      </c>
       <c r="E78" t="s">
         <v>706</v>
       </c>
-      <c r="F78" s="41">
-        <f t="shared" si="3"/>
-        <v>11441644429265</v>
-      </c>
+      <c r="F78" s="40"/>
       <c r="G78" s="39">
         <v>38800</v>
       </c>
@@ -17787,17 +17237,10 @@
       <c r="C79" t="s">
         <v>708</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="2"/>
-        <v>Jack.Livingston@company.com</v>
-      </c>
       <c r="E79" t="s">
         <v>710</v>
       </c>
-      <c r="F79" s="41">
-        <f t="shared" si="3"/>
-        <v>11441644429264</v>
-      </c>
+      <c r="F79" s="40"/>
       <c r="G79" s="39">
         <v>38830</v>
       </c>
@@ -17821,17 +17264,10 @@
       <c r="C80" t="s">
         <v>712</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="2"/>
-        <v>Kimberely.Grant@company.com</v>
-      </c>
       <c r="E80" t="s">
         <v>714</v>
       </c>
-      <c r="F80" s="41">
-        <f t="shared" si="3"/>
-        <v>11441644429263</v>
-      </c>
+      <c r="F80" s="40"/>
       <c r="G80" s="39">
         <v>39226</v>
       </c>
@@ -17855,17 +17291,10 @@
       <c r="C81" t="s">
         <v>716</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="2"/>
-        <v>Charles.Johnson@company.com</v>
-      </c>
       <c r="E81" t="s">
         <v>718</v>
       </c>
-      <c r="F81" s="41">
-        <f t="shared" si="3"/>
-        <v>11441644429262</v>
-      </c>
+      <c r="F81" s="40"/>
       <c r="G81" s="39">
         <v>39451</v>
       </c>
@@ -17889,17 +17318,10 @@
       <c r="C82" t="s">
         <v>704</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="2"/>
-        <v>Winston.Taylor@company.com</v>
-      </c>
       <c r="E82" t="s">
         <v>721</v>
       </c>
-      <c r="F82" s="41">
-        <f t="shared" si="3"/>
-        <v>6505079876</v>
-      </c>
+      <c r="F82" s="40"/>
       <c r="G82" s="39">
         <v>38741</v>
       </c>
@@ -17923,17 +17345,10 @@
       <c r="C83" t="s">
         <v>724</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="2"/>
-        <v>Jean.Fleaur@company.com</v>
-      </c>
       <c r="E83" t="s">
         <v>726</v>
       </c>
-      <c r="F83" s="41">
-        <f t="shared" si="3"/>
-        <v>6505079877</v>
-      </c>
+      <c r="F83" s="40"/>
       <c r="G83" s="39">
         <v>38771</v>
       </c>
@@ -17957,17 +17372,10 @@
       <c r="C84" t="s">
         <v>728</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="2"/>
-        <v>Martha.Sullivan@company.com</v>
-      </c>
       <c r="E84" t="s">
         <v>730</v>
       </c>
-      <c r="F84" s="41">
-        <f t="shared" si="3"/>
-        <v>6505079878</v>
-      </c>
+      <c r="F84" s="40"/>
       <c r="G84" s="39">
         <v>39254</v>
       </c>
@@ -17991,17 +17399,10 @@
       <c r="C85" t="s">
         <v>732</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="2"/>
-        <v>Girard.Geoni@company.com</v>
-      </c>
       <c r="E85" t="s">
         <v>734</v>
       </c>
-      <c r="F85" s="41">
-        <f t="shared" si="3"/>
-        <v>6505079879</v>
-      </c>
+      <c r="F85" s="40"/>
       <c r="G85" s="39">
         <v>39481</v>
       </c>
@@ -18025,17 +17426,10 @@
       <c r="C86" t="s">
         <v>736</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="2"/>
-        <v>Nandita.Sarchand@company.com</v>
-      </c>
       <c r="E86" t="s">
         <v>738</v>
       </c>
-      <c r="F86" s="41">
-        <f t="shared" si="3"/>
-        <v>6505091876</v>
-      </c>
+      <c r="F86" s="40"/>
       <c r="G86" s="39">
         <v>38013</v>
       </c>
@@ -18059,17 +17453,10 @@
       <c r="C87" t="s">
         <v>740</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="2"/>
-        <v>Alexis.Bull@company.com</v>
-      </c>
       <c r="E87" t="s">
         <v>742</v>
       </c>
-      <c r="F87" s="41">
-        <f t="shared" si="3"/>
-        <v>6505092876</v>
-      </c>
+      <c r="F87" s="40"/>
       <c r="G87" s="39">
         <v>38403</v>
       </c>
@@ -18093,17 +17480,10 @@
       <c r="C88" t="s">
         <v>743</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="2"/>
-        <v>Julia.Dellinger@company.com</v>
-      </c>
       <c r="E88" t="s">
         <v>745</v>
       </c>
-      <c r="F88" s="41">
-        <f t="shared" si="3"/>
-        <v>6505093876</v>
-      </c>
+      <c r="F88" s="40"/>
       <c r="G88" s="39">
         <v>38892</v>
       </c>
@@ -18127,17 +17507,10 @@
       <c r="C89" t="s">
         <v>747</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="2"/>
-        <v>Anthony.Cabrio@company.com</v>
-      </c>
       <c r="E89" t="s">
         <v>749</v>
       </c>
-      <c r="F89" s="41">
-        <f t="shared" si="3"/>
-        <v>6505094876</v>
-      </c>
+      <c r="F89" s="40"/>
       <c r="G89" s="39">
         <v>39120</v>
       </c>
@@ -18161,17 +17534,10 @@
       <c r="C90" t="s">
         <v>751</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="2"/>
-        <v>Kelly.Chung@company.com</v>
-      </c>
       <c r="E90" t="s">
         <v>753</v>
       </c>
-      <c r="F90" s="41">
-        <f t="shared" si="3"/>
-        <v>6505051876</v>
-      </c>
+      <c r="F90" s="40"/>
       <c r="G90" s="39">
         <v>38517</v>
       </c>
@@ -18195,17 +17561,10 @@
       <c r="C91" t="s">
         <v>755</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="2"/>
-        <v>Jennifer.Dilly@company.com</v>
-      </c>
       <c r="E91" t="s">
         <v>757</v>
       </c>
-      <c r="F91" s="41">
-        <f t="shared" si="3"/>
-        <v>6505052876</v>
-      </c>
+      <c r="F91" s="40"/>
       <c r="G91" s="39">
         <v>38577</v>
       </c>
@@ -18229,17 +17588,10 @@
       <c r="C92" t="s">
         <v>759</v>
       </c>
-      <c r="D92" t="str">
-        <f t="shared" si="2"/>
-        <v>Timothy.Gates@company.com</v>
-      </c>
       <c r="E92" t="s">
         <v>761</v>
       </c>
-      <c r="F92" s="41">
-        <f t="shared" si="3"/>
-        <v>6505053876</v>
-      </c>
+      <c r="F92" s="40"/>
       <c r="G92" s="39">
         <v>38909</v>
       </c>
@@ -18263,17 +17615,10 @@
       <c r="C93" t="s">
         <v>762</v>
       </c>
-      <c r="D93" t="str">
-        <f t="shared" si="2"/>
-        <v>Randall.Perkins@company.com</v>
-      </c>
       <c r="E93" t="s">
         <v>764</v>
       </c>
-      <c r="F93" s="41">
-        <f t="shared" si="3"/>
-        <v>6505054876</v>
-      </c>
+      <c r="F93" s="40"/>
       <c r="G93" s="39">
         <v>39435</v>
       </c>
@@ -18297,17 +17642,10 @@
       <c r="C94" t="s">
         <v>766</v>
       </c>
-      <c r="D94" t="str">
-        <f t="shared" si="2"/>
-        <v>Sarah.Bell@company.com</v>
-      </c>
       <c r="E94" t="s">
         <v>768</v>
       </c>
-      <c r="F94" s="41">
-        <f t="shared" si="3"/>
-        <v>6505011876</v>
-      </c>
+      <c r="F94" s="40"/>
       <c r="G94" s="39">
         <v>38021</v>
       </c>
@@ -18331,17 +17669,10 @@
       <c r="C95" t="s">
         <v>770</v>
       </c>
-      <c r="D95" t="str">
-        <f t="shared" si="2"/>
-        <v>Britney.Everett@company.com</v>
-      </c>
       <c r="E95" t="s">
         <v>772</v>
       </c>
-      <c r="F95" s="41">
-        <f t="shared" si="3"/>
-        <v>6505012876</v>
-      </c>
+      <c r="F95" s="40"/>
       <c r="G95" s="39">
         <v>38414</v>
       </c>
@@ -18365,17 +17696,10 @@
       <c r="C96" t="s">
         <v>774</v>
       </c>
-      <c r="D96" t="str">
-        <f t="shared" si="2"/>
-        <v>Samuel.McCain@company.com</v>
-      </c>
       <c r="E96" t="s">
         <v>776</v>
       </c>
-      <c r="F96" s="41">
-        <f t="shared" si="3"/>
-        <v>6505013876</v>
-      </c>
+      <c r="F96" s="40"/>
       <c r="G96" s="39">
         <v>38899</v>
       </c>
@@ -18399,17 +17723,10 @@
       <c r="C97" t="s">
         <v>778</v>
       </c>
-      <c r="D97" t="str">
-        <f t="shared" si="2"/>
-        <v>Vance.Jones@company.com</v>
-      </c>
       <c r="E97" t="s">
         <v>780</v>
       </c>
-      <c r="F97" s="41">
-        <f t="shared" si="3"/>
-        <v>6505014876</v>
-      </c>
+      <c r="F97" s="40"/>
       <c r="G97" s="39">
         <v>39158</v>
       </c>
@@ -18433,17 +17750,10 @@
       <c r="C98" t="s">
         <v>782</v>
       </c>
-      <c r="D98" t="str">
-        <f t="shared" si="2"/>
-        <v>Alana.Walsh@company.com</v>
-      </c>
       <c r="E98" t="s">
         <v>784</v>
       </c>
-      <c r="F98" s="41">
-        <f t="shared" si="3"/>
-        <v>6505079811</v>
-      </c>
+      <c r="F98" s="40"/>
       <c r="G98" s="39">
         <v>38831</v>
       </c>
@@ -18467,17 +17777,10 @@
       <c r="C99" t="s">
         <v>785</v>
       </c>
-      <c r="D99" t="str">
-        <f t="shared" si="2"/>
-        <v>Kevin.Feeney@company.com</v>
-      </c>
       <c r="E99" t="s">
         <v>787</v>
       </c>
-      <c r="F99" s="41">
-        <f t="shared" si="3"/>
-        <v>6505079822</v>
-      </c>
+      <c r="F99" s="40"/>
       <c r="G99" s="39">
         <v>38860</v>
       </c>
@@ -18501,17 +17804,10 @@
       <c r="C100" t="s">
         <v>789</v>
       </c>
-      <c r="D100" t="str">
-        <f t="shared" si="2"/>
-        <v>Donald.OConnell@company.com</v>
-      </c>
       <c r="E100" t="s">
         <v>791</v>
       </c>
-      <c r="F100" s="41">
-        <f t="shared" si="3"/>
-        <v>6505079833</v>
-      </c>
+      <c r="F100" s="40"/>
       <c r="G100" s="39">
         <v>39254</v>
       </c>
@@ -18535,17 +17831,10 @@
       <c r="C101" t="s">
         <v>712</v>
       </c>
-      <c r="D101" t="str">
-        <f t="shared" si="2"/>
-        <v>Douglas.Grant@company.com</v>
-      </c>
       <c r="E101" t="s">
         <v>794</v>
       </c>
-      <c r="F101" s="41">
-        <f t="shared" si="3"/>
-        <v>6505079844</v>
-      </c>
+      <c r="F101" s="40"/>
       <c r="G101" s="39">
         <v>39460</v>
       </c>
@@ -18569,17 +17858,10 @@
       <c r="C102" t="s">
         <v>795</v>
       </c>
-      <c r="D102" t="str">
-        <f t="shared" si="2"/>
-        <v>Jennifer.Whalen@company.com</v>
-      </c>
       <c r="E102" t="s">
         <v>797</v>
       </c>
-      <c r="F102" s="41">
-        <f t="shared" si="3"/>
-        <v>5151234444</v>
-      </c>
+      <c r="F102" s="40"/>
       <c r="G102" s="39">
         <v>37881</v>
       </c>
@@ -18603,17 +17885,10 @@
       <c r="C103" t="s">
         <v>800</v>
       </c>
-      <c r="D103" t="str">
-        <f t="shared" si="2"/>
-        <v>Michael.Hartstein@company.com</v>
-      </c>
       <c r="E103" t="s">
         <v>802</v>
       </c>
-      <c r="F103" s="41">
-        <f t="shared" si="3"/>
-        <v>5151235555</v>
-      </c>
+      <c r="F103" s="40"/>
       <c r="G103" s="39">
         <v>38034</v>
       </c>
@@ -18637,17 +17912,10 @@
       <c r="C104" t="s">
         <v>806</v>
       </c>
-      <c r="D104" t="str">
-        <f t="shared" si="2"/>
-        <v>Pat.Fay@company.com</v>
-      </c>
       <c r="E104" t="s">
         <v>808</v>
       </c>
-      <c r="F104" s="41">
-        <f t="shared" si="3"/>
-        <v>6031236666</v>
-      </c>
+      <c r="F104" s="40"/>
       <c r="G104" s="39">
         <v>38581</v>
       </c>
@@ -18671,17 +17939,10 @@
       <c r="C105" t="s">
         <v>811</v>
       </c>
-      <c r="D105" t="str">
-        <f t="shared" si="2"/>
-        <v>Susan.Mavris@company.com</v>
-      </c>
       <c r="E105" t="s">
         <v>813</v>
       </c>
-      <c r="F105" s="41">
-        <f t="shared" si="3"/>
-        <v>5151237777</v>
-      </c>
+      <c r="F105" s="40"/>
       <c r="G105" s="39">
         <v>37414</v>
       </c>
@@ -18705,17 +17966,10 @@
       <c r="C106" t="s">
         <v>817</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="2"/>
-        <v>Hermann.Baer@company.com</v>
-      </c>
       <c r="E106" t="s">
         <v>819</v>
       </c>
-      <c r="F106" s="41">
-        <f t="shared" si="3"/>
-        <v>5151238888</v>
-      </c>
+      <c r="F106" s="40"/>
       <c r="G106" s="39">
         <v>37414</v>
       </c>
@@ -18739,17 +17993,10 @@
       <c r="C107" t="s">
         <v>823</v>
       </c>
-      <c r="D107" t="str">
-        <f t="shared" si="2"/>
-        <v>Shelley.Higgins@company.com</v>
-      </c>
       <c r="E107" t="s">
         <v>825</v>
       </c>
-      <c r="F107" s="41">
-        <f t="shared" si="3"/>
-        <v>5151238080</v>
-      </c>
+      <c r="F107" s="40"/>
       <c r="G107" s="39">
         <v>37414</v>
       </c>
@@ -18773,17 +18020,10 @@
       <c r="C108" t="s">
         <v>827</v>
       </c>
-      <c r="D108" t="str">
-        <f t="shared" si="2"/>
-        <v>William.Gietz@company.com</v>
-      </c>
       <c r="E108" t="s">
         <v>829</v>
       </c>
-      <c r="F108" s="41">
-        <f t="shared" si="3"/>
-        <v>5151238181</v>
-      </c>
+      <c r="F108" s="40"/>
       <c r="G108" s="39">
         <v>37414</v>
       </c>
@@ -18851,7 +18091,7 @@
       </c>
       <c r="B3" s="35">
         <f ca="1">NOW()</f>
-        <v>45015.257744097224</v>
+        <v>45015.840320949072</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>338</v>
@@ -18899,7 +18139,7 @@
       </c>
       <c r="B7" s="34">
         <f ca="1">HOUR(B3)</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>346</v>
@@ -18911,7 +18151,7 @@
       </c>
       <c r="B8" s="34">
         <f ca="1">MINUTE(B3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>348</v>
@@ -18923,7 +18163,7 @@
       </c>
       <c r="B9" s="34">
         <f ca="1">SECOND(B3)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>350</v>
@@ -19049,7 +18289,7 @@
       </c>
       <c r="B19" s="38">
         <f ca="1">TIME(B7,B8,B9)</f>
-        <v>0.25774305555555554</v>
+        <v>0.84032407407407417</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>372</v>

--- a/excel-beginner-tutorial.xlsx
+++ b/excel-beginner-tutorial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2673B57F-3C4C-46E9-B9B1-EEBF6212F491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC68DF3-F383-4671-B6EE-E2B408687E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="15" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3225,7 +3225,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3277,7 +3277,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5769,7 +5768,7 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9207,7 +9206,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9550,7 +9549,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14747,9 +14746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBF5D9-8FB7-42E4-B0A4-B8AC86EC7EE1}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15207,9 +15204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E2969B-5042-435B-96EE-9A63113DCFD9}">
   <dimension ref="A1:AH9097"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15277,7 +15272,7 @@
       <c r="N1" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="4" t="s">
         <v>967</v>
       </c>
       <c r="V1" s="4"/>
@@ -15335,7 +15330,7 @@
       </c>
       <c r="O2" s="39">
         <f ca="1">TODAY()</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="V2" s="4"/>
     </row>
@@ -15421,7 +15416,7 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>22.21</v>
+        <v>22.22</v>
       </c>
       <c r="V4" s="4"/>
     </row>
@@ -15550,7 +15545,7 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.760000000000002</v>
+        <v>17.77</v>
       </c>
       <c r="V7" s="4"/>
     </row>
@@ -15593,7 +15588,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="3"/>
-        <v>17.149999999999999</v>
+        <v>17.16</v>
       </c>
       <c r="V8" s="4"/>
     </row>
@@ -15722,7 +15717,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="3"/>
-        <v>20.62</v>
+        <v>20.63</v>
       </c>
       <c r="V11" s="4"/>
     </row>
@@ -15851,7 +15846,7 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>17.059999999999999</v>
+        <v>17.07</v>
       </c>
       <c r="V14" s="4"/>
     </row>
@@ -15894,7 +15889,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>15.31</v>
+        <v>15.32</v>
       </c>
       <c r="V15" s="4"/>
     </row>
@@ -15937,7 +15932,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>20.309999999999999</v>
+        <v>20.32</v>
       </c>
       <c r="V16" s="4"/>
     </row>
@@ -16064,7 +16059,7 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>17.68</v>
+        <v>17.690000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -16232,7 +16227,7 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="3"/>
-        <v>17.97</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16274,7 +16269,7 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="3"/>
-        <v>19.91</v>
+        <v>19.920000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16316,7 +16311,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="3"/>
-        <v>17.47</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16358,7 +16353,7 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="3"/>
-        <v>15.37</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16652,7 +16647,7 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="3"/>
-        <v>18.12</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -16694,7 +16689,7 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="3"/>
-        <v>15.97</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -16736,7 +16731,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="3"/>
-        <v>18.79</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -16778,7 +16773,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="3"/>
-        <v>16.59</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -16988,7 +16983,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="3"/>
-        <v>17.13</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -17030,7 +17025,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="3"/>
-        <v>16.98</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -17072,7 +17067,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="3"/>
-        <v>19.45</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -17660,7 +17655,7 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="3"/>
-        <v>15.35</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -17744,7 +17739,7 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="3"/>
-        <v>19.07</v>
+        <v>19.079999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -17786,7 +17781,7 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="3"/>
-        <v>18.66</v>
+        <v>18.670000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -18038,7 +18033,7 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="3"/>
-        <v>15.18</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -18080,7 +18075,7 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L108" ca="1" si="7">ROUND(YEARFRAC(G67,$O$2),2)</f>
-        <v>15.1</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -18206,7 +18201,7 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="7"/>
-        <v>18.05</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -18290,7 +18285,7 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="7"/>
-        <v>17.18</v>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -18332,7 +18327,7 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="7"/>
-        <v>16.100000000000001</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -18710,7 +18705,7 @@
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="7"/>
-        <v>17.18</v>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -18752,7 +18747,7 @@
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="7"/>
-        <v>17.100000000000001</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -19046,7 +19041,7 @@
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="7"/>
-        <v>17.79</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -19382,7 +19377,7 @@
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="7"/>
-        <v>16.93</v>
+        <v>16.940000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -19424,7 +19419,7 @@
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="7"/>
-        <v>16.850000000000001</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -19508,7 +19503,7 @@
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="7"/>
-        <v>15.21</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -19676,7 +19671,7 @@
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="7"/>
-        <v>20.81</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -19718,7 +19713,7 @@
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="7"/>
-        <v>20.81</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -19760,7 +19755,7 @@
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="7"/>
-        <v>20.81</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -19802,7 +19797,7 @@
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="7"/>
-        <v>20.81</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="9097" spans="10:10" x14ac:dyDescent="0.25">
@@ -19847,7 +19842,7 @@
       </c>
       <c r="B2" s="33">
         <f ca="1">TODAY()</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>335</v>
@@ -19859,7 +19854,7 @@
       </c>
       <c r="B3" s="35">
         <f ca="1">NOW()</f>
-        <v>45015.88874490741</v>
+        <v>45016.260167824075</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>337</v>
@@ -19895,7 +19890,7 @@
       </c>
       <c r="B6" s="34">
         <f ca="1">DAY(B2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>343</v>
@@ -19907,7 +19902,7 @@
       </c>
       <c r="B7" s="34">
         <f ca="1">HOUR(B3)</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>345</v>
@@ -19919,7 +19914,7 @@
       </c>
       <c r="B8" s="34">
         <f ca="1">MINUTE(B3)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>347</v>
@@ -19931,7 +19926,7 @@
       </c>
       <c r="B9" s="34">
         <f ca="1">SECOND(B3)</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>349</v>
@@ -19997,7 +19992,7 @@
       </c>
       <c r="B14" s="33">
         <f ca="1">WORKDAY(B2,B6)</f>
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>361</v>
@@ -20009,7 +20004,7 @@
       </c>
       <c r="B15" s="33">
         <f ca="1">WORKDAY.INTL(B2,B6,1)</f>
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>363</v>
@@ -20021,7 +20016,7 @@
       </c>
       <c r="B16" s="34">
         <f ca="1">NETWORKDAYS(B2,B10)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>365</v>
@@ -20033,7 +20028,7 @@
       </c>
       <c r="B17" s="34">
         <f ca="1">NETWORKDAYS.INTL(B2,B10,1)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>367</v>
@@ -20045,7 +20040,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">DATE(B4,B5,B6)</f>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>369</v>
@@ -20057,7 +20052,7 @@
       </c>
       <c r="B19" s="38">
         <f ca="1">TIME(B7,B8,B9)</f>
-        <v>0.88874999999999993</v>
+        <v>0.26016203703703705</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>371</v>
@@ -20069,7 +20064,7 @@
       </c>
       <c r="B20" s="34">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>373</v>
@@ -20081,7 +20076,7 @@
       </c>
       <c r="B21" s="34">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>373</v>
@@ -20093,7 +20088,7 @@
       </c>
       <c r="B22" s="34">
         <f ca="1">_xlfn.DAYS(B10,B2)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>376</v>
@@ -20117,7 +20112,7 @@
       </c>
       <c r="B24" s="34">
         <f ca="1">DATEDIF(B2,B11,"D")</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>380</v>

--- a/excel-beginner-tutorial.xlsx
+++ b/excel-beginner-tutorial.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B582216-26E9-4BE9-9870-FC577B00FED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B2ED4-3B62-4467-A4E1-40C449E45C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
     <sheet name="DataTypes" sheetId="14" r:id="rId2"/>
-    <sheet name="Logical and Condi State." sheetId="15" r:id="rId3"/>
-    <sheet name="Formatting" sheetId="2" r:id="rId4"/>
-    <sheet name="Understanding Formula" sheetId="16" r:id="rId5"/>
-    <sheet name="Text" sheetId="4" r:id="rId6"/>
-    <sheet name="Text (2)" sheetId="17" r:id="rId7"/>
-    <sheet name="Date&amp;Time" sheetId="18" r:id="rId8"/>
-    <sheet name="Table" sheetId="3" r:id="rId9"/>
-    <sheet name="AbsoluteAndRelative" sheetId="9" r:id="rId10"/>
-    <sheet name="Vlookup simple" sheetId="11" r:id="rId11"/>
-    <sheet name="Vlookup 1" sheetId="10" r:id="rId12"/>
-    <sheet name="Vlookup 2" sheetId="8" r:id="rId13"/>
-    <sheet name="Vlookup Scenario" sheetId="13" r:id="rId14"/>
-    <sheet name="Shortcut Keys" sheetId="12" r:id="rId15"/>
-    <sheet name="Pivot" sheetId="5" r:id="rId16"/>
+    <sheet name="Arithmetic" sheetId="19" r:id="rId3"/>
+    <sheet name="Logical and Condi State." sheetId="15" r:id="rId4"/>
+    <sheet name="Formatting" sheetId="2" r:id="rId5"/>
+    <sheet name="Understanding Formula" sheetId="16" r:id="rId6"/>
+    <sheet name="Text" sheetId="4" r:id="rId7"/>
+    <sheet name="Text (2)" sheetId="17" r:id="rId8"/>
+    <sheet name="Date&amp;Time" sheetId="18" r:id="rId9"/>
+    <sheet name="Table" sheetId="3" r:id="rId10"/>
+    <sheet name="AbsoluteAndRelative" sheetId="9" r:id="rId11"/>
+    <sheet name="Vlookup simple" sheetId="11" r:id="rId12"/>
+    <sheet name="Vlookup 1" sheetId="10" r:id="rId13"/>
+    <sheet name="Vlookup 2" sheetId="8" r:id="rId14"/>
+    <sheet name="Vlookup Scenario" sheetId="13" r:id="rId15"/>
+    <sheet name="Shortcut Keys" sheetId="12" r:id="rId16"/>
+    <sheet name="Pivot" sheetId="5" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formatting!$A$1:$J$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Text!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Text (2)'!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Formatting!$A$1:$J$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Text!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Text (2)'!$A$1:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="991">
   <si>
     <t>Reg No.</t>
   </si>
@@ -2997,6 +2998,63 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Subtraction</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Multiplication</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>=2+3</t>
+  </si>
+  <si>
+    <t>=2*3</t>
+  </si>
+  <si>
+    <t>=3-2</t>
+  </si>
+  <si>
+    <t>=4/2</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>=2^3</t>
+  </si>
+  <si>
+    <t>=(3+2) * 10</t>
   </si>
 </sst>
 </file>
@@ -3121,7 +3179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3235,13 +3293,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3269,7 +3378,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3289,9 +3397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFill="1"/>
@@ -3301,7 +3406,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3309,30 +3424,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C317EB46-FD19-411F-B09C-9673D28024EA}"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3370,6 +3461,30 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4093,10 +4208,263 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Intro To Formula">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48B463B-02BA-4AC2-9A91-33CF17E3A287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3219449"/>
+          <a:ext cx="5619750" cy="1181101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+            <a:t>Note:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" baseline="0"/>
+            <a:t>          As you enter any value in a cell, Excel will automatically assignes its datatype by default. In most the cases this will be right. In some cases it may not be incorrect, In such cases you can change it manually using format cells option.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1100" b="0" baseline="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" baseline="0"/>
+            <a:t>         Datatypes is very essential as it determines what formula or calcuation to be performed.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" baseline="0"/>
+            <a:t>          </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Intro To Formula">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480A6212-4371-4F1D-BAC3-B2BEDBD9DDF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5486400" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+            <a:t>Spreadsheet as a Calculator:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>	You can perform Arithmetic operation like addition, subtraction, multiplication, division etc. Here are the below examples for the same</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Intro To Formula">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC6FD04-B850-EDB2-F83E-2B98EB64D847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="5581650" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>You can also perform some advanced arithmetic operations using caret ^ and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parenthesis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> ()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4179,7 +4547,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Formulas in Excel start with an equal sign (=) and can be composed of various functions, mathematical operators, and cell references.</a:t>
+            <a:t>Formulas in Excel always start with an equal sign (=) and can be composed of various functions, mathematical operators, and cell references.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
@@ -4493,7 +4861,7 @@
                 <a:noFill/>
               </a:ln>
             </a:rPr>
-            <a:t> case of IF formula you can pass up to 3 arguments separate by comma and if you closly look at the last two arguments are enclosed in square brackets unlike the 1st arguments. This is because these two arguments are optional arguments i.e. This formula works even if you do not pass the last two arguments.</a:t>
+            <a:t> case of IF formula you can pass upto 3 arguments separate by comma and if you closly look at the last two arguments are enclosed in square brackets unlike the 1st arguments. This is because these two arguments are optional arguments i.e. This formula works even if you do not pass the last two arguments.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5760,7 +6128,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA3136B0-991C-4C00-B9FB-93E880F9AD6D}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA3136B0-991C-4C00-B9FB-93E880F9AD6D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department">
   <location ref="M6:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -5965,15 +6333,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A3AE790-48E9-4E13-B29C-114C98FAC30B}" name="Table1" displayName="Table1" ref="A1:H108" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A3AE790-48E9-4E13-B29C-114C98FAC30B}" name="Table1" displayName="Table1" ref="A1:H108" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:H108" xr:uid="{9A3AE790-48E9-4E13-B29C-114C98FAC30B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BECAD2CE-1393-44A9-8CE9-39B3A0F88D6E}" name="EMPLOYEE_ID"/>
     <tableColumn id="2" xr3:uid="{A7EF8B05-7024-4946-880E-F8F6DD4B0ABF}" name="FIRST_NAME"/>
     <tableColumn id="3" xr3:uid="{9688D545-D88E-42BF-ABB2-6B65B7C15423}" name="LAST_NAME"/>
     <tableColumn id="4" xr3:uid="{3AF52D31-D97F-407D-9054-263069B10EF2}" name="EMAIL"/>
-    <tableColumn id="5" xr3:uid="{1F2E7991-8319-4BDD-8B60-CBB25D6AFD14}" name="PHONE_NUMBER" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{26ECB0B7-4835-4A6D-9707-FED4DD2CBA55}" name="HIRE_DATE" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1F2E7991-8319-4BDD-8B60-CBB25D6AFD14}" name="PHONE_NUMBER" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{26ECB0B7-4835-4A6D-9707-FED4DD2CBA55}" name="HIRE_DATE" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{4693B2CE-A29B-4B5E-94F0-EFA5E6B3F516}" name="SALARY"/>
     <tableColumn id="8" xr3:uid="{98DA6D6D-C4A3-4B5A-9438-A9F212BA1080}" name="DEPARTMENT"/>
   </tableColumns>
@@ -6280,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA1A12F-1E41-41A1-853B-53EC10CAE414}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -6339,6 +6707,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4979C08-6F67-4EBD-8816-064FDFF2B18B}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>86</v>
+      </c>
+      <c r="F3">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>53</v>
+      </c>
+      <c r="G4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>83</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>98</v>
+      </c>
+      <c r="G9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>93</v>
+      </c>
+      <c r="G12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>86</v>
+      </c>
+      <c r="D15">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>72</v>
+      </c>
+      <c r="G16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>76</v>
+      </c>
+      <c r="E17">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>88</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>92</v>
+      </c>
+      <c r="G19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <v>89</v>
+      </c>
+      <c r="F20">
+        <v>84</v>
+      </c>
+      <c r="G20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>57</v>
+      </c>
+      <c r="E22">
+        <v>88</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>53</v>
+      </c>
+      <c r="F23">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>48</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>85</v>
+      </c>
+      <c r="G25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>82</v>
+      </c>
+      <c r="D26">
+        <v>99</v>
+      </c>
+      <c r="E26">
+        <v>88</v>
+      </c>
+      <c r="F26">
+        <v>98</v>
+      </c>
+      <c r="G26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>73</v>
+      </c>
+      <c r="F27">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>95</v>
+      </c>
+      <c r="E28">
+        <v>49</v>
+      </c>
+      <c r="F28">
+        <v>47</v>
+      </c>
+      <c r="G28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>92</v>
+      </c>
+      <c r="E29">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>95</v>
+      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>68</v>
+      </c>
+      <c r="F30">
+        <v>75</v>
+      </c>
+      <c r="G30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>82</v>
+      </c>
+      <c r="D31">
+        <v>89</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>43</v>
+      </c>
+      <c r="G31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <v>78</v>
+      </c>
+      <c r="F32">
+        <v>92</v>
+      </c>
+      <c r="G32">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>89</v>
+      </c>
+      <c r="D33">
+        <v>93</v>
+      </c>
+      <c r="E33">
+        <v>68</v>
+      </c>
+      <c r="F33">
+        <v>93</v>
+      </c>
+      <c r="G33">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>67</v>
+      </c>
+      <c r="E34">
+        <v>99</v>
+      </c>
+      <c r="F34">
+        <v>74</v>
+      </c>
+      <c r="G34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>82</v>
+      </c>
+      <c r="D35">
+        <v>72</v>
+      </c>
+      <c r="E35">
+        <v>98</v>
+      </c>
+      <c r="F35">
+        <v>75</v>
+      </c>
+      <c r="G35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>92</v>
+      </c>
+      <c r="D36">
+        <v>84</v>
+      </c>
+      <c r="E36">
+        <v>32</v>
+      </c>
+      <c r="F36">
+        <v>93</v>
+      </c>
+      <c r="G36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>82</v>
+      </c>
+      <c r="E37">
+        <v>62</v>
+      </c>
+      <c r="F37">
+        <v>90</v>
+      </c>
+      <c r="G37">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <v>86</v>
+      </c>
+      <c r="E38">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>71</v>
+      </c>
+      <c r="G38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39">
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <v>92</v>
+      </c>
+      <c r="E39">
+        <v>88</v>
+      </c>
+      <c r="F39">
+        <v>63</v>
+      </c>
+      <c r="G39">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>95</v>
+      </c>
+      <c r="E40">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>85</v>
+      </c>
+      <c r="G40">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <v>94</v>
+      </c>
+      <c r="F41">
+        <v>93</v>
+      </c>
+      <c r="G41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>64</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>64</v>
+      </c>
+      <c r="G42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>32</v>
+      </c>
+      <c r="D43">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <v>80</v>
+      </c>
+      <c r="F43">
+        <v>77</v>
+      </c>
+      <c r="G43">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44">
+        <v>85</v>
+      </c>
+      <c r="D44">
+        <v>71</v>
+      </c>
+      <c r="E44">
+        <v>86</v>
+      </c>
+      <c r="F44">
+        <v>65</v>
+      </c>
+      <c r="G44">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>87</v>
+      </c>
+      <c r="D45">
+        <v>84</v>
+      </c>
+      <c r="E45">
+        <v>78</v>
+      </c>
+      <c r="F45">
+        <v>65</v>
+      </c>
+      <c r="G45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <v>79</v>
+      </c>
+      <c r="E46">
+        <v>73</v>
+      </c>
+      <c r="F46">
+        <v>62</v>
+      </c>
+      <c r="G46">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>77</v>
+      </c>
+      <c r="D47">
+        <v>76</v>
+      </c>
+      <c r="E47">
+        <v>72</v>
+      </c>
+      <c r="F47">
+        <v>77</v>
+      </c>
+      <c r="G47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <v>98</v>
+      </c>
+      <c r="E48">
+        <v>82</v>
+      </c>
+      <c r="F48">
+        <v>99</v>
+      </c>
+      <c r="G48">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>90</v>
+      </c>
+      <c r="E49">
+        <v>73</v>
+      </c>
+      <c r="F49">
+        <v>73</v>
+      </c>
+      <c r="G49">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>45</v>
+      </c>
+      <c r="D50">
+        <v>66</v>
+      </c>
+      <c r="E50">
+        <v>70</v>
+      </c>
+      <c r="F50">
+        <v>31</v>
+      </c>
+      <c r="G50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>93</v>
+      </c>
+      <c r="E51">
+        <v>80</v>
+      </c>
+      <c r="F51">
+        <v>60</v>
+      </c>
+      <c r="G51">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5639990B-6750-4226-8125-85B5B2D017B4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
@@ -6596,7 +8162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2151C0B-73BA-4D05-A62D-E4D9FD47320B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -6967,7 +8533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C35B6DA-4005-4159-8F42-B0AFAD2CF07B}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -7317,7 +8883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C7C63A-B289-43DD-9A7C-2D11E4BAFA22}">
   <dimension ref="A1:L108"/>
   <sheetViews>
@@ -7393,7 +8959,7 @@
       <c r="E2" t="s">
         <v>394</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <v>37789</v>
       </c>
       <c r="G2">
@@ -7429,7 +8995,7 @@
       <c r="E3" t="s">
         <v>400</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="37">
         <v>38616</v>
       </c>
       <c r="G3">
@@ -7465,7 +9031,7 @@
       <c r="E4" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>36904</v>
       </c>
       <c r="G4">
@@ -7501,7 +9067,7 @@
       <c r="E5" t="s">
         <v>409</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>38720</v>
       </c>
       <c r="G5">
@@ -7537,7 +9103,7 @@
       <c r="E6" t="s">
         <v>415</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>39223</v>
       </c>
       <c r="G6">
@@ -7573,7 +9139,7 @@
       <c r="E7" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>38528</v>
       </c>
       <c r="G7">
@@ -7609,7 +9175,7 @@
       <c r="E8" t="s">
         <v>423</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>38753</v>
       </c>
       <c r="G8">
@@ -7645,7 +9211,7 @@
       <c r="E9" t="s">
         <v>427</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>39120</v>
       </c>
       <c r="G9">
@@ -7681,7 +9247,7 @@
       <c r="E10" t="s">
         <v>431</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>37485</v>
       </c>
       <c r="G10">
@@ -7717,7 +9283,7 @@
       <c r="E11" t="s">
         <v>436</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>37484</v>
       </c>
       <c r="G11">
@@ -7753,7 +9319,7 @@
       <c r="E12" t="s">
         <v>441</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>38623</v>
       </c>
       <c r="G12">
@@ -7789,7 +9355,7 @@
       <c r="E13" t="s">
         <v>445</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>38625</v>
       </c>
       <c r="G13">
@@ -7825,7 +9391,7 @@
       <c r="E14" t="s">
         <v>449</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>38783</v>
       </c>
       <c r="G14">
@@ -7861,7 +9427,7 @@
       <c r="E15" t="s">
         <v>453</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>39423</v>
       </c>
       <c r="G15">
@@ -7897,7 +9463,7 @@
       <c r="E16" t="s">
         <v>457</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="37">
         <v>37597</v>
       </c>
       <c r="G16">
@@ -7933,7 +9499,7 @@
       <c r="E17" t="s">
         <v>462</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>37759</v>
       </c>
       <c r="G17">
@@ -7969,7 +9535,7 @@
       <c r="E18" t="s">
         <v>467</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>38710</v>
       </c>
       <c r="G18">
@@ -8005,7 +9571,7 @@
       <c r="E19" t="s">
         <v>471</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>38557</v>
       </c>
       <c r="G19">
@@ -8041,7 +9607,7 @@
       <c r="E20" t="s">
         <v>475</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>39036</v>
       </c>
       <c r="G20">
@@ -8077,7 +9643,7 @@
       <c r="E21" t="s">
         <v>479</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <v>39304</v>
       </c>
       <c r="G21">
@@ -8113,7 +9679,7 @@
       <c r="E22" t="s">
         <v>483</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <v>38186</v>
       </c>
       <c r="G22">
@@ -8149,7 +9715,7 @@
       <c r="E23" t="s">
         <v>489</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <v>38452</v>
       </c>
       <c r="G23">
@@ -8185,7 +9751,7 @@
       <c r="E24" t="s">
         <v>493</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="37">
         <v>37742</v>
       </c>
       <c r="G24">
@@ -8221,7 +9787,7 @@
       <c r="E25" t="s">
         <v>497</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <v>38635</v>
       </c>
       <c r="G25">
@@ -8257,7 +9823,7 @@
       <c r="E26" t="s">
         <v>501</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>39402</v>
       </c>
       <c r="G26">
@@ -8293,7 +9859,7 @@
       <c r="E27" t="s">
         <v>505</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>38549</v>
       </c>
       <c r="G27">
@@ -8329,7 +9895,7 @@
       <c r="E28" t="s">
         <v>510</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="37">
         <v>38988</v>
       </c>
       <c r="G28">
@@ -8365,7 +9931,7 @@
       <c r="E29" t="s">
         <v>514</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="37">
         <v>39096</v>
       </c>
       <c r="G29">
@@ -8395,7 +9961,7 @@
       <c r="E30" t="s">
         <v>517</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>39515</v>
       </c>
       <c r="G30">
@@ -8425,7 +9991,7 @@
       <c r="E31" t="s">
         <v>521</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>38584</v>
       </c>
       <c r="G31">
@@ -8455,7 +10021,7 @@
       <c r="E32" t="s">
         <v>525</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>38655</v>
       </c>
       <c r="G32">
@@ -8485,7 +10051,7 @@
       <c r="E33" t="s">
         <v>528</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>38399</v>
       </c>
       <c r="G33">
@@ -8515,7 +10081,7 @@
       <c r="E34" t="s">
         <v>532</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>39182</v>
       </c>
       <c r="G34">
@@ -8545,7 +10111,7 @@
       <c r="E35" t="s">
         <v>536</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="37">
         <v>38152</v>
       </c>
       <c r="G35">
@@ -8575,7 +10141,7 @@
       <c r="E36" t="s">
         <v>540</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>38955</v>
       </c>
       <c r="G36">
@@ -8605,7 +10171,7 @@
       <c r="E37" t="s">
         <v>544</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <v>39428</v>
       </c>
       <c r="G37">
@@ -8635,7 +10201,7 @@
       <c r="E38" t="s">
         <v>548</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="37">
         <v>39484</v>
       </c>
       <c r="G38">
@@ -8665,7 +10231,7 @@
       <c r="E39" t="s">
         <v>552</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="37">
         <v>37816</v>
       </c>
       <c r="G39">
@@ -8695,7 +10261,7 @@
       <c r="E40" t="s">
         <v>556</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="37">
         <v>38651</v>
       </c>
       <c r="G40">
@@ -8725,7 +10291,7 @@
       <c r="E41" t="s">
         <v>559</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="37">
         <v>38760</v>
       </c>
       <c r="G41">
@@ -8755,7 +10321,7 @@
       <c r="E42" t="s">
         <v>563</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="37">
         <v>38813</v>
       </c>
       <c r="G42">
@@ -8785,7 +10351,7 @@
       <c r="E43" t="s">
         <v>567</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="37">
         <v>37911</v>
       </c>
       <c r="G43">
@@ -8815,7 +10381,7 @@
       <c r="E44" t="s">
         <v>571</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="37">
         <v>38381</v>
       </c>
       <c r="G44">
@@ -8845,7 +10411,7 @@
       <c r="E45" t="s">
         <v>575</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="37">
         <v>38791</v>
       </c>
       <c r="G45">
@@ -8875,7 +10441,7 @@
       <c r="E46" t="s">
         <v>579</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="37">
         <v>38907</v>
       </c>
       <c r="G46">
@@ -8905,7 +10471,7 @@
       <c r="E47" t="s">
         <v>582</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="37">
         <v>38261</v>
       </c>
       <c r="G47">
@@ -8935,7 +10501,7 @@
       <c r="E48" t="s">
         <v>587</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <v>38357</v>
       </c>
       <c r="G48">
@@ -8965,7 +10531,7 @@
       <c r="E49" t="s">
         <v>591</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <v>38421</v>
       </c>
       <c r="G49">
@@ -8995,7 +10561,7 @@
       <c r="E50" t="s">
         <v>595</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="37">
         <v>39370</v>
       </c>
       <c r="G50">
@@ -9025,7 +10591,7 @@
       <c r="E51" t="s">
         <v>599</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="37">
         <v>39476</v>
       </c>
       <c r="G51">
@@ -9055,7 +10621,7 @@
       <c r="E52" t="s">
         <v>602</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="37">
         <v>38382</v>
       </c>
       <c r="G52">
@@ -9085,7 +10651,7 @@
       <c r="E53" t="s">
         <v>606</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="37">
         <v>38435</v>
       </c>
       <c r="G53">
@@ -9115,7 +10681,7 @@
       <c r="E54" t="s">
         <v>609</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="37">
         <v>38584</v>
       </c>
       <c r="G54">
@@ -9145,7 +10711,7 @@
       <c r="E55" t="s">
         <v>613</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="37">
         <v>38806</v>
       </c>
       <c r="G55">
@@ -9175,7 +10741,7 @@
       <c r="E56" t="s">
         <v>616</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="37">
         <v>39060</v>
       </c>
       <c r="G56">
@@ -9205,7 +10771,7 @@
       <c r="E57" t="s">
         <v>620</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="37">
         <v>39409</v>
       </c>
       <c r="G57">
@@ -9235,7 +10801,7 @@
       <c r="E58" t="s">
         <v>623</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="37">
         <v>38016</v>
       </c>
       <c r="G58">
@@ -9265,7 +10831,7 @@
       <c r="E59" t="s">
         <v>627</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="37">
         <v>38050</v>
       </c>
       <c r="G59">
@@ -9295,7 +10861,7 @@
       <c r="E60" t="s">
         <v>631</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="37">
         <v>38200</v>
       </c>
       <c r="G60">
@@ -9325,7 +10891,7 @@
       <c r="E61" t="s">
         <v>635</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="37">
         <v>38421</v>
       </c>
       <c r="G61">
@@ -9355,7 +10921,7 @@
       <c r="E62" t="s">
         <v>639</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="37">
         <v>38701</v>
       </c>
       <c r="G62">
@@ -9385,7 +10951,7 @@
       <c r="E63" t="s">
         <v>643</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="37">
         <v>39024</v>
       </c>
       <c r="G63">
@@ -9415,7 +10981,7 @@
       <c r="E64" t="s">
         <v>647</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="37">
         <v>38667</v>
       </c>
       <c r="G64">
@@ -9445,7 +11011,7 @@
       <c r="E65" t="s">
         <v>651</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="37">
         <v>39160</v>
       </c>
       <c r="G65">
@@ -9475,7 +11041,7 @@
       <c r="E66" t="s">
         <v>655</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="37">
         <v>39471</v>
       </c>
       <c r="G66">
@@ -9505,7 +11071,7 @@
       <c r="E67" t="s">
         <v>658</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="37">
         <v>39501</v>
       </c>
       <c r="G67">
@@ -9535,7 +11101,7 @@
       <c r="E68" t="s">
         <v>662</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="37">
         <v>39531</v>
       </c>
       <c r="G68">
@@ -9565,7 +11131,7 @@
       <c r="E69" t="s">
         <v>666</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="37">
         <v>39559</v>
       </c>
       <c r="G69">
@@ -9595,7 +11161,7 @@
       <c r="E70" t="s">
         <v>670</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="37">
         <v>38422</v>
       </c>
       <c r="G70">
@@ -9625,7 +11191,7 @@
       <c r="E71" t="s">
         <v>674</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="37">
         <v>38799</v>
       </c>
       <c r="G71">
@@ -9655,7 +11221,7 @@
       <c r="E72" t="s">
         <v>678</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="37">
         <v>38741</v>
       </c>
       <c r="G72">
@@ -9685,7 +11251,7 @@
       <c r="E73" t="s">
         <v>681</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="37">
         <v>39136</v>
       </c>
       <c r="G73">
@@ -9715,7 +11281,7 @@
       <c r="E74" t="s">
         <v>685</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="37">
         <v>39165</v>
       </c>
       <c r="G74">
@@ -9745,7 +11311,7 @@
       <c r="E75" t="s">
         <v>688</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="37">
         <v>39559</v>
       </c>
       <c r="G75">
@@ -9775,7 +11341,7 @@
       <c r="E76" t="s">
         <v>692</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="37">
         <v>38118</v>
       </c>
       <c r="G76">
@@ -9805,7 +11371,7 @@
       <c r="E77" t="s">
         <v>696</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="37">
         <v>38430</v>
       </c>
       <c r="G77">
@@ -9835,7 +11401,7 @@
       <c r="E78" t="s">
         <v>700</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="37">
         <v>38800</v>
       </c>
       <c r="G78">
@@ -9865,7 +11431,7 @@
       <c r="E79" t="s">
         <v>704</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="37">
         <v>38830</v>
       </c>
       <c r="G79">
@@ -9895,7 +11461,7 @@
       <c r="E80" t="s">
         <v>708</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="37">
         <v>39226</v>
       </c>
       <c r="G80">
@@ -9925,7 +11491,7 @@
       <c r="E81" t="s">
         <v>712</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="37">
         <v>39451</v>
       </c>
       <c r="G81">
@@ -9955,7 +11521,7 @@
       <c r="E82" t="s">
         <v>715</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="37">
         <v>38741</v>
       </c>
       <c r="G82">
@@ -9985,7 +11551,7 @@
       <c r="E83" t="s">
         <v>720</v>
       </c>
-      <c r="F83" s="38">
+      <c r="F83" s="37">
         <v>38771</v>
       </c>
       <c r="G83">
@@ -10015,7 +11581,7 @@
       <c r="E84" t="s">
         <v>724</v>
       </c>
-      <c r="F84" s="38">
+      <c r="F84" s="37">
         <v>39254</v>
       </c>
       <c r="G84">
@@ -10045,7 +11611,7 @@
       <c r="E85" t="s">
         <v>728</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="37">
         <v>39481</v>
       </c>
       <c r="G85">
@@ -10075,7 +11641,7 @@
       <c r="E86" t="s">
         <v>732</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="37">
         <v>38013</v>
       </c>
       <c r="G86">
@@ -10105,7 +11671,7 @@
       <c r="E87" t="s">
         <v>736</v>
       </c>
-      <c r="F87" s="38">
+      <c r="F87" s="37">
         <v>38403</v>
       </c>
       <c r="G87">
@@ -10135,7 +11701,7 @@
       <c r="E88" t="s">
         <v>739</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="37">
         <v>38892</v>
       </c>
       <c r="G88">
@@ -10165,7 +11731,7 @@
       <c r="E89" t="s">
         <v>743</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="37">
         <v>39120</v>
       </c>
       <c r="G89">
@@ -10195,7 +11761,7 @@
       <c r="E90" t="s">
         <v>747</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="37">
         <v>38517</v>
       </c>
       <c r="G90">
@@ -10225,7 +11791,7 @@
       <c r="E91" t="s">
         <v>751</v>
       </c>
-      <c r="F91" s="38">
+      <c r="F91" s="37">
         <v>38577</v>
       </c>
       <c r="G91">
@@ -10255,7 +11821,7 @@
       <c r="E92" t="s">
         <v>755</v>
       </c>
-      <c r="F92" s="38">
+      <c r="F92" s="37">
         <v>38909</v>
       </c>
       <c r="G92">
@@ -10285,7 +11851,7 @@
       <c r="E93" t="s">
         <v>758</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F93" s="37">
         <v>39435</v>
       </c>
       <c r="G93">
@@ -10315,7 +11881,7 @@
       <c r="E94" t="s">
         <v>762</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="37">
         <v>38021</v>
       </c>
       <c r="G94">
@@ -10345,7 +11911,7 @@
       <c r="E95" t="s">
         <v>766</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="37">
         <v>38414</v>
       </c>
       <c r="G95">
@@ -10375,7 +11941,7 @@
       <c r="E96" t="s">
         <v>770</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="37">
         <v>38899</v>
       </c>
       <c r="G96">
@@ -10405,7 +11971,7 @@
       <c r="E97" t="s">
         <v>774</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="37">
         <v>39158</v>
       </c>
       <c r="G97">
@@ -10435,7 +12001,7 @@
       <c r="E98" t="s">
         <v>778</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="37">
         <v>38831</v>
       </c>
       <c r="G98">
@@ -10465,7 +12031,7 @@
       <c r="E99" t="s">
         <v>781</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="37">
         <v>38860</v>
       </c>
       <c r="G99">
@@ -10495,7 +12061,7 @@
       <c r="E100" t="s">
         <v>785</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="37">
         <v>39254</v>
       </c>
       <c r="G100">
@@ -10525,7 +12091,7 @@
       <c r="E101" t="s">
         <v>788</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="37">
         <v>39460</v>
       </c>
       <c r="G101">
@@ -10555,7 +12121,7 @@
       <c r="E102" t="s">
         <v>791</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="37">
         <v>37881</v>
       </c>
       <c r="G102">
@@ -10585,7 +12151,7 @@
       <c r="E103" t="s">
         <v>796</v>
       </c>
-      <c r="F103" s="38">
+      <c r="F103" s="37">
         <v>38034</v>
       </c>
       <c r="G103">
@@ -10615,7 +12181,7 @@
       <c r="E104" t="s">
         <v>802</v>
       </c>
-      <c r="F104" s="38">
+      <c r="F104" s="37">
         <v>38581</v>
       </c>
       <c r="G104">
@@ -10645,7 +12211,7 @@
       <c r="E105" t="s">
         <v>807</v>
       </c>
-      <c r="F105" s="38">
+      <c r="F105" s="37">
         <v>37414</v>
       </c>
       <c r="G105">
@@ -10675,7 +12241,7 @@
       <c r="E106" t="s">
         <v>813</v>
       </c>
-      <c r="F106" s="38">
+      <c r="F106" s="37">
         <v>37414</v>
       </c>
       <c r="G106">
@@ -10705,7 +12271,7 @@
       <c r="E107" t="s">
         <v>819</v>
       </c>
-      <c r="F107" s="38">
+      <c r="F107" s="37">
         <v>37414</v>
       </c>
       <c r="G107">
@@ -10735,7 +12301,7 @@
       <c r="E108" t="s">
         <v>823</v>
       </c>
-      <c r="F108" s="38">
+      <c r="F108" s="37">
         <v>37414</v>
       </c>
       <c r="G108">
@@ -10755,7 +12321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97242C3-98C7-4CC8-9E05-11ED756AE458}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -10879,7 +12445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108E1899-0BA1-4EAD-977B-5AF4891D964A}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -11098,7 +12664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59B5EA-5F36-4506-9B80-2736CCDF45D1}">
   <dimension ref="A1:N108"/>
   <sheetViews>
@@ -11159,10 +12725,10 @@
       <c r="D2" t="s">
         <v>842</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="38">
         <v>5151234567</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <v>37789</v>
       </c>
       <c r="G2">
@@ -11185,10 +12751,10 @@
       <c r="D3" t="s">
         <v>843</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>5151234568</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="37">
         <v>38616</v>
       </c>
       <c r="G3">
@@ -11211,10 +12777,10 @@
       <c r="D4" t="s">
         <v>844</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>5151234569</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>36904</v>
       </c>
       <c r="G4">
@@ -11237,10 +12803,10 @@
       <c r="D5" t="s">
         <v>845</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>5904234567</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>38720</v>
       </c>
       <c r="G5">
@@ -11263,10 +12829,10 @@
       <c r="D6" t="s">
         <v>846</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>5904234568</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>39223</v>
       </c>
       <c r="G6">
@@ -11275,7 +12841,7 @@
       <c r="H6" t="s">
         <v>411</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="45" t="s">
         <v>949</v>
       </c>
       <c r="N6" t="s">
@@ -11295,10 +12861,10 @@
       <c r="D7" t="s">
         <v>847</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>5904234569</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>38528</v>
       </c>
       <c r="G7">
@@ -11307,10 +12873,10 @@
       <c r="H7" t="s">
         <v>411</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7">
         <v>2</v>
       </c>
     </row>
@@ -11327,10 +12893,10 @@
       <c r="D8" t="s">
         <v>848</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>5904234560</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>38753</v>
       </c>
       <c r="G8">
@@ -11339,10 +12905,10 @@
       <c r="H8" t="s">
         <v>411</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="46" t="s">
         <v>793</v>
       </c>
-      <c r="N8" s="49">
+      <c r="N8">
         <v>1</v>
       </c>
     </row>
@@ -11359,10 +12925,10 @@
       <c r="D9" t="s">
         <v>849</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>5904235567</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>39120</v>
       </c>
       <c r="G9">
@@ -11371,10 +12937,10 @@
       <c r="H9" t="s">
         <v>411</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9">
         <v>3</v>
       </c>
     </row>
@@ -11391,10 +12957,10 @@
       <c r="D10" t="s">
         <v>850</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <v>5151244569</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>37485</v>
       </c>
       <c r="G10">
@@ -11403,10 +12969,10 @@
       <c r="H10" t="s">
         <v>380</v>
       </c>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10">
         <v>6</v>
       </c>
     </row>
@@ -11423,10 +12989,10 @@
       <c r="D11" t="s">
         <v>851</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>5151244169</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>37484</v>
       </c>
       <c r="G11">
@@ -11435,10 +13001,10 @@
       <c r="H11" t="s">
         <v>380</v>
       </c>
-      <c r="M11" s="48" t="s">
+      <c r="M11" s="46" t="s">
         <v>809</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11">
         <v>1</v>
       </c>
     </row>
@@ -11455,10 +13021,10 @@
       <c r="D12" t="s">
         <v>852</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="38">
         <v>5151244269</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>38623</v>
       </c>
       <c r="G12">
@@ -11467,10 +13033,10 @@
       <c r="H12" t="s">
         <v>380</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12">
         <v>5</v>
       </c>
     </row>
@@ -11487,10 +13053,10 @@
       <c r="D13" t="s">
         <v>853</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="38">
         <v>5151244369</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>38625</v>
       </c>
       <c r="G13">
@@ -11499,10 +13065,10 @@
       <c r="H13" t="s">
         <v>380</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="46" t="s">
         <v>798</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13">
         <v>2</v>
       </c>
     </row>
@@ -11519,10 +13085,10 @@
       <c r="D14" t="s">
         <v>854</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <v>5151244469</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>38783</v>
       </c>
       <c r="G14">
@@ -11531,10 +13097,10 @@
       <c r="H14" t="s">
         <v>380</v>
       </c>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="46" t="s">
         <v>815</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14">
         <v>1</v>
       </c>
     </row>
@@ -11551,10 +13117,10 @@
       <c r="D15" t="s">
         <v>855</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="38">
         <v>5151244567</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>39423</v>
       </c>
       <c r="G15">
@@ -11563,10 +13129,10 @@
       <c r="H15" t="s">
         <v>380</v>
       </c>
-      <c r="M15" s="48" t="s">
+      <c r="M15" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="N15" s="49">
+      <c r="N15">
         <v>6</v>
       </c>
     </row>
@@ -11583,10 +13149,10 @@
       <c r="D16" t="s">
         <v>856</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="38">
         <v>5151274561</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="37">
         <v>37597</v>
       </c>
       <c r="G16">
@@ -11595,10 +13161,10 @@
       <c r="H16" t="s">
         <v>459</v>
       </c>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="N16" s="49">
+      <c r="N16">
         <v>35</v>
       </c>
     </row>
@@ -11615,10 +13181,10 @@
       <c r="D17" t="s">
         <v>857</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <v>5151274562</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>37759</v>
       </c>
       <c r="G17">
@@ -11627,10 +13193,10 @@
       <c r="H17" t="s">
         <v>459</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="N17" s="49">
+      <c r="N17">
         <v>45</v>
       </c>
     </row>
@@ -11647,10 +13213,10 @@
       <c r="D18" t="s">
         <v>858</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="38">
         <v>5151274563</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>38710</v>
       </c>
       <c r="G18">
@@ -11659,10 +13225,10 @@
       <c r="H18" t="s">
         <v>459</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M18" s="46" t="s">
         <v>970</v>
       </c>
-      <c r="N18" s="49">
+      <c r="N18">
         <v>107</v>
       </c>
     </row>
@@ -11679,10 +13245,10 @@
       <c r="D19" t="s">
         <v>859</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="38">
         <v>5151274564</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>38557</v>
       </c>
       <c r="G19">
@@ -11705,10 +13271,10 @@
       <c r="D20" t="s">
         <v>860</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="38">
         <v>5151274565</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>39036</v>
       </c>
       <c r="G20">
@@ -11731,10 +13297,10 @@
       <c r="D21" t="s">
         <v>861</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>5151274566</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <v>39304</v>
       </c>
       <c r="G21">
@@ -11757,10 +13323,10 @@
       <c r="D22" t="s">
         <v>862</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="38">
         <v>6501231234</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <v>38186</v>
       </c>
       <c r="G22">
@@ -11783,10 +13349,10 @@
       <c r="D23" t="s">
         <v>863</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="38">
         <v>6501232234</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <v>38452</v>
       </c>
       <c r="G23">
@@ -11809,10 +13375,10 @@
       <c r="D24" t="s">
         <v>864</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="38">
         <v>6501233234</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="37">
         <v>37742</v>
       </c>
       <c r="G24">
@@ -11835,10 +13401,10 @@
       <c r="D25" t="s">
         <v>865</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="38">
         <v>6501234234</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <v>38635</v>
       </c>
       <c r="G25">
@@ -11861,10 +13427,10 @@
       <c r="D26" t="s">
         <v>866</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="38">
         <v>6501235234</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>39402</v>
       </c>
       <c r="G26">
@@ -11887,10 +13453,10 @@
       <c r="D27" t="s">
         <v>867</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="38">
         <v>6501241214</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>38549</v>
       </c>
       <c r="G27">
@@ -11913,10 +13479,10 @@
       <c r="D28" t="s">
         <v>868</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="38">
         <v>6501241224</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="37">
         <v>38988</v>
       </c>
       <c r="G28">
@@ -11939,10 +13505,10 @@
       <c r="D29" t="s">
         <v>869</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="38">
         <v>6501241334</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="37">
         <v>39096</v>
       </c>
       <c r="G29">
@@ -11965,10 +13531,10 @@
       <c r="D30" t="s">
         <v>870</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="38">
         <v>6501241434</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>39515</v>
       </c>
       <c r="G30">
@@ -11991,10 +13557,10 @@
       <c r="D31" t="s">
         <v>871</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="38">
         <v>6501245234</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>38584</v>
       </c>
       <c r="G31">
@@ -12017,10 +13583,10 @@
       <c r="D32" t="s">
         <v>872</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="38">
         <v>6501246234</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>38655</v>
       </c>
       <c r="G32">
@@ -12043,10 +13609,10 @@
       <c r="D33" t="s">
         <v>873</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="38">
         <v>6501247234</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>38399</v>
       </c>
       <c r="G33">
@@ -12069,10 +13635,10 @@
       <c r="D34" t="s">
         <v>874</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="38">
         <v>6501248234</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>39182</v>
       </c>
       <c r="G34">
@@ -12095,10 +13661,10 @@
       <c r="D35" t="s">
         <v>875</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="38">
         <v>6501271934</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="37">
         <v>38152</v>
       </c>
       <c r="G35">
@@ -12121,10 +13687,10 @@
       <c r="D36" t="s">
         <v>876</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="38">
         <v>6501271834</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>38955</v>
       </c>
       <c r="G36">
@@ -12147,10 +13713,10 @@
       <c r="D37" t="s">
         <v>877</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="38">
         <v>6501271734</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <v>39428</v>
       </c>
       <c r="G37">
@@ -12173,10 +13739,10 @@
       <c r="D38" t="s">
         <v>878</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="38">
         <v>6501271634</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="37">
         <v>39484</v>
       </c>
       <c r="G38">
@@ -12199,10 +13765,10 @@
       <c r="D39" t="s">
         <v>879</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="38">
         <v>6501211234</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="37">
         <v>37816</v>
       </c>
       <c r="G39">
@@ -12225,10 +13791,10 @@
       <c r="D40" t="s">
         <v>880</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="38">
         <v>6501212034</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="37">
         <v>38651</v>
       </c>
       <c r="G40">
@@ -12251,10 +13817,10 @@
       <c r="D41" t="s">
         <v>881</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="38">
         <v>6501212019</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="37">
         <v>38760</v>
       </c>
       <c r="G41">
@@ -12277,10 +13843,10 @@
       <c r="D42" t="s">
         <v>882</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="38">
         <v>6501211834</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="37">
         <v>38813</v>
       </c>
       <c r="G42">
@@ -12303,10 +13869,10 @@
       <c r="D43" t="s">
         <v>883</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="38">
         <v>6501218009</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="37">
         <v>37911</v>
       </c>
       <c r="G43">
@@ -12329,10 +13895,10 @@
       <c r="D44" t="s">
         <v>884</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="38">
         <v>6501212994</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="37">
         <v>38381</v>
       </c>
       <c r="G44">
@@ -12355,10 +13921,10 @@
       <c r="D45" t="s">
         <v>885</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="38">
         <v>6501212874</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="37">
         <v>38791</v>
       </c>
       <c r="G45">
@@ -12381,10 +13947,10 @@
       <c r="D46" t="s">
         <v>886</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="38">
         <v>6501212004</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="37">
         <v>38907</v>
       </c>
       <c r="G46">
@@ -12407,10 +13973,10 @@
       <c r="D47" t="s">
         <v>887</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="38">
         <v>11441344429268</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="37">
         <v>38261</v>
       </c>
       <c r="G47">
@@ -12433,10 +13999,10 @@
       <c r="D48" t="s">
         <v>888</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="38">
         <v>11441344467268</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <v>38357</v>
       </c>
       <c r="G48">
@@ -12459,10 +14025,10 @@
       <c r="D49" t="s">
         <v>889</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E49" s="38">
         <v>11441344429278</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <v>38421</v>
       </c>
       <c r="G49">
@@ -12485,10 +14051,10 @@
       <c r="D50" t="s">
         <v>890</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="38">
         <v>11441344619268</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="37">
         <v>39370</v>
       </c>
       <c r="G50">
@@ -12511,10 +14077,10 @@
       <c r="D51" t="s">
         <v>891</v>
       </c>
-      <c r="E51" s="39">
+      <c r="E51" s="38">
         <v>11441344429018</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="37">
         <v>39476</v>
       </c>
       <c r="G51">
@@ -12537,10 +14103,10 @@
       <c r="D52" t="s">
         <v>892</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="38">
         <v>11441344129268</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="37">
         <v>38382</v>
       </c>
       <c r="G52">
@@ -12563,10 +14129,10 @@
       <c r="D53" t="s">
         <v>893</v>
       </c>
-      <c r="E53" s="39">
+      <c r="E53" s="38">
         <v>11441344345268</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="37">
         <v>38435</v>
       </c>
       <c r="G53">
@@ -12589,10 +14155,10 @@
       <c r="D54" t="s">
         <v>894</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="38">
         <v>11441344478968</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="37">
         <v>38584</v>
       </c>
       <c r="G54">
@@ -12615,10 +14181,10 @@
       <c r="D55" t="s">
         <v>895</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="38">
         <v>11441344498718</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="37">
         <v>38806</v>
       </c>
       <c r="G55">
@@ -12641,10 +14207,10 @@
       <c r="D56" t="s">
         <v>896</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="38">
         <v>11441344987668</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="37">
         <v>39060</v>
       </c>
       <c r="G56">
@@ -12667,10 +14233,10 @@
       <c r="D57" t="s">
         <v>897</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="38">
         <v>11441344486508</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="37">
         <v>39409</v>
       </c>
       <c r="G57">
@@ -12693,10 +14259,10 @@
       <c r="D58" t="s">
         <v>898</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E58" s="38">
         <v>11441345429268</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="37">
         <v>38016</v>
       </c>
       <c r="G58">
@@ -12719,10 +14285,10 @@
       <c r="D59" t="s">
         <v>899</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E59" s="38">
         <v>11441345929268</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="37">
         <v>38050</v>
       </c>
       <c r="G59">
@@ -12745,10 +14311,10 @@
       <c r="D60" t="s">
         <v>900</v>
       </c>
-      <c r="E60" s="39">
+      <c r="E60" s="38">
         <v>11441345829268</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="37">
         <v>38200</v>
       </c>
       <c r="G60">
@@ -12771,10 +14337,10 @@
       <c r="D61" t="s">
         <v>901</v>
       </c>
-      <c r="E61" s="39">
+      <c r="E61" s="38">
         <v>11441345729268</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="37">
         <v>38421</v>
       </c>
       <c r="G61">
@@ -12797,10 +14363,10 @@
       <c r="D62" t="s">
         <v>902</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="38">
         <v>11441345629268</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="37">
         <v>38701</v>
       </c>
       <c r="G62">
@@ -12823,10 +14389,10 @@
       <c r="D63" t="s">
         <v>903</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="38">
         <v>11441345529268</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="37">
         <v>39024</v>
       </c>
       <c r="G63">
@@ -12849,10 +14415,10 @@
       <c r="D64" t="s">
         <v>904</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="38">
         <v>11441346129268</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="37">
         <v>38667</v>
       </c>
       <c r="G64">
@@ -12875,10 +14441,10 @@
       <c r="D65" t="s">
         <v>905</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="38">
         <v>11441346229268</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="37">
         <v>39160</v>
       </c>
       <c r="G65">
@@ -12901,10 +14467,10 @@
       <c r="D66" t="s">
         <v>906</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E66" s="38">
         <v>11441346329268</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="37">
         <v>39471</v>
       </c>
       <c r="G66">
@@ -12927,10 +14493,10 @@
       <c r="D67" t="s">
         <v>907</v>
       </c>
-      <c r="E67" s="39">
+      <c r="E67" s="38">
         <v>11441346529268</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="37">
         <v>39501</v>
       </c>
       <c r="G67">
@@ -12953,10 +14519,10 @@
       <c r="D68" t="s">
         <v>908</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="38">
         <v>11441346629268</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="37">
         <v>39531</v>
       </c>
       <c r="G68">
@@ -12979,10 +14545,10 @@
       <c r="D69" t="s">
         <v>909</v>
       </c>
-      <c r="E69" s="39">
+      <c r="E69" s="38">
         <v>11441346729268</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="37">
         <v>39559</v>
       </c>
       <c r="G69">
@@ -13005,10 +14571,10 @@
       <c r="D70" t="s">
         <v>910</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="38">
         <v>11441343929268</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="37">
         <v>38422</v>
       </c>
       <c r="G70">
@@ -13031,10 +14597,10 @@
       <c r="D71" t="s">
         <v>911</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E71" s="38">
         <v>11441343829268</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="37">
         <v>38799</v>
       </c>
       <c r="G71">
@@ -13057,10 +14623,10 @@
       <c r="D72" t="s">
         <v>912</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="38">
         <v>11441343729268</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="37">
         <v>38741</v>
       </c>
       <c r="G72">
@@ -13083,10 +14649,10 @@
       <c r="D73" t="s">
         <v>913</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="38">
         <v>11441343629268</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="37">
         <v>39136</v>
       </c>
       <c r="G73">
@@ -13109,10 +14675,10 @@
       <c r="D74" t="s">
         <v>914</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="38">
         <v>11441343529268</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="37">
         <v>39165</v>
       </c>
       <c r="G74">
@@ -13135,10 +14701,10 @@
       <c r="D75" t="s">
         <v>915</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E75" s="38">
         <v>11441343329268</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="37">
         <v>39559</v>
       </c>
       <c r="G75">
@@ -13161,10 +14727,10 @@
       <c r="D76" t="s">
         <v>916</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E76" s="38">
         <v>11441644429267</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="37">
         <v>38118</v>
       </c>
       <c r="G76">
@@ -13187,10 +14753,10 @@
       <c r="D77" t="s">
         <v>917</v>
       </c>
-      <c r="E77" s="39">
+      <c r="E77" s="38">
         <v>11441644429266</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="37">
         <v>38430</v>
       </c>
       <c r="G77">
@@ -13213,10 +14779,10 @@
       <c r="D78" t="s">
         <v>918</v>
       </c>
-      <c r="E78" s="39">
+      <c r="E78" s="38">
         <v>11441644429265</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="37">
         <v>38800</v>
       </c>
       <c r="G78">
@@ -13239,10 +14805,10 @@
       <c r="D79" t="s">
         <v>919</v>
       </c>
-      <c r="E79" s="39">
+      <c r="E79" s="38">
         <v>11441644429264</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="37">
         <v>38830</v>
       </c>
       <c r="G79">
@@ -13265,10 +14831,10 @@
       <c r="D80" t="s">
         <v>920</v>
       </c>
-      <c r="E80" s="39">
+      <c r="E80" s="38">
         <v>11441644429263</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="37">
         <v>39226</v>
       </c>
       <c r="G80">
@@ -13291,10 +14857,10 @@
       <c r="D81" t="s">
         <v>921</v>
       </c>
-      <c r="E81" s="39">
+      <c r="E81" s="38">
         <v>11441644429262</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="37">
         <v>39451</v>
       </c>
       <c r="G81">
@@ -13317,10 +14883,10 @@
       <c r="D82" t="s">
         <v>922</v>
       </c>
-      <c r="E82" s="39">
+      <c r="E82" s="38">
         <v>6505079876</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="37">
         <v>38741</v>
       </c>
       <c r="G82">
@@ -13343,10 +14909,10 @@
       <c r="D83" t="s">
         <v>923</v>
       </c>
-      <c r="E83" s="39">
+      <c r="E83" s="38">
         <v>6505079877</v>
       </c>
-      <c r="F83" s="38">
+      <c r="F83" s="37">
         <v>38771</v>
       </c>
       <c r="G83">
@@ -13369,10 +14935,10 @@
       <c r="D84" t="s">
         <v>924</v>
       </c>
-      <c r="E84" s="39">
+      <c r="E84" s="38">
         <v>6505079878</v>
       </c>
-      <c r="F84" s="38">
+      <c r="F84" s="37">
         <v>39254</v>
       </c>
       <c r="G84">
@@ -13395,10 +14961,10 @@
       <c r="D85" t="s">
         <v>925</v>
       </c>
-      <c r="E85" s="39">
+      <c r="E85" s="38">
         <v>6505079879</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="37">
         <v>39481</v>
       </c>
       <c r="G85">
@@ -13421,10 +14987,10 @@
       <c r="D86" t="s">
         <v>926</v>
       </c>
-      <c r="E86" s="39">
+      <c r="E86" s="38">
         <v>6505091876</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="37">
         <v>38013</v>
       </c>
       <c r="G86">
@@ -13447,10 +15013,10 @@
       <c r="D87" t="s">
         <v>927</v>
       </c>
-      <c r="E87" s="39">
+      <c r="E87" s="38">
         <v>6505092876</v>
       </c>
-      <c r="F87" s="38">
+      <c r="F87" s="37">
         <v>38403</v>
       </c>
       <c r="G87">
@@ -13473,10 +15039,10 @@
       <c r="D88" t="s">
         <v>928</v>
       </c>
-      <c r="E88" s="39">
+      <c r="E88" s="38">
         <v>6505093876</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="37">
         <v>38892</v>
       </c>
       <c r="G88">
@@ -13499,10 +15065,10 @@
       <c r="D89" t="s">
         <v>929</v>
       </c>
-      <c r="E89" s="39">
+      <c r="E89" s="38">
         <v>6505094876</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="37">
         <v>39120</v>
       </c>
       <c r="G89">
@@ -13525,10 +15091,10 @@
       <c r="D90" t="s">
         <v>930</v>
       </c>
-      <c r="E90" s="39">
+      <c r="E90" s="38">
         <v>6505051876</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="37">
         <v>38517</v>
       </c>
       <c r="G90">
@@ -13551,10 +15117,10 @@
       <c r="D91" t="s">
         <v>931</v>
       </c>
-      <c r="E91" s="39">
+      <c r="E91" s="38">
         <v>6505052876</v>
       </c>
-      <c r="F91" s="38">
+      <c r="F91" s="37">
         <v>38577</v>
       </c>
       <c r="G91">
@@ -13577,10 +15143,10 @@
       <c r="D92" t="s">
         <v>932</v>
       </c>
-      <c r="E92" s="39">
+      <c r="E92" s="38">
         <v>6505053876</v>
       </c>
-      <c r="F92" s="38">
+      <c r="F92" s="37">
         <v>38909</v>
       </c>
       <c r="G92">
@@ -13603,10 +15169,10 @@
       <c r="D93" t="s">
         <v>933</v>
       </c>
-      <c r="E93" s="39">
+      <c r="E93" s="38">
         <v>6505054876</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F93" s="37">
         <v>39435</v>
       </c>
       <c r="G93">
@@ -13629,10 +15195,10 @@
       <c r="D94" t="s">
         <v>934</v>
       </c>
-      <c r="E94" s="39">
+      <c r="E94" s="38">
         <v>6505011876</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="37">
         <v>38021</v>
       </c>
       <c r="G94">
@@ -13655,10 +15221,10 @@
       <c r="D95" t="s">
         <v>935</v>
       </c>
-      <c r="E95" s="39">
+      <c r="E95" s="38">
         <v>6505012876</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="37">
         <v>38414</v>
       </c>
       <c r="G95">
@@ -13681,10 +15247,10 @@
       <c r="D96" t="s">
         <v>936</v>
       </c>
-      <c r="E96" s="39">
+      <c r="E96" s="38">
         <v>6505013876</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="37">
         <v>38899</v>
       </c>
       <c r="G96">
@@ -13707,10 +15273,10 @@
       <c r="D97" t="s">
         <v>937</v>
       </c>
-      <c r="E97" s="39">
+      <c r="E97" s="38">
         <v>6505014876</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="37">
         <v>39158</v>
       </c>
       <c r="G97">
@@ -13733,10 +15299,10 @@
       <c r="D98" t="s">
         <v>938</v>
       </c>
-      <c r="E98" s="39">
+      <c r="E98" s="38">
         <v>6505079811</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="37">
         <v>38831</v>
       </c>
       <c r="G98">
@@ -13759,10 +15325,10 @@
       <c r="D99" t="s">
         <v>939</v>
       </c>
-      <c r="E99" s="39">
+      <c r="E99" s="38">
         <v>6505079822</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="37">
         <v>38860</v>
       </c>
       <c r="G99">
@@ -13785,10 +15351,10 @@
       <c r="D100" t="s">
         <v>940</v>
       </c>
-      <c r="E100" s="39">
+      <c r="E100" s="38">
         <v>6505079833</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="37">
         <v>39254</v>
       </c>
       <c r="G100">
@@ -13811,10 +15377,10 @@
       <c r="D101" t="s">
         <v>941</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="38">
         <v>6505079844</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="37">
         <v>39460</v>
       </c>
       <c r="G101">
@@ -13837,10 +15403,10 @@
       <c r="D102" t="s">
         <v>942</v>
       </c>
-      <c r="E102" s="39">
+      <c r="E102" s="38">
         <v>5151234444</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="37">
         <v>37881</v>
       </c>
       <c r="G102">
@@ -13863,10 +15429,10 @@
       <c r="D103" t="s">
         <v>943</v>
       </c>
-      <c r="E103" s="39">
+      <c r="E103" s="38">
         <v>5151235555</v>
       </c>
-      <c r="F103" s="38">
+      <c r="F103" s="37">
         <v>38034</v>
       </c>
       <c r="G103">
@@ -13889,10 +15455,10 @@
       <c r="D104" t="s">
         <v>944</v>
       </c>
-      <c r="E104" s="39">
+      <c r="E104" s="38">
         <v>6031236666</v>
       </c>
-      <c r="F104" s="38">
+      <c r="F104" s="37">
         <v>38581</v>
       </c>
       <c r="G104">
@@ -13915,10 +15481,10 @@
       <c r="D105" t="s">
         <v>945</v>
       </c>
-      <c r="E105" s="39">
+      <c r="E105" s="38">
         <v>5151237777</v>
       </c>
-      <c r="F105" s="38">
+      <c r="F105" s="37">
         <v>37414</v>
       </c>
       <c r="G105">
@@ -13941,10 +15507,10 @@
       <c r="D106" t="s">
         <v>946</v>
       </c>
-      <c r="E106" s="39">
+      <c r="E106" s="38">
         <v>5151238888</v>
       </c>
-      <c r="F106" s="38">
+      <c r="F106" s="37">
         <v>37414</v>
       </c>
       <c r="G106">
@@ -13967,10 +15533,10 @@
       <c r="D107" t="s">
         <v>947</v>
       </c>
-      <c r="E107" s="39">
+      <c r="E107" s="38">
         <v>5151238080</v>
       </c>
-      <c r="F107" s="38">
+      <c r="F107" s="37">
         <v>37414</v>
       </c>
       <c r="G107">
@@ -13993,10 +15559,10 @@
       <c r="D108" t="s">
         <v>948</v>
       </c>
-      <c r="E108" s="39">
+      <c r="E108" s="38">
         <v>5151238181</v>
       </c>
-      <c r="F108" s="38">
+      <c r="F108" s="37">
         <v>37414</v>
       </c>
       <c r="G108">
@@ -14018,8 +15584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968705CC-026E-4DAA-B41B-06B4A23E9192}">
   <dimension ref="C5:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14044,11 +15610,11 @@
         <v>258</v>
       </c>
       <c r="F5" s="22"/>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>259</v>
       </c>
       <c r="H5" s="22"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>261</v>
       </c>
     </row>
@@ -14057,7 +15623,7 @@
         <v>257</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="24">
+      <c r="E6" s="51">
         <v>123</v>
       </c>
       <c r="F6" s="22"/>
@@ -14071,13 +15637,12 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="24">
+      <c r="C7" s="50"/>
+      <c r="E7" s="53">
         <v>3.14</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="24" t="b">
+      <c r="G7" s="55" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="22"/>
@@ -14087,28 +15652,28 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25">
+      <c r="C8" s="50"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="52">
         <v>44956</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="19" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="26">
+      <c r="C9" s="50"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="25">
         <v>44974.951585648145</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="19" t="e" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("")</f>
         <v>#REF!</v>
@@ -14122,11 +15687,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0700C252-1262-4999-866C-FB6660C75853}">
+  <dimension ref="A6:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B7" t="s">
+        <v>976</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D7">
+        <f>2+3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>977</v>
+      </c>
+      <c r="B8" t="s">
+        <v>978</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D8">
+        <f>3-2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>979</v>
+      </c>
+      <c r="B9" t="s">
+        <v>980</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D9">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>981</v>
+      </c>
+      <c r="B10" t="s">
+        <v>982</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>986</v>
+      </c>
+      <c r="D10">
+        <f>4/2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>987</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C16">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>988</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C17">
+        <f>(3+2) * 10</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F49360-AC51-4238-99A6-81570E6697CB}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14138,10 +15834,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="47"/>
       <c r="F1" s="2" t="s">
         <v>310</v>
       </c>
@@ -14277,7 +15973,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -14338,7 +16034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F8E3B5-554F-4D16-AC57-F84549ADE38B}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -14355,34 +16051,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="14" t="s">
@@ -15289,10 +16985,10 @@
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="P22" s="41"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
@@ -16323,15 +18019,15 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A2:J51">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$J2=$S$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$J2=$S$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:G51">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16340,19 +18036,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF75E77F-8A53-495B-8423-338ED4416D93}">
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="43"/>
-    <col min="8" max="8" width="25.7109375" style="43" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="7" width="9.140625" style="41"/>
+    <col min="8" max="8" width="25.7109375" style="41" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -16364,7 +18060,7 @@
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
-      <c r="T1" s="44"/>
+      <c r="T1" s="42"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2"/>
@@ -16614,7 +18310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBF5D9-8FB7-42E4-B0A4-B8AC86EC7EE1}">
   <dimension ref="A1:X17"/>
   <sheetViews>
@@ -16922,7 +18618,7 @@
         <f t="shared" si="2"/>
         <v>Angeline Zuniga</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>950</v>
       </c>
     </row>
@@ -17057,7 +18753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E2969B-5042-435B-96EE-9A63113DCFD9}">
   <dimension ref="A1:AH9097"/>
   <sheetViews>
@@ -17160,11 +18856,11 @@
       <c r="E2" t="s">
         <v>394</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <f>VALUE(SUBSTITUTE(E2,".",""))</f>
         <v>5151234567</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="37">
         <v>37789</v>
       </c>
       <c r="H2" t="s">
@@ -17182,14 +18878,14 @@
       </c>
       <c r="L2">
         <f ca="1">ROUND(YEARFRAC(G2,$O$2),2)</f>
-        <v>19.79</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="37">
         <f ca="1">TODAY()</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="V2" s="4"/>
     </row>
@@ -17210,11 +18906,11 @@
       <c r="E3" t="s">
         <v>400</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <f t="shared" ref="F3:F66" si="1">VALUE(SUBSTITUTE(E3,".",""))</f>
         <v>5151234568</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <v>38616</v>
       </c>
       <c r="H3" t="s">
@@ -17232,7 +18928,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" ca="1" si="3">ROUND(YEARFRAC(G3,$O$2),2)</f>
-        <v>17.53</v>
+        <v>17.57</v>
       </c>
       <c r="V3" s="4"/>
     </row>
@@ -17253,11 +18949,11 @@
       <c r="E4" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <f t="shared" si="1"/>
         <v>5151234569</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>36904</v>
       </c>
       <c r="H4" t="s">
@@ -17275,7 +18971,7 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>22.22</v>
+        <v>22.26</v>
       </c>
       <c r="V4" s="4"/>
     </row>
@@ -17296,11 +18992,11 @@
       <c r="E5" t="s">
         <v>409</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <f t="shared" si="1"/>
         <v>5904234567</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>38720</v>
       </c>
       <c r="H5" t="s">
@@ -17318,7 +19014,7 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="3"/>
-        <v>17.239999999999998</v>
+        <v>17.29</v>
       </c>
       <c r="V5" s="4"/>
     </row>
@@ -17339,11 +19035,11 @@
       <c r="E6" t="s">
         <v>415</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <f t="shared" si="1"/>
         <v>5904234568</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>39223</v>
       </c>
       <c r="H6" t="s">
@@ -17361,7 +19057,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="3"/>
-        <v>15.86</v>
+        <v>15.9</v>
       </c>
       <c r="V6" s="4"/>
     </row>
@@ -17382,11 +19078,11 @@
       <c r="E7" t="s">
         <v>419</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="38">
         <f t="shared" si="1"/>
         <v>5904234569</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>38528</v>
       </c>
       <c r="H7" t="s">
@@ -17404,7 +19100,7 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.77</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="V7" s="4"/>
     </row>
@@ -17425,11 +19121,11 @@
       <c r="E8" t="s">
         <v>423</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <f t="shared" si="1"/>
         <v>5904234560</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>38753</v>
       </c>
       <c r="H8" t="s">
@@ -17447,7 +19143,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="3"/>
-        <v>17.16</v>
+        <v>17.2</v>
       </c>
       <c r="V8" s="4"/>
     </row>
@@ -17468,11 +19164,11 @@
       <c r="E9" t="s">
         <v>427</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <f t="shared" si="1"/>
         <v>5904235567</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>39120</v>
       </c>
       <c r="H9" t="s">
@@ -17490,7 +19186,7 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="3"/>
-        <v>16.149999999999999</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="V9" s="4"/>
     </row>
@@ -17511,11 +19207,11 @@
       <c r="E10" t="s">
         <v>431</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <f t="shared" si="1"/>
         <v>5151244569</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>37485</v>
       </c>
       <c r="H10" t="s">
@@ -17533,7 +19229,7 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="3"/>
-        <v>20.62</v>
+        <v>20.66</v>
       </c>
       <c r="V10" s="4"/>
     </row>
@@ -17554,11 +19250,11 @@
       <c r="E11" t="s">
         <v>436</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <f t="shared" si="1"/>
         <v>5151244169</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>37484</v>
       </c>
       <c r="H11" t="s">
@@ -17576,7 +19272,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="3"/>
-        <v>20.63</v>
+        <v>20.67</v>
       </c>
       <c r="V11" s="4"/>
     </row>
@@ -17597,11 +19293,11 @@
       <c r="E12" t="s">
         <v>441</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <f t="shared" si="1"/>
         <v>5151244269</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>38623</v>
       </c>
       <c r="H12" t="s">
@@ -17619,7 +19315,7 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="3"/>
-        <v>17.510000000000002</v>
+        <v>17.55</v>
       </c>
       <c r="V12" s="4"/>
     </row>
@@ -17640,11 +19336,11 @@
       <c r="E13" t="s">
         <v>445</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="38">
         <f t="shared" si="1"/>
         <v>5151244369</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>38625</v>
       </c>
       <c r="H13" t="s">
@@ -17662,7 +19358,7 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>17.5</v>
+        <v>17.54</v>
       </c>
       <c r="V13" s="4"/>
     </row>
@@ -17683,11 +19379,11 @@
       <c r="E14" t="s">
         <v>449</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <f t="shared" si="1"/>
         <v>5151244469</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>38783</v>
       </c>
       <c r="H14" t="s">
@@ -17705,7 +19401,7 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>17.07</v>
+        <v>17.11</v>
       </c>
       <c r="V14" s="4"/>
     </row>
@@ -17726,11 +19422,11 @@
       <c r="E15" t="s">
         <v>453</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <f t="shared" si="1"/>
         <v>5151244567</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>39423</v>
       </c>
       <c r="H15" t="s">
@@ -17748,7 +19444,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>15.32</v>
+        <v>15.36</v>
       </c>
       <c r="V15" s="4"/>
     </row>
@@ -17769,11 +19465,11 @@
       <c r="E16" t="s">
         <v>457</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <f t="shared" si="1"/>
         <v>5151274561</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>37597</v>
       </c>
       <c r="H16" t="s">
@@ -17791,7 +19487,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>20.32</v>
+        <v>20.36</v>
       </c>
       <c r="V16" s="4"/>
     </row>
@@ -17812,11 +19508,11 @@
       <c r="E17" t="s">
         <v>462</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <f t="shared" si="1"/>
         <v>5151274562</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>37759</v>
       </c>
       <c r="H17" t="s">
@@ -17834,7 +19530,7 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>19.87</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -17854,11 +19550,11 @@
       <c r="E18" t="s">
         <v>467</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <f t="shared" si="1"/>
         <v>5151274563</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>38710</v>
       </c>
       <c r="H18" t="s">
@@ -17876,7 +19572,7 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="3"/>
-        <v>17.27</v>
+        <v>17.309999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -17896,11 +19592,11 @@
       <c r="E19" t="s">
         <v>471</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="38">
         <f t="shared" si="1"/>
         <v>5151274564</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>38557</v>
       </c>
       <c r="H19" t="s">
@@ -17918,7 +19614,7 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>17.690000000000001</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -17938,11 +19634,11 @@
       <c r="E20" t="s">
         <v>475</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="38">
         <f t="shared" si="1"/>
         <v>5151274565</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="37">
         <v>39036</v>
       </c>
       <c r="H20" t="s">
@@ -17960,7 +19656,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="3"/>
-        <v>16.38</v>
+        <v>16.420000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -17980,11 +19676,11 @@
       <c r="E21" t="s">
         <v>479</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <f t="shared" si="1"/>
         <v>5151274566</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="37">
         <v>39304</v>
       </c>
       <c r="H21" t="s">
@@ -18002,7 +19698,7 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="3"/>
-        <v>15.64</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -18022,11 +19718,11 @@
       <c r="E22" t="s">
         <v>483</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <f t="shared" si="1"/>
         <v>6501231234</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <v>38186</v>
       </c>
       <c r="H22" t="s">
@@ -18044,7 +19740,7 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="3"/>
-        <v>18.7</v>
+        <v>18.739999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -18064,11 +19760,11 @@
       <c r="E23" t="s">
         <v>489</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="38">
         <f t="shared" si="1"/>
         <v>6501232234</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <v>38452</v>
       </c>
       <c r="H23" t="s">
@@ -18082,11 +19778,11 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="3"/>
-        <v>17.98</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -18106,11 +19802,11 @@
       <c r="E24" t="s">
         <v>493</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="38">
         <f t="shared" si="1"/>
         <v>6501233234</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="37">
         <v>37742</v>
       </c>
       <c r="H24" t="s">
@@ -18128,7 +19824,7 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="3"/>
-        <v>19.920000000000002</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -18148,11 +19844,11 @@
       <c r="E25" t="s">
         <v>497</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="38">
         <f t="shared" si="1"/>
         <v>6501234234</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="37">
         <v>38635</v>
       </c>
       <c r="H25" t="s">
@@ -18170,7 +19866,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="3"/>
-        <v>17.48</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -18190,11 +19886,11 @@
       <c r="E26" t="s">
         <v>501</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="38">
         <f t="shared" si="1"/>
         <v>6501235234</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="37">
         <v>39402</v>
       </c>
       <c r="H26" t="s">
@@ -18212,7 +19908,7 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="3"/>
-        <v>15.38</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -18232,11 +19928,11 @@
       <c r="E27" t="s">
         <v>505</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="38">
         <f t="shared" si="1"/>
         <v>6501241214</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="37">
         <v>38549</v>
       </c>
       <c r="H27" t="s">
@@ -18254,7 +19950,7 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="3"/>
-        <v>17.71</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -18274,11 +19970,11 @@
       <c r="E28" t="s">
         <v>510</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="38">
         <f t="shared" si="1"/>
         <v>6501241224</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="37">
         <v>38988</v>
       </c>
       <c r="H28" t="s">
@@ -18296,7 +19992,7 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="3"/>
-        <v>16.510000000000002</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -18316,11 +20012,11 @@
       <c r="E29" t="s">
         <v>514</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="38">
         <f t="shared" si="1"/>
         <v>6501241334</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="37">
         <v>39096</v>
       </c>
       <c r="H29" t="s">
@@ -18338,7 +20034,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="3"/>
-        <v>16.21</v>
+        <v>16.260000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -18358,11 +20054,11 @@
       <c r="E30" t="s">
         <v>517</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="38">
         <f t="shared" si="1"/>
         <v>6501241434</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="37">
         <v>39515</v>
       </c>
       <c r="H30" t="s">
@@ -18380,7 +20076,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="3"/>
-        <v>15.06</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -18400,11 +20096,11 @@
       <c r="E31" t="s">
         <v>521</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <f t="shared" si="1"/>
         <v>6501245234</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="37">
         <v>38584</v>
       </c>
       <c r="H31" t="s">
@@ -18422,7 +20118,7 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="3"/>
-        <v>17.61</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -18442,11 +20138,11 @@
       <c r="E32" t="s">
         <v>525</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="38">
         <f t="shared" si="1"/>
         <v>6501246234</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="37">
         <v>38655</v>
       </c>
       <c r="H32" t="s">
@@ -18464,7 +20160,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="3"/>
-        <v>17.420000000000002</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -18484,11 +20180,11 @@
       <c r="E33" t="s">
         <v>528</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="38">
         <f t="shared" si="1"/>
         <v>6501247234</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="37">
         <v>38399</v>
       </c>
       <c r="H33" t="s">
@@ -18506,7 +20202,7 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="3"/>
-        <v>18.13</v>
+        <v>18.170000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -18526,11 +20222,11 @@
       <c r="E34" t="s">
         <v>532</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <f t="shared" si="1"/>
         <v>6501248234</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="37">
         <v>39182</v>
       </c>
       <c r="H34" t="s">
@@ -18544,11 +20240,11 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="3"/>
-        <v>15.98</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -18568,11 +20264,11 @@
       <c r="E35" t="s">
         <v>536</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="38">
         <f t="shared" si="1"/>
         <v>6501271934</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="37">
         <v>38152</v>
       </c>
       <c r="H35" t="s">
@@ -18590,7 +20286,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="3"/>
-        <v>18.8</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -18610,11 +20306,11 @@
       <c r="E36" t="s">
         <v>540</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="38">
         <f t="shared" si="1"/>
         <v>6501271834</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="37">
         <v>38955</v>
       </c>
       <c r="H36" t="s">
@@ -18632,7 +20328,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="3"/>
-        <v>16.600000000000001</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -18652,11 +20348,11 @@
       <c r="E37" t="s">
         <v>544</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="38">
         <f t="shared" si="1"/>
         <v>6501271734</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="37">
         <v>39428</v>
       </c>
       <c r="H37" t="s">
@@ -18674,7 +20370,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="3"/>
-        <v>15.3</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -18694,11 +20390,11 @@
       <c r="E38" t="s">
         <v>548</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="38">
         <f t="shared" si="1"/>
         <v>6501271634</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="37">
         <v>39484</v>
       </c>
       <c r="H38" t="s">
@@ -18716,7 +20412,7 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="3"/>
-        <v>15.15</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -18736,11 +20432,11 @@
       <c r="E39" t="s">
         <v>552</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="38">
         <f t="shared" si="1"/>
         <v>6501211234</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="37">
         <v>37816</v>
       </c>
       <c r="H39" t="s">
@@ -18758,7 +20454,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="3"/>
-        <v>19.71</v>
+        <v>19.760000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -18778,11 +20474,11 @@
       <c r="E40" t="s">
         <v>556</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="38">
         <f t="shared" si="1"/>
         <v>6501212034</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="37">
         <v>38651</v>
       </c>
       <c r="H40" t="s">
@@ -18800,7 +20496,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="3"/>
-        <v>17.43</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -18820,11 +20516,11 @@
       <c r="E41" t="s">
         <v>559</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="38">
         <f t="shared" si="1"/>
         <v>6501212019</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="37">
         <v>38760</v>
       </c>
       <c r="H41" t="s">
@@ -18842,7 +20538,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="3"/>
-        <v>17.14</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -18862,11 +20558,11 @@
       <c r="E42" t="s">
         <v>563</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="38">
         <f t="shared" si="1"/>
         <v>6501211834</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="37">
         <v>38813</v>
       </c>
       <c r="H42" t="s">
@@ -18880,11 +20576,11 @@
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="3"/>
-        <v>16.989999999999998</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -18904,11 +20600,11 @@
       <c r="E43" t="s">
         <v>567</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="38">
         <f t="shared" si="1"/>
         <v>6501218009</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="37">
         <v>37911</v>
       </c>
       <c r="H43" t="s">
@@ -18926,7 +20622,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="3"/>
-        <v>19.46</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -18946,11 +20642,11 @@
       <c r="E44" t="s">
         <v>571</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="38">
         <f t="shared" si="1"/>
         <v>6501212994</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="37">
         <v>38381</v>
       </c>
       <c r="H44" t="s">
@@ -18968,7 +20664,7 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="3"/>
-        <v>18.170000000000002</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -18988,11 +20684,11 @@
       <c r="E45" t="s">
         <v>575</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="38">
         <f t="shared" si="1"/>
         <v>6501212874</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="37">
         <v>38791</v>
       </c>
       <c r="H45" t="s">
@@ -19010,7 +20706,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="3"/>
-        <v>17.04</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -19030,11 +20726,11 @@
       <c r="E46" t="s">
         <v>579</v>
       </c>
-      <c r="F46" s="39">
+      <c r="F46" s="38">
         <f t="shared" si="1"/>
         <v>6501212004</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="37">
         <v>38907</v>
       </c>
       <c r="H46" t="s">
@@ -19052,7 +20748,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="3"/>
-        <v>16.73</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -19072,11 +20768,11 @@
       <c r="E47" t="s">
         <v>582</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="38">
         <f t="shared" si="1"/>
         <v>11441344429268</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="37">
         <v>38261</v>
       </c>
       <c r="H47" t="s">
@@ -19094,7 +20790,7 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="3"/>
-        <v>18.5</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -19114,11 +20810,11 @@
       <c r="E48" t="s">
         <v>587</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F48" s="38">
         <f t="shared" si="1"/>
         <v>11441344467268</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="37">
         <v>38357</v>
       </c>
       <c r="H48" t="s">
@@ -19136,7 +20832,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="3"/>
-        <v>18.239999999999998</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -19156,11 +20852,11 @@
       <c r="E49" t="s">
         <v>591</v>
       </c>
-      <c r="F49" s="39">
+      <c r="F49" s="38">
         <f t="shared" si="1"/>
         <v>11441344429278</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="37">
         <v>38421</v>
       </c>
       <c r="H49" t="s">
@@ -19178,7 +20874,7 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="3"/>
-        <v>18.059999999999999</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -19198,11 +20894,11 @@
       <c r="E50" t="s">
         <v>595</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="38">
         <f t="shared" si="1"/>
         <v>11441344619268</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="37">
         <v>39370</v>
       </c>
       <c r="H50" t="s">
@@ -19220,7 +20916,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="3"/>
-        <v>15.46</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -19240,11 +20936,11 @@
       <c r="E51" t="s">
         <v>599</v>
       </c>
-      <c r="F51" s="39">
+      <c r="F51" s="38">
         <f t="shared" si="1"/>
         <v>11441344429018</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51" s="37">
         <v>39476</v>
       </c>
       <c r="H51" t="s">
@@ -19262,7 +20958,7 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="3"/>
-        <v>15.17</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -19282,11 +20978,11 @@
       <c r="E52" t="s">
         <v>602</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F52" s="38">
         <f t="shared" si="1"/>
         <v>11441344129268</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="37">
         <v>38382</v>
       </c>
       <c r="H52" t="s">
@@ -19304,7 +21000,7 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="3"/>
-        <v>18.170000000000002</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -19324,11 +21020,11 @@
       <c r="E53" t="s">
         <v>606</v>
       </c>
-      <c r="F53" s="39">
+      <c r="F53" s="38">
         <f t="shared" si="1"/>
         <v>11441344345268</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="37">
         <v>38435</v>
       </c>
       <c r="H53" t="s">
@@ -19346,7 +21042,7 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="3"/>
-        <v>18.02</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -19366,11 +21062,11 @@
       <c r="E54" t="s">
         <v>609</v>
       </c>
-      <c r="F54" s="39">
+      <c r="F54" s="38">
         <f t="shared" si="1"/>
         <v>11441344478968</v>
       </c>
-      <c r="G54" s="38">
+      <c r="G54" s="37">
         <v>38584</v>
       </c>
       <c r="H54" t="s">
@@ -19388,7 +21084,7 @@
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="3"/>
-        <v>17.61</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -19408,11 +21104,11 @@
       <c r="E55" t="s">
         <v>613</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F55" s="38">
         <f t="shared" si="1"/>
         <v>11441344498718</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="37">
         <v>38806</v>
       </c>
       <c r="H55" t="s">
@@ -19430,7 +21126,7 @@
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -19450,11 +21146,11 @@
       <c r="E56" t="s">
         <v>616</v>
       </c>
-      <c r="F56" s="39">
+      <c r="F56" s="38">
         <f t="shared" si="1"/>
         <v>11441344987668</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="37">
         <v>39060</v>
       </c>
       <c r="H56" t="s">
@@ -19472,7 +21168,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="3"/>
-        <v>16.309999999999999</v>
+        <v>16.350000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -19492,11 +21188,11 @@
       <c r="E57" t="s">
         <v>620</v>
       </c>
-      <c r="F57" s="39">
+      <c r="F57" s="38">
         <f t="shared" si="1"/>
         <v>11441344486508</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57" s="37">
         <v>39409</v>
       </c>
       <c r="H57" t="s">
@@ -19514,7 +21210,7 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="3"/>
-        <v>15.36</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -19534,11 +21230,11 @@
       <c r="E58" t="s">
         <v>623</v>
       </c>
-      <c r="F58" s="39">
+      <c r="F58" s="38">
         <f t="shared" si="1"/>
         <v>11441345429268</v>
       </c>
-      <c r="G58" s="38">
+      <c r="G58" s="37">
         <v>38016</v>
       </c>
       <c r="H58" t="s">
@@ -19556,7 +21252,7 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="3"/>
-        <v>19.170000000000002</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -19576,11 +21272,11 @@
       <c r="E59" t="s">
         <v>627</v>
       </c>
-      <c r="F59" s="39">
+      <c r="F59" s="38">
         <f t="shared" si="1"/>
         <v>11441345929268</v>
       </c>
-      <c r="G59" s="38">
+      <c r="G59" s="37">
         <v>38050</v>
       </c>
       <c r="H59" t="s">
@@ -19598,7 +21294,7 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="3"/>
-        <v>19.079999999999998</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -19618,11 +21314,11 @@
       <c r="E60" t="s">
         <v>631</v>
       </c>
-      <c r="F60" s="39">
+      <c r="F60" s="38">
         <f t="shared" si="1"/>
         <v>11441345829268</v>
       </c>
-      <c r="G60" s="38">
+      <c r="G60" s="37">
         <v>38200</v>
       </c>
       <c r="H60" t="s">
@@ -19640,7 +21336,7 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="3"/>
-        <v>18.670000000000002</v>
+        <v>18.71</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -19660,11 +21356,11 @@
       <c r="E61" t="s">
         <v>635</v>
       </c>
-      <c r="F61" s="39">
+      <c r="F61" s="38">
         <f t="shared" si="1"/>
         <v>11441345729268</v>
       </c>
-      <c r="G61" s="38">
+      <c r="G61" s="37">
         <v>38421</v>
       </c>
       <c r="H61" t="s">
@@ -19682,7 +21378,7 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="3"/>
-        <v>18.059999999999999</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -19702,11 +21398,11 @@
       <c r="E62" t="s">
         <v>639</v>
       </c>
-      <c r="F62" s="39">
+      <c r="F62" s="38">
         <f t="shared" si="1"/>
         <v>11441345629268</v>
       </c>
-      <c r="G62" s="38">
+      <c r="G62" s="37">
         <v>38701</v>
       </c>
       <c r="H62" t="s">
@@ -19724,7 +21420,7 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="3"/>
-        <v>17.29</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -19744,11 +21440,11 @@
       <c r="E63" t="s">
         <v>643</v>
       </c>
-      <c r="F63" s="39">
+      <c r="F63" s="38">
         <f t="shared" si="1"/>
         <v>11441345529268</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="37">
         <v>39024</v>
       </c>
       <c r="H63" t="s">
@@ -19766,7 +21462,7 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="3"/>
-        <v>16.41</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -19786,11 +21482,11 @@
       <c r="E64" t="s">
         <v>647</v>
       </c>
-      <c r="F64" s="39">
+      <c r="F64" s="38">
         <f t="shared" si="1"/>
         <v>11441346129268</v>
       </c>
-      <c r="G64" s="38">
+      <c r="G64" s="37">
         <v>38667</v>
       </c>
       <c r="H64" t="s">
@@ -19808,7 +21504,7 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="3"/>
-        <v>17.39</v>
+        <v>17.43</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -19828,11 +21524,11 @@
       <c r="E65" t="s">
         <v>651</v>
       </c>
-      <c r="F65" s="39">
+      <c r="F65" s="38">
         <f t="shared" si="1"/>
         <v>11441346229268</v>
       </c>
-      <c r="G65" s="38">
+      <c r="G65" s="37">
         <v>39160</v>
       </c>
       <c r="H65" t="s">
@@ -19850,7 +21546,7 @@
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="3"/>
-        <v>16.03</v>
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -19870,11 +21566,11 @@
       <c r="E66" t="s">
         <v>655</v>
       </c>
-      <c r="F66" s="39">
+      <c r="F66" s="38">
         <f t="shared" si="1"/>
         <v>11441346329268</v>
       </c>
-      <c r="G66" s="38">
+      <c r="G66" s="37">
         <v>39471</v>
       </c>
       <c r="H66" t="s">
@@ -19892,7 +21588,7 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="3"/>
-        <v>15.19</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -19912,11 +21608,11 @@
       <c r="E67" t="s">
         <v>658</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="38">
         <f t="shared" ref="F67:F108" si="5">VALUE(SUBSTITUTE(E67,".",""))</f>
         <v>11441346529268</v>
       </c>
-      <c r="G67" s="38">
+      <c r="G67" s="37">
         <v>39501</v>
       </c>
       <c r="H67" t="s">
@@ -19934,7 +21630,7 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L108" ca="1" si="7">ROUND(YEARFRAC(G67,$O$2),2)</f>
-        <v>15.11</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -19954,11 +21650,11 @@
       <c r="E68" t="s">
         <v>662</v>
       </c>
-      <c r="F68" s="39">
+      <c r="F68" s="38">
         <f t="shared" si="5"/>
         <v>11441346629268</v>
       </c>
-      <c r="G68" s="38">
+      <c r="G68" s="37">
         <v>39531</v>
       </c>
       <c r="H68" t="s">
@@ -19976,7 +21672,7 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="7"/>
-        <v>15.02</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -19996,11 +21692,11 @@
       <c r="E69" t="s">
         <v>666</v>
       </c>
-      <c r="F69" s="39">
+      <c r="F69" s="38">
         <f t="shared" si="5"/>
         <v>11441346729268</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G69" s="37">
         <v>39559</v>
       </c>
       <c r="H69" t="s">
@@ -20018,7 +21714,7 @@
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="7"/>
-        <v>14.94</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -20038,11 +21734,11 @@
       <c r="E70" t="s">
         <v>670</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="38">
         <f t="shared" si="5"/>
         <v>11441343929268</v>
       </c>
-      <c r="G70" s="38">
+      <c r="G70" s="37">
         <v>38422</v>
       </c>
       <c r="H70" t="s">
@@ -20060,7 +21756,7 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="7"/>
-        <v>18.059999999999999</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -20080,11 +21776,11 @@
       <c r="E71" t="s">
         <v>674</v>
       </c>
-      <c r="F71" s="39">
+      <c r="F71" s="38">
         <f t="shared" si="5"/>
         <v>11441343829268</v>
       </c>
-      <c r="G71" s="38">
+      <c r="G71" s="37">
         <v>38799</v>
       </c>
       <c r="H71" t="s">
@@ -20102,7 +21798,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="7"/>
-        <v>17.02</v>
+        <v>17.059999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -20122,11 +21818,11 @@
       <c r="E72" t="s">
         <v>678</v>
       </c>
-      <c r="F72" s="39">
+      <c r="F72" s="38">
         <f t="shared" si="5"/>
         <v>11441343729268</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="37">
         <v>38741</v>
       </c>
       <c r="H72" t="s">
@@ -20144,7 +21840,7 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="7"/>
-        <v>17.190000000000001</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -20164,11 +21860,11 @@
       <c r="E73" t="s">
         <v>681</v>
       </c>
-      <c r="F73" s="39">
+      <c r="F73" s="38">
         <f t="shared" si="5"/>
         <v>11441343629268</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G73" s="37">
         <v>39136</v>
       </c>
       <c r="H73" t="s">
@@ -20186,7 +21882,7 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="7"/>
-        <v>16.11</v>
+        <v>16.149999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -20206,11 +21902,11 @@
       <c r="E74" t="s">
         <v>685</v>
       </c>
-      <c r="F74" s="39">
+      <c r="F74" s="38">
         <f t="shared" si="5"/>
         <v>11441343529268</v>
       </c>
-      <c r="G74" s="38">
+      <c r="G74" s="37">
         <v>39165</v>
       </c>
       <c r="H74" t="s">
@@ -20228,7 +21924,7 @@
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="7"/>
-        <v>16.02</v>
+        <v>16.059999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -20248,11 +21944,11 @@
       <c r="E75" t="s">
         <v>688</v>
       </c>
-      <c r="F75" s="39">
+      <c r="F75" s="38">
         <f t="shared" si="5"/>
         <v>11441343329268</v>
       </c>
-      <c r="G75" s="38">
+      <c r="G75" s="37">
         <v>39559</v>
       </c>
       <c r="H75" t="s">
@@ -20270,7 +21966,7 @@
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="7"/>
-        <v>14.94</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -20290,11 +21986,11 @@
       <c r="E76" t="s">
         <v>692</v>
       </c>
-      <c r="F76" s="39">
+      <c r="F76" s="38">
         <f t="shared" si="5"/>
         <v>11441644429267</v>
       </c>
-      <c r="G76" s="38">
+      <c r="G76" s="37">
         <v>38118</v>
       </c>
       <c r="H76" t="s">
@@ -20312,7 +22008,7 @@
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="7"/>
-        <v>18.89</v>
+        <v>18.93</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -20332,11 +22028,11 @@
       <c r="E77" t="s">
         <v>696</v>
       </c>
-      <c r="F77" s="39">
+      <c r="F77" s="38">
         <f t="shared" si="5"/>
         <v>11441644429266</v>
       </c>
-      <c r="G77" s="38">
+      <c r="G77" s="37">
         <v>38430</v>
       </c>
       <c r="H77" t="s">
@@ -20354,7 +22050,7 @@
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="7"/>
-        <v>18.03</v>
+        <v>18.079999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -20374,11 +22070,11 @@
       <c r="E78" t="s">
         <v>700</v>
       </c>
-      <c r="F78" s="39">
+      <c r="F78" s="38">
         <f t="shared" si="5"/>
         <v>11441644429265</v>
       </c>
-      <c r="G78" s="38">
+      <c r="G78" s="37">
         <v>38800</v>
       </c>
       <c r="H78" t="s">
@@ -20396,7 +22092,7 @@
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="7"/>
-        <v>17.02</v>
+        <v>17.059999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -20416,11 +22112,11 @@
       <c r="E79" t="s">
         <v>704</v>
       </c>
-      <c r="F79" s="39">
+      <c r="F79" s="38">
         <f t="shared" si="5"/>
         <v>11441644429264</v>
       </c>
-      <c r="G79" s="38">
+      <c r="G79" s="37">
         <v>38830</v>
       </c>
       <c r="H79" t="s">
@@ -20438,7 +22134,7 @@
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="7"/>
-        <v>16.940000000000001</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -20458,11 +22154,11 @@
       <c r="E80" t="s">
         <v>708</v>
       </c>
-      <c r="F80" s="39">
+      <c r="F80" s="38">
         <f t="shared" si="5"/>
         <v>11441644429263</v>
       </c>
-      <c r="G80" s="38">
+      <c r="G80" s="37">
         <v>39226</v>
       </c>
       <c r="H80" t="s">
@@ -20480,7 +22176,7 @@
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="7"/>
-        <v>15.85</v>
+        <v>15.89</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -20500,11 +22196,11 @@
       <c r="E81" t="s">
         <v>712</v>
       </c>
-      <c r="F81" s="39">
+      <c r="F81" s="38">
         <f t="shared" si="5"/>
         <v>11441644429262</v>
       </c>
-      <c r="G81" s="38">
+      <c r="G81" s="37">
         <v>39451</v>
       </c>
       <c r="H81" t="s">
@@ -20522,7 +22218,7 @@
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="7"/>
-        <v>15.24</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -20542,11 +22238,11 @@
       <c r="E82" t="s">
         <v>715</v>
       </c>
-      <c r="F82" s="39">
+      <c r="F82" s="38">
         <f t="shared" si="5"/>
         <v>6505079876</v>
       </c>
-      <c r="G82" s="38">
+      <c r="G82" s="37">
         <v>38741</v>
       </c>
       <c r="H82" t="s">
@@ -20564,7 +22260,7 @@
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="7"/>
-        <v>17.190000000000001</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -20584,11 +22280,11 @@
       <c r="E83" t="s">
         <v>720</v>
       </c>
-      <c r="F83" s="39">
+      <c r="F83" s="38">
         <f t="shared" si="5"/>
         <v>6505079877</v>
       </c>
-      <c r="G83" s="38">
+      <c r="G83" s="37">
         <v>38771</v>
       </c>
       <c r="H83" t="s">
@@ -20606,7 +22302,7 @@
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="7"/>
-        <v>17.11</v>
+        <v>17.149999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -20626,11 +22322,11 @@
       <c r="E84" t="s">
         <v>724</v>
       </c>
-      <c r="F84" s="39">
+      <c r="F84" s="38">
         <f t="shared" si="5"/>
         <v>6505079878</v>
       </c>
-      <c r="G84" s="38">
+      <c r="G84" s="37">
         <v>39254</v>
       </c>
       <c r="H84" t="s">
@@ -20648,7 +22344,7 @@
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="7"/>
-        <v>15.78</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -20668,11 +22364,11 @@
       <c r="E85" t="s">
         <v>728</v>
       </c>
-      <c r="F85" s="39">
+      <c r="F85" s="38">
         <f t="shared" si="5"/>
         <v>6505079879</v>
       </c>
-      <c r="G85" s="38">
+      <c r="G85" s="37">
         <v>39481</v>
       </c>
       <c r="H85" t="s">
@@ -20690,7 +22386,7 @@
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="7"/>
-        <v>15.16</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -20710,11 +22406,11 @@
       <c r="E86" t="s">
         <v>732</v>
       </c>
-      <c r="F86" s="39">
+      <c r="F86" s="38">
         <f t="shared" si="5"/>
         <v>6505091876</v>
       </c>
-      <c r="G86" s="38">
+      <c r="G86" s="37">
         <v>38013</v>
       </c>
       <c r="H86" t="s">
@@ -20732,7 +22428,7 @@
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="7"/>
-        <v>19.18</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -20752,11 +22448,11 @@
       <c r="E87" t="s">
         <v>736</v>
       </c>
-      <c r="F87" s="39">
+      <c r="F87" s="38">
         <f t="shared" si="5"/>
         <v>6505092876</v>
       </c>
-      <c r="G87" s="38">
+      <c r="G87" s="37">
         <v>38403</v>
       </c>
       <c r="H87" t="s">
@@ -20774,7 +22470,7 @@
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="7"/>
-        <v>18.11</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -20794,11 +22490,11 @@
       <c r="E88" t="s">
         <v>739</v>
       </c>
-      <c r="F88" s="39">
+      <c r="F88" s="38">
         <f t="shared" si="5"/>
         <v>6505093876</v>
       </c>
-      <c r="G88" s="38">
+      <c r="G88" s="37">
         <v>38892</v>
       </c>
       <c r="H88" t="s">
@@ -20816,7 +22512,7 @@
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="7"/>
-        <v>16.77</v>
+        <v>16.809999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -20836,11 +22532,11 @@
       <c r="E89" t="s">
         <v>743</v>
       </c>
-      <c r="F89" s="39">
+      <c r="F89" s="38">
         <f t="shared" si="5"/>
         <v>6505094876</v>
       </c>
-      <c r="G89" s="38">
+      <c r="G89" s="37">
         <v>39120</v>
       </c>
       <c r="H89" t="s">
@@ -20858,7 +22554,7 @@
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="7"/>
-        <v>16.149999999999999</v>
+        <v>16.190000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -20878,11 +22574,11 @@
       <c r="E90" t="s">
         <v>747</v>
       </c>
-      <c r="F90" s="39">
+      <c r="F90" s="38">
         <f t="shared" si="5"/>
         <v>6505051876</v>
       </c>
-      <c r="G90" s="38">
+      <c r="G90" s="37">
         <v>38517</v>
       </c>
       <c r="H90" t="s">
@@ -20900,7 +22596,7 @@
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="7"/>
-        <v>17.8</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -20920,11 +22616,11 @@
       <c r="E91" t="s">
         <v>751</v>
       </c>
-      <c r="F91" s="39">
+      <c r="F91" s="38">
         <f t="shared" si="5"/>
         <v>6505052876</v>
       </c>
-      <c r="G91" s="38">
+      <c r="G91" s="37">
         <v>38577</v>
       </c>
       <c r="H91" t="s">
@@ -20942,7 +22638,7 @@
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="7"/>
-        <v>17.63</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -20962,11 +22658,11 @@
       <c r="E92" t="s">
         <v>755</v>
       </c>
-      <c r="F92" s="39">
+      <c r="F92" s="38">
         <f t="shared" si="5"/>
         <v>6505053876</v>
       </c>
-      <c r="G92" s="38">
+      <c r="G92" s="37">
         <v>38909</v>
       </c>
       <c r="H92" t="s">
@@ -20984,7 +22680,7 @@
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="7"/>
-        <v>16.72</v>
+        <v>16.760000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -21004,11 +22700,11 @@
       <c r="E93" t="s">
         <v>758</v>
       </c>
-      <c r="F93" s="39">
+      <c r="F93" s="38">
         <f t="shared" si="5"/>
         <v>6505054876</v>
       </c>
-      <c r="G93" s="38">
+      <c r="G93" s="37">
         <v>39435</v>
       </c>
       <c r="H93" t="s">
@@ -21026,7 +22722,7 @@
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="7"/>
-        <v>15.28</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -21046,11 +22742,11 @@
       <c r="E94" t="s">
         <v>762</v>
       </c>
-      <c r="F94" s="39">
+      <c r="F94" s="38">
         <f t="shared" si="5"/>
         <v>6505011876</v>
       </c>
-      <c r="G94" s="38">
+      <c r="G94" s="37">
         <v>38021</v>
       </c>
       <c r="H94" t="s">
@@ -21068,7 +22764,7 @@
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="7"/>
-        <v>19.16</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -21088,11 +22784,11 @@
       <c r="E95" t="s">
         <v>766</v>
       </c>
-      <c r="F95" s="39">
+      <c r="F95" s="38">
         <f t="shared" si="5"/>
         <v>6505012876</v>
       </c>
-      <c r="G95" s="38">
+      <c r="G95" s="37">
         <v>38414</v>
       </c>
       <c r="H95" t="s">
@@ -21110,7 +22806,7 @@
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="7"/>
-        <v>18.079999999999998</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -21130,11 +22826,11 @@
       <c r="E96" t="s">
         <v>770</v>
       </c>
-      <c r="F96" s="39">
+      <c r="F96" s="38">
         <f t="shared" si="5"/>
         <v>6505013876</v>
       </c>
-      <c r="G96" s="38">
+      <c r="G96" s="37">
         <v>38899</v>
       </c>
       <c r="H96" t="s">
@@ -21152,7 +22848,7 @@
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="7"/>
-        <v>16.75</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -21172,11 +22868,11 @@
       <c r="E97" t="s">
         <v>774</v>
       </c>
-      <c r="F97" s="39">
+      <c r="F97" s="38">
         <f t="shared" si="5"/>
         <v>6505014876</v>
       </c>
-      <c r="G97" s="38">
+      <c r="G97" s="37">
         <v>39158</v>
       </c>
       <c r="H97" t="s">
@@ -21194,7 +22890,7 @@
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="7"/>
-        <v>16.04</v>
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -21214,11 +22910,11 @@
       <c r="E98" t="s">
         <v>778</v>
       </c>
-      <c r="F98" s="39">
+      <c r="F98" s="38">
         <f t="shared" si="5"/>
         <v>6505079811</v>
       </c>
-      <c r="G98" s="38">
+      <c r="G98" s="37">
         <v>38831</v>
       </c>
       <c r="H98" t="s">
@@ -21236,7 +22932,7 @@
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="7"/>
-        <v>16.940000000000001</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -21256,11 +22952,11 @@
       <c r="E99" t="s">
         <v>781</v>
       </c>
-      <c r="F99" s="39">
+      <c r="F99" s="38">
         <f t="shared" si="5"/>
         <v>6505079822</v>
       </c>
-      <c r="G99" s="38">
+      <c r="G99" s="37">
         <v>38860</v>
       </c>
       <c r="H99" t="s">
@@ -21278,7 +22974,7 @@
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="7"/>
-        <v>16.86</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -21298,11 +22994,11 @@
       <c r="E100" t="s">
         <v>785</v>
       </c>
-      <c r="F100" s="39">
+      <c r="F100" s="38">
         <f t="shared" si="5"/>
         <v>6505079833</v>
       </c>
-      <c r="G100" s="38">
+      <c r="G100" s="37">
         <v>39254</v>
       </c>
       <c r="H100" t="s">
@@ -21320,7 +23016,7 @@
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="7"/>
-        <v>15.78</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -21340,11 +23036,11 @@
       <c r="E101" t="s">
         <v>788</v>
       </c>
-      <c r="F101" s="39">
+      <c r="F101" s="38">
         <f t="shared" si="5"/>
         <v>6505079844</v>
       </c>
-      <c r="G101" s="38">
+      <c r="G101" s="37">
         <v>39460</v>
       </c>
       <c r="H101" t="s">
@@ -21362,7 +23058,7 @@
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="7"/>
-        <v>15.22</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -21382,11 +23078,11 @@
       <c r="E102" t="s">
         <v>791</v>
       </c>
-      <c r="F102" s="39">
+      <c r="F102" s="38">
         <f t="shared" si="5"/>
         <v>5151234444</v>
       </c>
-      <c r="G102" s="38">
+      <c r="G102" s="37">
         <v>37881</v>
       </c>
       <c r="H102" t="s">
@@ -21404,7 +23100,7 @@
       </c>
       <c r="L102">
         <f t="shared" ca="1" si="7"/>
-        <v>19.54</v>
+        <v>19.579999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -21424,11 +23120,11 @@
       <c r="E103" t="s">
         <v>796</v>
       </c>
-      <c r="F103" s="39">
+      <c r="F103" s="38">
         <f t="shared" si="5"/>
         <v>5151235555</v>
       </c>
-      <c r="G103" s="38">
+      <c r="G103" s="37">
         <v>38034</v>
       </c>
       <c r="H103" t="s">
@@ -21446,7 +23142,7 @@
       </c>
       <c r="L103">
         <f t="shared" ca="1" si="7"/>
-        <v>19.12</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -21466,11 +23162,11 @@
       <c r="E104" t="s">
         <v>802</v>
       </c>
-      <c r="F104" s="39">
+      <c r="F104" s="38">
         <f t="shared" si="5"/>
         <v>6031236666</v>
       </c>
-      <c r="G104" s="38">
+      <c r="G104" s="37">
         <v>38581</v>
       </c>
       <c r="H104" t="s">
@@ -21488,7 +23184,7 @@
       </c>
       <c r="L104">
         <f t="shared" ca="1" si="7"/>
-        <v>17.62</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -21508,11 +23204,11 @@
       <c r="E105" t="s">
         <v>807</v>
       </c>
-      <c r="F105" s="39">
+      <c r="F105" s="38">
         <f t="shared" si="5"/>
         <v>5151237777</v>
       </c>
-      <c r="G105" s="38">
+      <c r="G105" s="37">
         <v>37414</v>
       </c>
       <c r="H105" t="s">
@@ -21530,7 +23226,7 @@
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="7"/>
-        <v>20.82</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -21550,11 +23246,11 @@
       <c r="E106" t="s">
         <v>813</v>
       </c>
-      <c r="F106" s="39">
+      <c r="F106" s="38">
         <f t="shared" si="5"/>
         <v>5151238888</v>
       </c>
-      <c r="G106" s="38">
+      <c r="G106" s="37">
         <v>37414</v>
       </c>
       <c r="H106" t="s">
@@ -21572,7 +23268,7 @@
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="7"/>
-        <v>20.82</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -21592,11 +23288,11 @@
       <c r="E107" t="s">
         <v>819</v>
       </c>
-      <c r="F107" s="39">
+      <c r="F107" s="38">
         <f t="shared" si="5"/>
         <v>5151238080</v>
       </c>
-      <c r="G107" s="38">
+      <c r="G107" s="37">
         <v>37414</v>
       </c>
       <c r="H107" t="s">
@@ -21614,7 +23310,7 @@
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="7"/>
-        <v>20.82</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -21634,11 +23330,11 @@
       <c r="E108" t="s">
         <v>823</v>
       </c>
-      <c r="F108" s="39">
+      <c r="F108" s="38">
         <f t="shared" si="5"/>
         <v>5151238181</v>
       </c>
-      <c r="G108" s="38">
+      <c r="G108" s="37">
         <v>37414</v>
       </c>
       <c r="H108" t="s">
@@ -21656,11 +23352,11 @@
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="7"/>
-        <v>20.82</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="9097" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J9097" s="38"/>
+      <c r="J9097" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21668,7 +23364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8E9C09-3F9C-4C70-96D1-E062DC09EEB6}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -21678,304 +23374,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="123.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="43"/>
-    <col min="5" max="5" width="15.140625" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="16.85546875" style="43"/>
+    <col min="1" max="1" width="54.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="41"/>
+    <col min="5" max="5" width="15.140625" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="16.85546875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <f ca="1">TODAY()</f>
-        <v>45017</v>
-      </c>
-      <c r="C2" s="33" t="s">
+        <v>45032</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <f ca="1">NOW()</f>
-        <v>45017.974527893515</v>
-      </c>
-      <c r="C3" s="33" t="s">
+        <v>45032.728499652774</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <f ca="1">YEAR(B2)</f>
         <v>2023</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <f ca="1">MONTH(B2)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <f ca="1">DAY(B2)</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <f ca="1">HOUR(B3)</f>
-        <v>23</v>
-      </c>
-      <c r="C7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <f ca="1">MINUTE(B3)</f>
-        <v>23</v>
-      </c>
-      <c r="C8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <f ca="1">SECOND(B3)</f>
-        <v>19</v>
-      </c>
-      <c r="C9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <f ca="1">EDATE(B2,B5)</f>
-        <v>45139</v>
-      </c>
-      <c r="C10" s="33" t="s">
+        <v>45154</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <f ca="1">EOMONTH(B2,B5)</f>
         <v>45169</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <f>DATEVALUE(E12)</f>
         <v>45139</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="43" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <f>TIMEVALUE(E13)</f>
         <v>0.97060185185185188</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="44" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <f ca="1">WORKDAY(B2,B6)</f>
-        <v>45019</v>
-      </c>
-      <c r="C14" s="33" t="s">
+        <v>45054</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <f ca="1">WORKDAY.INTL(B2,B6,1)</f>
-        <v>45019</v>
-      </c>
-      <c r="C15" s="33" t="s">
+        <v>45054</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <f ca="1">NETWORKDAYS(B2,B10)</f>
-        <v>87</v>
-      </c>
-      <c r="C16" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <f ca="1">NETWORKDAYS.INTL(B2,B10,1)</f>
-        <v>87</v>
-      </c>
-      <c r="C17" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <f ca="1">DATE(B4,B5,B6)</f>
-        <v>45017</v>
-      </c>
-      <c r="C18" s="33" t="s">
+        <v>45032</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <f ca="1">TIME(B7,B8,B9)</f>
-        <v>0.97452546296296294</v>
-      </c>
-      <c r="C19" s="33" t="s">
+        <v>0.72849537037037038</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>7</v>
-      </c>
-      <c r="C20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>7</v>
-      </c>
-      <c r="C21" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <f ca="1">_xlfn.DAYS(B10,B2)</f>
         <v>122</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <f ca="1">DAYS360(B2,B10,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <f ca="1">DATEDIF(B2,B11,"D")</f>
-        <v>152</v>
-      </c>
-      <c r="C24" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>375</v>
       </c>
     </row>
@@ -21991,7 +23687,7 @@
       <c r="A27" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -22009,1202 +23705,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4979C08-6F67-4EBD-8816-064FDFF2B18B}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>77</v>
-      </c>
-      <c r="D2">
-        <v>64</v>
-      </c>
-      <c r="E2">
-        <v>95</v>
-      </c>
-      <c r="F2">
-        <v>84</v>
-      </c>
-      <c r="G2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>88</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>86</v>
-      </c>
-      <c r="F3">
-        <v>94</v>
-      </c>
-      <c r="G3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>84</v>
-      </c>
-      <c r="D4">
-        <v>69</v>
-      </c>
-      <c r="E4">
-        <v>69</v>
-      </c>
-      <c r="F4">
-        <v>53</v>
-      </c>
-      <c r="G4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <v>83</v>
-      </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-      <c r="E6">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>52</v>
-      </c>
-      <c r="G6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>95</v>
-      </c>
-      <c r="D7">
-        <v>82</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>81</v>
-      </c>
-      <c r="G7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>78</v>
-      </c>
-      <c r="D8">
-        <v>95</v>
-      </c>
-      <c r="E8">
-        <v>60</v>
-      </c>
-      <c r="F8">
-        <v>85</v>
-      </c>
-      <c r="G8">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>76</v>
-      </c>
-      <c r="F9">
-        <v>98</v>
-      </c>
-      <c r="G9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>62</v>
-      </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10">
-        <v>91</v>
-      </c>
-      <c r="F10">
-        <v>88</v>
-      </c>
-      <c r="G10">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-      <c r="D11">
-        <v>59</v>
-      </c>
-      <c r="E11">
-        <v>69</v>
-      </c>
-      <c r="F11">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>45</v>
-      </c>
-      <c r="E12">
-        <v>84</v>
-      </c>
-      <c r="F12">
-        <v>93</v>
-      </c>
-      <c r="G12">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>84</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>45</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>63</v>
-      </c>
-      <c r="E14">
-        <v>66</v>
-      </c>
-      <c r="F14">
-        <v>47</v>
-      </c>
-      <c r="G14">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
-        <v>86</v>
-      </c>
-      <c r="D15">
-        <v>63</v>
-      </c>
-      <c r="E15">
-        <v>56</v>
-      </c>
-      <c r="F15">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16">
-        <v>75</v>
-      </c>
-      <c r="D16">
-        <v>81</v>
-      </c>
-      <c r="E16">
-        <v>70</v>
-      </c>
-      <c r="F16">
-        <v>72</v>
-      </c>
-      <c r="G16">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>76</v>
-      </c>
-      <c r="E17">
-        <v>98</v>
-      </c>
-      <c r="F17">
-        <v>66</v>
-      </c>
-      <c r="G17">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>65</v>
-      </c>
-      <c r="E18">
-        <v>79</v>
-      </c>
-      <c r="F18">
-        <v>53</v>
-      </c>
-      <c r="G18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19">
-        <v>85</v>
-      </c>
-      <c r="D19">
-        <v>88</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>92</v>
-      </c>
-      <c r="G19">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20">
-        <v>89</v>
-      </c>
-      <c r="D20">
-        <v>91</v>
-      </c>
-      <c r="E20">
-        <v>89</v>
-      </c>
-      <c r="F20">
-        <v>84</v>
-      </c>
-      <c r="G20">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <v>78</v>
-      </c>
-      <c r="E21">
-        <v>85</v>
-      </c>
-      <c r="F21">
-        <v>47</v>
-      </c>
-      <c r="G21">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>57</v>
-      </c>
-      <c r="E22">
-        <v>88</v>
-      </c>
-      <c r="F22">
-        <v>70</v>
-      </c>
-      <c r="G22">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>65</v>
-      </c>
-      <c r="D23">
-        <v>55</v>
-      </c>
-      <c r="E23">
-        <v>53</v>
-      </c>
-      <c r="F23">
-        <v>75</v>
-      </c>
-      <c r="G23">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>92</v>
-      </c>
-      <c r="E24">
-        <v>91</v>
-      </c>
-      <c r="F24">
-        <v>48</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25">
-        <v>68</v>
-      </c>
-      <c r="D25">
-        <v>53</v>
-      </c>
-      <c r="E25">
-        <v>38</v>
-      </c>
-      <c r="F25">
-        <v>85</v>
-      </c>
-      <c r="G25">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26">
-        <v>82</v>
-      </c>
-      <c r="D26">
-        <v>99</v>
-      </c>
-      <c r="E26">
-        <v>88</v>
-      </c>
-      <c r="F26">
-        <v>98</v>
-      </c>
-      <c r="G26">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27">
-        <v>73</v>
-      </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>73</v>
-      </c>
-      <c r="F27">
-        <v>43</v>
-      </c>
-      <c r="G27">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28">
-        <v>93</v>
-      </c>
-      <c r="D28">
-        <v>95</v>
-      </c>
-      <c r="E28">
-        <v>49</v>
-      </c>
-      <c r="F28">
-        <v>47</v>
-      </c>
-      <c r="G28">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29">
-        <v>84</v>
-      </c>
-      <c r="D29">
-        <v>92</v>
-      </c>
-      <c r="E29">
-        <v>93</v>
-      </c>
-      <c r="F29">
-        <v>95</v>
-      </c>
-      <c r="G29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30">
-        <v>75</v>
-      </c>
-      <c r="D30">
-        <v>91</v>
-      </c>
-      <c r="E30">
-        <v>68</v>
-      </c>
-      <c r="F30">
-        <v>75</v>
-      </c>
-      <c r="G30">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31">
-        <v>82</v>
-      </c>
-      <c r="D31">
-        <v>89</v>
-      </c>
-      <c r="E31">
-        <v>57</v>
-      </c>
-      <c r="F31">
-        <v>43</v>
-      </c>
-      <c r="G31">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32">
-        <v>72</v>
-      </c>
-      <c r="D32">
-        <v>99</v>
-      </c>
-      <c r="E32">
-        <v>78</v>
-      </c>
-      <c r="F32">
-        <v>92</v>
-      </c>
-      <c r="G32">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33">
-        <v>89</v>
-      </c>
-      <c r="D33">
-        <v>93</v>
-      </c>
-      <c r="E33">
-        <v>68</v>
-      </c>
-      <c r="F33">
-        <v>93</v>
-      </c>
-      <c r="G33">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>69</v>
-      </c>
-      <c r="D34">
-        <v>67</v>
-      </c>
-      <c r="E34">
-        <v>99</v>
-      </c>
-      <c r="F34">
-        <v>74</v>
-      </c>
-      <c r="G34">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35">
-        <v>82</v>
-      </c>
-      <c r="D35">
-        <v>72</v>
-      </c>
-      <c r="E35">
-        <v>98</v>
-      </c>
-      <c r="F35">
-        <v>75</v>
-      </c>
-      <c r="G35">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36">
-        <v>92</v>
-      </c>
-      <c r="D36">
-        <v>84</v>
-      </c>
-      <c r="E36">
-        <v>32</v>
-      </c>
-      <c r="F36">
-        <v>93</v>
-      </c>
-      <c r="G36">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37">
-        <v>97</v>
-      </c>
-      <c r="D37">
-        <v>82</v>
-      </c>
-      <c r="E37">
-        <v>62</v>
-      </c>
-      <c r="F37">
-        <v>90</v>
-      </c>
-      <c r="G37">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38">
-        <v>66</v>
-      </c>
-      <c r="D38">
-        <v>86</v>
-      </c>
-      <c r="E38">
-        <v>61</v>
-      </c>
-      <c r="F38">
-        <v>71</v>
-      </c>
-      <c r="G38">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39">
-        <v>65</v>
-      </c>
-      <c r="D39">
-        <v>92</v>
-      </c>
-      <c r="E39">
-        <v>88</v>
-      </c>
-      <c r="F39">
-        <v>63</v>
-      </c>
-      <c r="G39">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40">
-        <v>70</v>
-      </c>
-      <c r="D40">
-        <v>95</v>
-      </c>
-      <c r="E40">
-        <v>96</v>
-      </c>
-      <c r="F40">
-        <v>85</v>
-      </c>
-      <c r="G40">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41">
-        <v>68</v>
-      </c>
-      <c r="D41">
-        <v>75</v>
-      </c>
-      <c r="E41">
-        <v>94</v>
-      </c>
-      <c r="F41">
-        <v>93</v>
-      </c>
-      <c r="G41">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42">
-        <v>98</v>
-      </c>
-      <c r="D42">
-        <v>64</v>
-      </c>
-      <c r="E42">
-        <v>100</v>
-      </c>
-      <c r="F42">
-        <v>64</v>
-      </c>
-      <c r="G42">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43">
-        <v>32</v>
-      </c>
-      <c r="D43">
-        <v>80</v>
-      </c>
-      <c r="E43">
-        <v>80</v>
-      </c>
-      <c r="F43">
-        <v>77</v>
-      </c>
-      <c r="G43">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44">
-        <v>85</v>
-      </c>
-      <c r="D44">
-        <v>71</v>
-      </c>
-      <c r="E44">
-        <v>86</v>
-      </c>
-      <c r="F44">
-        <v>65</v>
-      </c>
-      <c r="G44">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45">
-        <v>87</v>
-      </c>
-      <c r="D45">
-        <v>84</v>
-      </c>
-      <c r="E45">
-        <v>78</v>
-      </c>
-      <c r="F45">
-        <v>65</v>
-      </c>
-      <c r="G45">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46">
-        <v>94</v>
-      </c>
-      <c r="D46">
-        <v>79</v>
-      </c>
-      <c r="E46">
-        <v>73</v>
-      </c>
-      <c r="F46">
-        <v>62</v>
-      </c>
-      <c r="G46">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47">
-        <v>77</v>
-      </c>
-      <c r="D47">
-        <v>76</v>
-      </c>
-      <c r="E47">
-        <v>72</v>
-      </c>
-      <c r="F47">
-        <v>77</v>
-      </c>
-      <c r="G47">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48">
-        <v>85</v>
-      </c>
-      <c r="D48">
-        <v>98</v>
-      </c>
-      <c r="E48">
-        <v>82</v>
-      </c>
-      <c r="F48">
-        <v>99</v>
-      </c>
-      <c r="G48">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49">
-        <v>65</v>
-      </c>
-      <c r="D49">
-        <v>90</v>
-      </c>
-      <c r="E49">
-        <v>73</v>
-      </c>
-      <c r="F49">
-        <v>73</v>
-      </c>
-      <c r="G49">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50">
-        <v>45</v>
-      </c>
-      <c r="D50">
-        <v>66</v>
-      </c>
-      <c r="E50">
-        <v>70</v>
-      </c>
-      <c r="F50">
-        <v>31</v>
-      </c>
-      <c r="G50">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51">
-        <v>61</v>
-      </c>
-      <c r="D51">
-        <v>93</v>
-      </c>
-      <c r="E51">
-        <v>80</v>
-      </c>
-      <c r="F51">
-        <v>60</v>
-      </c>
-      <c r="G51">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/excel-beginner-tutorial.xlsx
+++ b/excel-beginner-tutorial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26421"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B2ED4-3B62-4467-A4E1-40C449E45C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42C5F7-3F62-46E8-A747-A60092A3D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="11" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -3350,7 +3350,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3406,17 +3406,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4283,7 +4281,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100" b="0" baseline="0"/>
-            <a:t>         Datatypes is very essential as it determines what formula or calcuation to be performed.</a:t>
+            <a:t>         Datatypes are very essential as it determines what formula or calcuation to be performed.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6648,7 +6646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA1A12F-1E41-41A1-853B-53EC10CAE414}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -8166,7 +8164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2151C0B-73BA-4D05-A62D-E4D9FD47320B}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -8455,7 +8453,7 @@
         <v>263</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -8470,7 +8468,7 @@
       </c>
       <c r="J15" t="str">
         <f>VLOOKUP($J$14,$A$1:$H$10,2,0)</f>
-        <v>Luis Fonsi - Despacito ft. Daddy Yankee</v>
+        <v>Ed Sheeran - Shape of You (Official Music Video)</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -8479,7 +8477,7 @@
       </c>
       <c r="J16" t="str">
         <f>VLOOKUP($J$14,$A$1:$H$10,3,0)</f>
-        <v>LuisFonsiVEVO</v>
+        <v>Ed Sheeran</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.25">
@@ -8488,7 +8486,7 @@
       </c>
       <c r="J17" s="18">
         <f>VLOOKUP($J$14,$A$1:$H$10,4,0)</f>
-        <v>42748</v>
+        <v>42765</v>
       </c>
     </row>
     <row r="18" spans="9:10" x14ac:dyDescent="0.25">
@@ -8497,7 +8495,7 @@
       </c>
       <c r="J18">
         <f>VLOOKUP($J$14,$A$1:$H$10,5,0)</f>
-        <v>8109237463</v>
+        <v>5944830525</v>
       </c>
     </row>
     <row r="19" spans="9:10" x14ac:dyDescent="0.25">
@@ -8506,7 +8504,7 @@
       </c>
       <c r="J19" t="str">
         <f>VLOOKUP($J$14,$A$1:$H$10,6,0)</f>
-        <v>United States</v>
+        <v>United Kingdom</v>
       </c>
     </row>
     <row r="20" spans="9:10" x14ac:dyDescent="0.25">
@@ -8515,7 +8513,7 @@
       </c>
       <c r="J20" t="str">
         <f>VLOOKUP($J$14,$A$1:$H$10,7,0)</f>
-        <v>Spanish</v>
+        <v>English</v>
       </c>
     </row>
     <row r="21" spans="9:10" x14ac:dyDescent="0.25">
@@ -8524,7 +8522,7 @@
       </c>
       <c r="J21" t="str">
         <f>VLOOKUP($J$14,$A$1:$H$10,8,0)</f>
-        <v>4m 42s</v>
+        <v>4m 24s</v>
       </c>
     </row>
   </sheetData>
@@ -15584,9 +15582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968705CC-026E-4DAA-B41B-06B4A23E9192}">
   <dimension ref="C5:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15623,7 +15619,7 @@
         <v>257</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="51">
+      <c r="E6" s="48">
         <v>123</v>
       </c>
       <c r="F6" s="22"/>
@@ -15637,12 +15633,11 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="50"/>
-      <c r="E7" s="53">
+      <c r="E7" s="50">
         <v>3.14</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="55" t="b">
+      <c r="G7" s="52" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="22"/>
@@ -15652,28 +15647,24 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="52">
+      <c r="D8" s="47"/>
+      <c r="E8" s="49">
         <v>44956</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49"/>
+      <c r="F8" s="51"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="19" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="50"/>
-      <c r="D9" s="49"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="25">
         <v>44974.951585648145</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="19" t="e" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDIRECT("")</f>
         <v>#REF!</v>
@@ -15767,7 +15758,7 @@
       <c r="B10" t="s">
         <v>982</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="4" t="s">
         <v>986</v>
       </c>
       <c r="D10">
@@ -15834,10 +15825,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="53"/>
       <c r="F1" s="2" t="s">
         <v>310</v>
       </c>
@@ -16985,10 +16976,10 @@
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="P22" s="47"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
@@ -18878,14 +18869,14 @@
       </c>
       <c r="L2">
         <f ca="1">ROUND(YEARFRAC(G2,$O$2),2)</f>
-        <v>19.829999999999998</v>
+        <v>19.88</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>965</v>
       </c>
       <c r="O2" s="37">
         <f ca="1">TODAY()</f>
-        <v>45032</v>
+        <v>45049</v>
       </c>
       <c r="V2" s="4"/>
     </row>
@@ -18928,7 +18919,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" ca="1" si="3">ROUND(YEARFRAC(G3,$O$2),2)</f>
-        <v>17.57</v>
+        <v>17.62</v>
       </c>
       <c r="V3" s="4"/>
     </row>
@@ -18971,7 +18962,7 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>22.26</v>
+        <v>22.31</v>
       </c>
       <c r="V4" s="4"/>
     </row>
@@ -19014,7 +19005,7 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="3"/>
-        <v>17.29</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="V5" s="4"/>
     </row>
@@ -19057,7 +19048,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="3"/>
-        <v>15.9</v>
+        <v>15.95</v>
       </c>
       <c r="V6" s="4"/>
     </row>
@@ -19100,7 +19091,7 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.809999999999999</v>
+        <v>17.86</v>
       </c>
       <c r="V7" s="4"/>
     </row>
@@ -19143,7 +19134,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="3"/>
-        <v>17.2</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="V8" s="4"/>
     </row>
@@ -19186,7 +19177,7 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="3"/>
-        <v>16.190000000000001</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="V9" s="4"/>
     </row>
@@ -19229,7 +19220,7 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="3"/>
-        <v>20.66</v>
+        <v>20.71</v>
       </c>
       <c r="V10" s="4"/>
     </row>
@@ -19272,7 +19263,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="3"/>
-        <v>20.67</v>
+        <v>20.71</v>
       </c>
       <c r="V11" s="4"/>
     </row>
@@ -19315,7 +19306,7 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="3"/>
-        <v>17.55</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="V12" s="4"/>
     </row>
@@ -19358,7 +19349,7 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>17.54</v>
+        <v>17.59</v>
       </c>
       <c r="V13" s="4"/>
     </row>
@@ -19401,7 +19392,7 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>17.11</v>
+        <v>17.16</v>
       </c>
       <c r="V14" s="4"/>
     </row>
@@ -19444,7 +19435,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>15.36</v>
+        <v>15.41</v>
       </c>
       <c r="V15" s="4"/>
     </row>
@@ -19487,7 +19478,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>20.36</v>
+        <v>20.41</v>
       </c>
       <c r="V16" s="4"/>
     </row>
@@ -19530,7 +19521,7 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>19.91</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -19572,7 +19563,7 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="3"/>
-        <v>17.309999999999999</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -19614,7 +19605,7 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>17.73</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -19656,7 +19647,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="3"/>
-        <v>16.420000000000002</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -19698,7 +19689,7 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="3"/>
-        <v>15.68</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -19740,7 +19731,7 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="3"/>
-        <v>18.739999999999998</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -19782,7 +19773,7 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="3"/>
-        <v>18.02</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -19820,11 +19811,11 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="3"/>
-        <v>19.96</v>
+        <v>20.010000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -19866,7 +19857,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="3"/>
-        <v>17.52</v>
+        <v>17.559999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -19908,7 +19899,7 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="3"/>
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -19950,7 +19941,7 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="3"/>
-        <v>17.75</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -19992,7 +19983,7 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="3"/>
-        <v>16.55</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -20034,7 +20025,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="3"/>
-        <v>16.260000000000002</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -20076,7 +20067,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="3"/>
-        <v>15.11</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -20118,7 +20109,7 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="3"/>
-        <v>17.66</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -20160,7 +20151,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="3"/>
-        <v>17.46</v>
+        <v>17.510000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -20202,7 +20193,7 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="3"/>
-        <v>18.170000000000002</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -20244,7 +20235,7 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="3"/>
-        <v>16.02</v>
+        <v>16.059999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -20286,7 +20277,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="3"/>
-        <v>18.84</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -20328,7 +20319,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="3"/>
-        <v>16.64</v>
+        <v>16.690000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -20370,7 +20361,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="3"/>
-        <v>15.34</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -20412,7 +20403,7 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="3"/>
-        <v>15.19</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -20454,7 +20445,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="3"/>
-        <v>19.760000000000002</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -20496,7 +20487,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="3"/>
-        <v>17.47</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -20538,7 +20529,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="3"/>
-        <v>17.18</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -20580,7 +20571,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="3"/>
-        <v>17.03</v>
+        <v>17.079999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -20622,7 +20613,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="3"/>
-        <v>19.5</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -20664,7 +20655,7 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="3"/>
-        <v>18.21</v>
+        <v>18.260000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -20706,7 +20697,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="3"/>
-        <v>17.09</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -20748,7 +20739,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="3"/>
-        <v>16.77</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -20790,7 +20781,7 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="3"/>
-        <v>18.54</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -20832,7 +20823,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="3"/>
-        <v>18.28</v>
+        <v>18.329999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -20874,7 +20865,7 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="3"/>
-        <v>18.100000000000001</v>
+        <v>18.149999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -20916,7 +20907,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="3"/>
-        <v>15.5</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -20958,7 +20949,7 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="3"/>
-        <v>15.21</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -21000,7 +20991,7 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="3"/>
-        <v>18.21</v>
+        <v>18.260000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -21042,7 +21033,7 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="3"/>
-        <v>18.059999999999999</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -21084,7 +21075,7 @@
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="3"/>
-        <v>17.66</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -21126,7 +21117,7 @@
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="3"/>
-        <v>17.04</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -21168,7 +21159,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="3"/>
-        <v>16.350000000000001</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -21210,7 +21201,7 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="3"/>
-        <v>15.4</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -21252,7 +21243,7 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="3"/>
-        <v>19.21</v>
+        <v>19.260000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -21294,7 +21285,7 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="3"/>
-        <v>19.12</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -21336,7 +21327,7 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="3"/>
-        <v>18.71</v>
+        <v>18.760000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -21378,7 +21369,7 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="3"/>
-        <v>18.100000000000001</v>
+        <v>18.149999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -21420,7 +21411,7 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="3"/>
-        <v>17.34</v>
+        <v>17.38</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -21462,7 +21453,7 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="3"/>
-        <v>16.45</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -21504,7 +21495,7 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="3"/>
-        <v>17.43</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -21546,7 +21537,7 @@
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="3"/>
-        <v>16.079999999999998</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -21588,7 +21579,7 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="3"/>
-        <v>15.23</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -21630,7 +21621,7 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L108" ca="1" si="7">ROUND(YEARFRAC(G67,$O$2),2)</f>
-        <v>15.15</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -21672,7 +21663,7 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="7"/>
-        <v>15.06</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -21710,11 +21701,11 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="7"/>
-        <v>14.99</v>
+        <v>15.03</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -21756,7 +21747,7 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="7"/>
-        <v>18.100000000000001</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -21798,7 +21789,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="7"/>
-        <v>17.059999999999999</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -21840,7 +21831,7 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="7"/>
-        <v>17.23</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -21882,7 +21873,7 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="7"/>
-        <v>16.149999999999999</v>
+        <v>16.190000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -21924,7 +21915,7 @@
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="7"/>
-        <v>16.059999999999999</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -21962,11 +21953,11 @@
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="7"/>
-        <v>14.99</v>
+        <v>15.03</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -22008,7 +21999,7 @@
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="7"/>
-        <v>18.93</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -22050,7 +22041,7 @@
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="7"/>
-        <v>18.079999999999998</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -22092,7 +22083,7 @@
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="7"/>
-        <v>17.059999999999999</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -22130,11 +22121,11 @@
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="7"/>
-        <v>16.98</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -22176,7 +22167,7 @@
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="7"/>
-        <v>15.89</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -22218,7 +22209,7 @@
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="7"/>
-        <v>15.28</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -22260,7 +22251,7 @@
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="7"/>
-        <v>17.23</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -22302,7 +22293,7 @@
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="7"/>
-        <v>17.149999999999999</v>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -22344,7 +22335,7 @@
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="7"/>
-        <v>15.82</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -22386,7 +22377,7 @@
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="7"/>
-        <v>15.2</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -22428,7 +22419,7 @@
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="7"/>
-        <v>19.22</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -22470,7 +22461,7 @@
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="7"/>
-        <v>18.16</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -22512,7 +22503,7 @@
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="7"/>
-        <v>16.809999999999999</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -22554,7 +22545,7 @@
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="7"/>
-        <v>16.190000000000001</v>
+        <v>16.239999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -22596,7 +22587,7 @@
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="7"/>
-        <v>17.84</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -22638,7 +22629,7 @@
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="7"/>
-        <v>17.68</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -22680,7 +22671,7 @@
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="7"/>
-        <v>16.760000000000002</v>
+        <v>16.809999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -22722,7 +22713,7 @@
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="7"/>
-        <v>15.33</v>
+        <v>15.37</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -22764,7 +22755,7 @@
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="7"/>
-        <v>19.2</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -22806,7 +22797,7 @@
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="7"/>
-        <v>18.12</v>
+        <v>18.170000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -22848,7 +22839,7 @@
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="7"/>
-        <v>16.79</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -22890,7 +22881,7 @@
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="7"/>
-        <v>16.079999999999998</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -22928,11 +22919,11 @@
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L98">
         <f t="shared" ca="1" si="7"/>
-        <v>16.98</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -22974,7 +22965,7 @@
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="7"/>
-        <v>16.899999999999999</v>
+        <v>16.940000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -23016,7 +23007,7 @@
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="7"/>
-        <v>15.82</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -23058,7 +23049,7 @@
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="7"/>
-        <v>15.26</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -23100,7 +23091,7 @@
       </c>
       <c r="L102">
         <f t="shared" ca="1" si="7"/>
-        <v>19.579999999999998</v>
+        <v>19.63</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -23142,7 +23133,7 @@
       </c>
       <c r="L103">
         <f t="shared" ca="1" si="7"/>
-        <v>19.16</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -23184,7 +23175,7 @@
       </c>
       <c r="L104">
         <f t="shared" ca="1" si="7"/>
-        <v>17.66</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -23226,7 +23217,7 @@
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="7"/>
-        <v>20.86</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -23268,7 +23259,7 @@
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="7"/>
-        <v>20.86</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -23310,7 +23301,7 @@
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="7"/>
-        <v>20.86</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -23352,7 +23343,7 @@
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="7"/>
-        <v>20.86</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="9097" spans="10:10" x14ac:dyDescent="0.25">
@@ -23399,7 +23390,7 @@
       </c>
       <c r="B2" s="31">
         <f ca="1">TODAY()</f>
-        <v>45032</v>
+        <v>45049</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>332</v>
@@ -23411,7 +23402,7 @@
       </c>
       <c r="B3" s="33">
         <f ca="1">NOW()</f>
-        <v>45032.728499652774</v>
+        <v>45049.844534606484</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>334</v>
@@ -23435,7 +23426,7 @@
       </c>
       <c r="B5" s="32">
         <f ca="1">MONTH(B2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>338</v>
@@ -23447,7 +23438,7 @@
       </c>
       <c r="B6" s="32">
         <f ca="1">DAY(B2)</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>340</v>
@@ -23459,7 +23450,7 @@
       </c>
       <c r="B7" s="32">
         <f ca="1">HOUR(B3)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>342</v>
@@ -23471,7 +23462,7 @@
       </c>
       <c r="B8" s="32">
         <f ca="1">MINUTE(B3)</f>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>344</v>
@@ -23483,7 +23474,7 @@
       </c>
       <c r="B9" s="32">
         <f ca="1">SECOND(B3)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>346</v>
@@ -23495,7 +23486,7 @@
       </c>
       <c r="B10" s="31">
         <f ca="1">EDATE(B2,B5)</f>
-        <v>45154</v>
+        <v>45202</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>348</v>
@@ -23507,7 +23498,7 @@
       </c>
       <c r="B11" s="31">
         <f ca="1">EOMONTH(B2,B5)</f>
-        <v>45169</v>
+        <v>45230</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>350</v>
@@ -23573,7 +23564,7 @@
       </c>
       <c r="B16" s="32">
         <f ca="1">NETWORKDAYS(B2,B10)</f>
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>360</v>
@@ -23585,7 +23576,7 @@
       </c>
       <c r="B17" s="32">
         <f ca="1">NETWORKDAYS.INTL(B2,B10,1)</f>
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>362</v>
@@ -23597,7 +23588,7 @@
       </c>
       <c r="B18" s="35">
         <f ca="1">DATE(B4,B5,B6)</f>
-        <v>45032</v>
+        <v>45049</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>364</v>
@@ -23609,7 +23600,7 @@
       </c>
       <c r="B19" s="36">
         <f ca="1">TIME(B7,B8,B9)</f>
-        <v>0.72849537037037038</v>
+        <v>0.84453703703703698</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>366</v>
@@ -23621,7 +23612,7 @@
       </c>
       <c r="B20" s="32">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>368</v>
@@ -23633,7 +23624,7 @@
       </c>
       <c r="B21" s="32">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>368</v>
@@ -23645,7 +23636,7 @@
       </c>
       <c r="B22" s="32">
         <f ca="1">_xlfn.DAYS(B10,B2)</f>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>371</v>
@@ -23657,7 +23648,7 @@
       </c>
       <c r="B23" s="32">
         <f ca="1">DAYS360(B2,B10,FALSE)</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>373</v>
@@ -23669,7 +23660,7 @@
       </c>
       <c r="B24" s="32">
         <f ca="1">DATEDIF(B2,B11,"D")</f>
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>375</v>
